--- a/data/hotels_by_city/Denver/Denver_shard_233.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_233.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33412-d223895-Reviews-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Residence-Inn-By-Marriott-Denver-Park-Meadows.h482390.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1453 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r594706897-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>223895</t>
+  </si>
+  <si>
+    <t>594706897</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Wedding weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved the 2 bedroom layout with 2 littles.  A place for each to get good rest and the adults had a great place to visit. Downfall was the breakfast.  It was very crowded and hard  to maneuver. Fresh fruit was not available and yogurt was very limited </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r594628025-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>594628025</t>
+  </si>
+  <si>
+    <t>Don't waste your money</t>
+  </si>
+  <si>
+    <t>I stay there recently tried to check in after the check-in time however there were no rooms available. Got a list of excuses from the front desk. Waited in the lobby for 25 minutes before being allowed to check in. Once entering the room it smelled of old pet feces, smoke, and Musk. Went to the front desk ask them to take care of the smell after asking a second time they finally sent someone to take care of it. We were in a large group and there were several rooms that had this issue with odor. The bathroom was not clean there was hair all over the floor and toilet that did not belong to anyone in our party. I mentioned it to the front desk and was told they were short on housekeeping staff. I asked for a mattress cover for the fold-out couch they told me they did not have any that were clean. This hotel does not have the same amenities that most Residence Inns do. I did not get in the pool but it was reported to me the bottom of the pool was dirty. Don't waste your money stay somewhere nicer where there is more to do and see nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stay there recently tried to check in after the check-in time however there were no rooms available. Got a list of excuses from the front desk. Waited in the lobby for 25 minutes before being allowed to check in. Once entering the room it smelled of old pet feces, smoke, and Musk. Went to the front desk ask them to take care of the smell after asking a second time they finally sent someone to take care of it. We were in a large group and there were several rooms that had this issue with odor. The bathroom was not clean there was hair all over the floor and toilet that did not belong to anyone in our party. I mentioned it to the front desk and was told they were short on housekeeping staff. I asked for a mattress cover for the fold-out couch they told me they did not have any that were clean. This hotel does not have the same amenities that most Residence Inns do. I did not get in the pool but it was reported to me the bottom of the pool was dirty. Don't waste your money stay somewhere nicer where there is more to do and see nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r591296536-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>591296536</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Pleasant stay while relocating</t>
+  </si>
+  <si>
+    <t>We were in the first week of our relocation from out of state to the area.We initially booked 4 nights, but our moving van was delayed. We contacted the front desk and they were able to extend our stay for a few days. Unfortunately, due to the high summer travel season,etc. our 2nd week was not available. BUT - while we were staying there the front desk staff were very helpful, accommodating, and pleasant.For a few nights during the week they host a managers reception - mostly apps and such. The hotel is right by Park Meadows Mall - shopping and many restaurants to choose from.One drawback - the eating area is too small for the number of guests. When the weather is nice one can outside to the courtyard and eat, but, in bad weather...Thank you to the staff at the Residence Inn for being our 'home away from home'MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>We were in the first week of our relocation from out of state to the area.We initially booked 4 nights, but our moving van was delayed. We contacted the front desk and they were able to extend our stay for a few days. Unfortunately, due to the high summer travel season,etc. our 2nd week was not available. BUT - while we were staying there the front desk staff were very helpful, accommodating, and pleasant.For a few nights during the week they host a managers reception - mostly apps and such. The hotel is right by Park Meadows Mall - shopping and many restaurants to choose from.One drawback - the eating area is too small for the number of guests. When the weather is nice one can outside to the courtyard and eat, but, in bad weather...Thank you to the staff at the Residence Inn for being our 'home away from home'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r584461521-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>584461521</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Ask for a Room With Quiet HVAC</t>
+  </si>
+  <si>
+    <t>I was tempted to give the Residence Inn one star due to the idiotic – that is not meant to be an insult, it is meant to be descriptive – placement of the main HVAC vent -- air blows directly onto the right side of the bed with full force and a loud noise. We should have switched rooms, assuming one would be available that did not have this problem. The room itself is spacious – good work area, kitchen with the necessary stuff to eat, a coffee make and toaster, excellent bathroom and shower. The breakfast in the lobby was all right – no different than similar hotels, the staff friendly. Housekeeping was late preparing our room and we had to wait for the room to be cleaned before I could get to work in the afternoon and my wife could take a nap. The surrounding little series of shops has several restaurants. If you stay here, ask about the location of the HVAC vents in the room, bring ear plugs if you are a light sleeper and if you want to be in your room during the afternoon request an early clean up.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>I was tempted to give the Residence Inn one star due to the idiotic – that is not meant to be an insult, it is meant to be descriptive – placement of the main HVAC vent -- air blows directly onto the right side of the bed with full force and a loud noise. We should have switched rooms, assuming one would be available that did not have this problem. The room itself is spacious – good work area, kitchen with the necessary stuff to eat, a coffee make and toaster, excellent bathroom and shower. The breakfast in the lobby was all right – no different than similar hotels, the staff friendly. Housekeeping was late preparing our room and we had to wait for the room to be cleaned before I could get to work in the afternoon and my wife could take a nap. The surrounding little series of shops has several restaurants. If you stay here, ask about the location of the HVAC vents in the room, bring ear plugs if you are a light sleeper and if you want to be in your room during the afternoon request an early clean up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r559584402-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>559584402</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Price raises the overall rating</t>
+  </si>
+  <si>
+    <t>This was a clean and comfortable Marriott RI.  The nightly cost was $50 less than my last weeks stay in a Houston RI.  The breakfast area is too small for the weekend all the waffles you can eat crowd   OMG,  they had bacon and french toast on the weekend.  Good for them!  However if you think RI provides a night time meal at their MIX,  you will be disappointed.    The suits think that a dip and a bowl of chips is a meal.  Nix the Mix,  provide a better breakfast.   No housekeeping or front desk problems with my stay, switched out feather pillows immediately,  good wifi and large TV selection.  No kitchen oven.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>This was a clean and comfortable Marriott RI.  The nightly cost was $50 less than my last weeks stay in a Houston RI.  The breakfast area is too small for the weekend all the waffles you can eat crowd   OMG,  they had bacon and french toast on the weekend.  Good for them!  However if you think RI provides a night time meal at their MIX,  you will be disappointed.    The suits think that a dip and a bowl of chips is a meal.  Nix the Mix,  provide a better breakfast.   No housekeeping or front desk problems with my stay, switched out feather pillows immediately,  good wifi and large TV selection.  No kitchen oven.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r555159493-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>555159493</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Normally, I like Residence Inns, however, this property falls short on service. First of all, had an issue with toilet backing up, and instead of housekeeping taking care of it, the front desk person sought me out in the breakfast area and handed me a plunger. I thought I only had to do these things at my house, not when I am paying. Woke up to a few inches of snow, no big deal, except would expect them to shovel the walk. When I asked, was told they will get to it whenever, customer safety on icy sidewalk was not a priority. These were just the 2 most noticable things, were other incidents, ie rooms not real clean (dishes in sink...). Was a little shocked at their complete disregard for customer service. If service is not important to you, this place is OK. In the future will look for other hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Normally, I like Residence Inns, however, this property falls short on service. First of all, had an issue with toilet backing up, and instead of housekeeping taking care of it, the front desk person sought me out in the breakfast area and handed me a plunger. I thought I only had to do these things at my house, not when I am paying. Woke up to a few inches of snow, no big deal, except would expect them to shovel the walk. When I asked, was told they will get to it whenever, customer safety on icy sidewalk was not a priority. These were just the 2 most noticable things, were other incidents, ie rooms not real clean (dishes in sink...). Was a little shocked at their complete disregard for customer service. If service is not important to you, this place is OK. In the future will look for other hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r538843647-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>538843647</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Triple lock your doors!</t>
+  </si>
+  <si>
+    <t>I checked into the hotel on Saturday, November 4th in the late morning. I had a fairly quick turnaround to get settled and head out to an event. I had been in my room for about an hour when a man came into my room. He knocked and opened the door at the same time, and I was standing near the bed, in full view of the door with my pants off, as i was changing my clothes. He said sorry and closed the door, while I stood there shocked and  embarrassed. I quickly got dressed and left for my event, telling an employee on my way out. I did not feel safe after that, put a chair in front of the door and slept very lightly. I did email the manager (no management there on the weekends) and heard back with an apology. I will not be staying at a Residence Inn again, but if you stay here, make sure to triple lock your doors!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>I checked into the hotel on Saturday, November 4th in the late morning. I had a fairly quick turnaround to get settled and head out to an event. I had been in my room for about an hour when a man came into my room. He knocked and opened the door at the same time, and I was standing near the bed, in full view of the door with my pants off, as i was changing my clothes. He said sorry and closed the door, while I stood there shocked and  embarrassed. I quickly got dressed and left for my event, telling an employee on my way out. I did not feel safe after that, put a chair in front of the door and slept very lightly. I did email the manager (no management there on the weekends) and heard back with an apology. I will not be staying at a Residence Inn again, but if you stay here, make sure to triple lock your doors!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r529161857-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>529161857</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Alexis at front desk was very friendly and helpful with suggestions for restaurants.  Breakfast was good but kept running out of things.  Also, we had asked for a room on the quiet side of the hotel but were given a room that faces I-25 and could hear the traffic.  Found out later that the quiet rooms are the "inside" rooms facing the inner courtyard.  The room was nice, but the hotel has no king beds, and the mattresses could use an updating and, as with many U.S. Marriott's, hotel security could be much better.  Rooms are accessible to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Alexis at front desk was very friendly and helpful with suggestions for restaurants.  Breakfast was good but kept running out of things.  Also, we had asked for a room on the quiet side of the hotel but were given a room that faces I-25 and could hear the traffic.  Found out later that the quiet rooms are the "inside" rooms facing the inner courtyard.  The room was nice, but the hotel has no king beds, and the mattresses could use an updating and, as with many U.S. Marriott's, hotel security could be much better.  Rooms are accessible to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r526132248-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>526132248</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>BRONCO GAME BRONCOS WON</t>
+  </si>
+  <si>
+    <t>We arrived early. The Inn had been sold out the night before so we thought we would not be able to check in. However the desk clerk checked and found that our room was ready , so we did check in. This Hotel has some of the most accommodating People working for them. It is a pleasure to stay in this hotel. We have season tickets to the Broncos so we will probably be using this Inn whenever we can.  The Inn is very close to I-25 so it is easy to reach. The breakfast was very good and fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived early. The Inn had been sold out the night before so we thought we would not be able to check in. However the desk clerk checked and found that our room was ready , so we did check in. This Hotel has some of the most accommodating People working for them. It is a pleasure to stay in this hotel. We have season tickets to the Broncos so we will probably be using this Inn whenever we can.  The Inn is very close to I-25 so it is easy to reach. The breakfast was very good and fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r510728240-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>510728240</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Nice stay, convenient location</t>
+  </si>
+  <si>
+    <t>Nice stay at this Residence Inn south of Denver. Rooms were clean, property in great condition. Front desk was very friendly and upgraded our room to a suite so that was great. I would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>CSM_HotelManager, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Nice stay at this Residence Inn south of Denver. Rooms were clean, property in great condition. Front desk was very friendly and upgraded our room to a suite so that was great. I would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r506189038-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>506189038</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Nice property in a great location</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for 4 nights as he was in transition from one apartment to another.  He also had surgery on a broken leg and it worked out perfectly to have the separate living room and bedroom.  We did have an accessible room which was perfect for him to be able to roll in with his knee scooter.  Furniture could use a little updating and hallways could be maintained a bit more.The hotel is in a great location to shopping, restaurants and major interstates.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSM_HotelManager, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for 4 nights as he was in transition from one apartment to another.  He also had surgery on a broken leg and it worked out perfectly to have the separate living room and bedroom.  We did have an accessible room which was perfect for him to be able to roll in with his knee scooter.  Furniture could use a little updating and hallways could be maintained a bit more.The hotel is in a great location to shopping, restaurants and major interstates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r505854394-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>505854394</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Home away from home with helpful and attentive staff.</t>
+  </si>
+  <si>
+    <t>This was our first trip to Denver and we chose this hotel for its central location to our relatives living there. We wanted a place with a full kitchen so that we could cook and have the family over for meals and a swim in the pool. The hotel is exceptionally clean, the landscaping was lovely and well kept, the atmosphere was calm,  but best of all were the staff who stepped up to take great care of us. We stayed in an ADA room (for persons with disabilities) and had our little dog with us. The staff was exceptional, reaching out to see if we needed anything and quickly taking care of our requests. The staff made us feel like family. They were gracious, kind, attentive and always had a nice comment and a smile. From our initial phone contact with Phil who turned out to be just as nice in person to our housekeeper Melissa who was soft, personable, pleasant, nuanced - absolutely someone you'd want working in your own home - to Carissa graciously who went out of her way on a moment's notice to assist with housekeeping needs to Janice who makes a breakfast spread that rivals a good restaurant - and has done so for 15 years so she really knows how - to Jennifer  at the front desk who makes you feel she came to work just to help you out - to Jose...This was our first trip to Denver and we chose this hotel for its central location to our relatives living there. We wanted a place with a full kitchen so that we could cook and have the family over for meals and a swim in the pool. The hotel is exceptionally clean, the landscaping was lovely and well kept, the atmosphere was calm,  but best of all were the staff who stepped up to take great care of us. We stayed in an ADA room (for persons with disabilities) and had our little dog with us. The staff was exceptional, reaching out to see if we needed anything and quickly taking care of our requests. The staff made us feel like family. They were gracious, kind, attentive and always had a nice comment and a smile. From our initial phone contact with Phil who turned out to be just as nice in person to our housekeeper Melissa who was soft, personable, pleasant, nuanced - absolutely someone you'd want working in your own home - to Carissa graciously who went out of her way on a moment's notice to assist with housekeeping needs to Janice who makes a breakfast spread that rivals a good restaurant - and has done so for 15 years so she really knows how - to Jennifer  at the front desk who makes you feel she came to work just to help you out - to Jose who has an elegance that shines when he carries your luggage to the car or brings an extra chair for your guests -- If we lived closer to these great people we would invite them over for a thank you dinner. Thank you Melissa, Phil, Janice, Carissa and Jose for making us feel we were guests at your home.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSM_HotelManager, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>This was our first trip to Denver and we chose this hotel for its central location to our relatives living there. We wanted a place with a full kitchen so that we could cook and have the family over for meals and a swim in the pool. The hotel is exceptionally clean, the landscaping was lovely and well kept, the atmosphere was calm,  but best of all were the staff who stepped up to take great care of us. We stayed in an ADA room (for persons with disabilities) and had our little dog with us. The staff was exceptional, reaching out to see if we needed anything and quickly taking care of our requests. The staff made us feel like family. They were gracious, kind, attentive and always had a nice comment and a smile. From our initial phone contact with Phil who turned out to be just as nice in person to our housekeeper Melissa who was soft, personable, pleasant, nuanced - absolutely someone you'd want working in your own home - to Carissa graciously who went out of her way on a moment's notice to assist with housekeeping needs to Janice who makes a breakfast spread that rivals a good restaurant - and has done so for 15 years so she really knows how - to Jennifer  at the front desk who makes you feel she came to work just to help you out - to Jose...This was our first trip to Denver and we chose this hotel for its central location to our relatives living there. We wanted a place with a full kitchen so that we could cook and have the family over for meals and a swim in the pool. The hotel is exceptionally clean, the landscaping was lovely and well kept, the atmosphere was calm,  but best of all were the staff who stepped up to take great care of us. We stayed in an ADA room (for persons with disabilities) and had our little dog with us. The staff was exceptional, reaching out to see if we needed anything and quickly taking care of our requests. The staff made us feel like family. They were gracious, kind, attentive and always had a nice comment and a smile. From our initial phone contact with Phil who turned out to be just as nice in person to our housekeeper Melissa who was soft, personable, pleasant, nuanced - absolutely someone you'd want working in your own home - to Carissa graciously who went out of her way on a moment's notice to assist with housekeeping needs to Janice who makes a breakfast spread that rivals a good restaurant - and has done so for 15 years so she really knows how - to Jennifer  at the front desk who makes you feel she came to work just to help you out - to Jose who has an elegance that shines when he carries your luggage to the car or brings an extra chair for your guests -- If we lived closer to these great people we would invite them over for a thank you dinner. Thank you Melissa, Phil, Janice, Carissa and Jose for making us feel we were guests at your home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r496372814-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>496372814</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Met our needs but no frills.</t>
+  </si>
+  <si>
+    <t>Five of us checked in for four nights but the two bedroom suites were terribly small for all of us so we had to add a one bedroom.  The pull out sofas are only suitable for small children as they are terribly uncomfortable.  On the plus side, the linens were very clean and the housekeeping staff did a great job of cleaning the suites.  The HVAC was so efficient and provides wonderful white noise.  There was a very cold indoor pool, but no spa, despite signs everywhere in the hotel that point to a spa. Breakfast buffet was adequate but with the usual high carb, cheap, choices.  Staff very friendly and responsive, but all in all nothing special and would only recommend for one night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>CSM_HotelManager, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Five of us checked in for four nights but the two bedroom suites were terribly small for all of us so we had to add a one bedroom.  The pull out sofas are only suitable for small children as they are terribly uncomfortable.  On the plus side, the linens were very clean and the housekeeping staff did a great job of cleaning the suites.  The HVAC was so efficient and provides wonderful white noise.  There was a very cold indoor pool, but no spa, despite signs everywhere in the hotel that point to a spa. Breakfast buffet was adequate but with the usual high carb, cheap, choices.  Staff very friendly and responsive, but all in all nothing special and would only recommend for one night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r495426284-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>495426284</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We were on a road trip out west and chose this Hotel for location and price-got a great deal!  Haven't stayed at a Residence Inn for long time, will be sooner next time.Staff was great, our room was awesome!  Full size kitchen which we didn't really utilize, free bag of microwave popcorn we did make while sitting on the comfy couch watching tv.  Bed was comfy, big closet, nice bathroom too. Sink is in separate area which to me is a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>We were on a road trip out west and chose this Hotel for location and price-got a great deal!  Haven't stayed at a Residence Inn for long time, will be sooner next time.Staff was great, our room was awesome!  Full size kitchen which we didn't really utilize, free bag of microwave popcorn we did make while sitting on the comfy couch watching tv.  Bed was comfy, big closet, nice bathroom too. Sink is in separate area which to me is a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r495015333-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>495015333</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for business</t>
+  </si>
+  <si>
+    <t>I was really happy with the service at this hotel.  I was here for work for a full week and even while they were under construction they still gave great service.  Free parking was a bonus for my rental car and plenty of food places to eat at around there.  I will say the food there was actually quite good!  And to the awesome server at the morning buffet who has been there for 30 years, THANK YOU for making our mornings so delightful.  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>I was really happy with the service at this hotel.  I was here for work for a full week and even while they were under construction they still gave great service.  Free parking was a bonus for my rental car and plenty of food places to eat at around there.  I will say the food there was actually quite good!  And to the awesome server at the morning buffet who has been there for 30 years, THANK YOU for making our mornings so delightful.  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r461862216-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>461862216</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home away from home </t>
+  </si>
+  <si>
+    <t>Amazing little apartment , great service and great staff.. couldn't be happier. My home away from home. Stayed here for almost 20 days. Loved it!  Good sixe of rooms , good bathrooms and a lovely living lounge and kitchen with all crockery and cutlery , micro and oven, fridge. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Amazing little apartment , great service and great staff.. couldn't be happier. My home away from home. Stayed here for almost 20 days. Loved it!  Good sixe of rooms , good bathrooms and a lovely living lounge and kitchen with all crockery and cutlery , micro and oven, fridge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r456365526-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>456365526</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Good place for long homelike stay - away from home</t>
+  </si>
+  <si>
+    <t>Good convenient location  on County line and I-25, close to Denver tech center, park meadows mall and Parker. They even bring your groceries if you drop in the request early morning.Paid Laundry machines are located only on one floor. Morning breakfast is included in the stay and is a fairly good option for the hotel price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Good convenient location  on County line and I-25, close to Denver tech center, park meadows mall and Parker. They even bring your groceries if you drop in the request early morning.Paid Laundry machines are located only on one floor. Morning breakfast is included in the stay and is a fairly good option for the hotel price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r448719990-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>448719990</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Weirdest floor plan</t>
+  </si>
+  <si>
+    <t>The structure looks great from the outside but the floor plan is strange.  You have to go down the hall to the right of the desk, then turn left and then right and then right again to get to the elevator. It was like a maze.  In the hall behind the desk (2nd hall you go down), both days, they had a big cart full of the smelly, collected garbage bags.  Granted, it was on 12/31 and 1/1 that we were there and so there was probably a lack of staff.  But it seemed odd that the bin was placed where every guest had to pass by it coming and going.  Also, there was no room attention on 1/1 which I guess was understandable with the holiday.  Breakfast was very good both days.  The room was clean.  Besides the trash, the other problem was someone who shared the venting in our bathroom was smoking.  We had to turn on the fan to get rid of the smell.  It was both nights.  I assume because of short staff, the desk wasn't able to investigate it.  It's hard to get to as well.  The easiest is to come from the south and get off at County Line Road and turn in where you would catch light rail.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>The structure looks great from the outside but the floor plan is strange.  You have to go down the hall to the right of the desk, then turn left and then right and then right again to get to the elevator. It was like a maze.  In the hall behind the desk (2nd hall you go down), both days, they had a big cart full of the smelly, collected garbage bags.  Granted, it was on 12/31 and 1/1 that we were there and so there was probably a lack of staff.  But it seemed odd that the bin was placed where every guest had to pass by it coming and going.  Also, there was no room attention on 1/1 which I guess was understandable with the holiday.  Breakfast was very good both days.  The room was clean.  Besides the trash, the other problem was someone who shared the venting in our bathroom was smoking.  We had to turn on the fan to get rid of the smell.  It was both nights.  I assume because of short staff, the desk wasn't able to investigate it.  It's hard to get to as well.  The easiest is to come from the south and get off at County Line Road and turn in where you would catch light rail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r412729375-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>412729375</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Good Long Term Stay - Special Request for Allergies</t>
+  </si>
+  <si>
+    <t>I travel with work with long term assignments away. This location met all my needs. I did call in advance because I have allergies to dogs and dust plus many other things and requested a room either not used for pets or one that was recently deep cleaned and they accommodated my needs. I had a one bedroom suite so that is nice to be able to close the door to the other part of the room and have more quiet. There was some road noise but I travel with white noise to help drown that out.The breakfast was good and has just recently been upgraded to have more options. I wish they would have "real" food each evening but they only had grilled options on Tuesday. Many of the long term stay hotels are getting away from this but it would be nice if they would go back and I have been to a competitor recently who serves food 4 nights a week and it was awesome especially for those of us working long days and barely make it back to the room for food.  Cooking is not fun late.Overall it was a good stay and that is my only recommendation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I travel with work with long term assignments away. This location met all my needs. I did call in advance because I have allergies to dogs and dust plus many other things and requested a room either not used for pets or one that was recently deep cleaned and they accommodated my needs. I had a one bedroom suite so that is nice to be able to close the door to the other part of the room and have more quiet. There was some road noise but I travel with white noise to help drown that out.The breakfast was good and has just recently been upgraded to have more options. I wish they would have "real" food each evening but they only had grilled options on Tuesday. Many of the long term stay hotels are getting away from this but it would be nice if they would go back and I have been to a competitor recently who serves food 4 nights a week and it was awesome especially for those of us working long days and barely make it back to the room for food.  Cooking is not fun late.Overall it was a good stay and that is my only recommendation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r399521031-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>399521031</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Just enough</t>
+  </si>
+  <si>
+    <t>I stayed in a room with two bedroom, all of the 8 pillow were smelly, I couldn't stand the sweety smellNo shower cap, I went to the front desk to ask for it, and they told me that it wasn't any, final answer.Carpet very outdatedMoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in a room with two bedroom, all of the 8 pillow were smelly, I couldn't stand the sweety smellNo shower cap, I went to the front desk to ask for it, and they told me that it wasn't any, final answer.Carpet very outdatedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r398436533-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>398436533</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious and clean suites with kitchens . Bed very comfortable and room was very clean . Felt instantly relaxed . Staff was very friendly and welcoming . They offer an evening reception Monday through Wednesday with free drinks and food . Breakfast very good , everything you would want . Definitely will be back ! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r386136945-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>386136945</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Clean room with great breakfast</t>
+  </si>
+  <si>
+    <t>We stayed here for one night. Wish it could've been longer. The room was great. Lots of amenities . The breakfast was the best hotel breakfast we've ever had! Would definitely stay here next time we visit!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r380072497-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>380072497</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Unclean and not fresh room, unhelpful stuff.Paid for two beds and got only one.Made me slip on the dirty pullout couch for $100Very dirty bedsheets and pillows,Unclean fridge with leftovers.Very disappointed. Won't recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Unclean and not fresh room, unhelpful stuff.Paid for two beds and got only one.Made me slip on the dirty pullout couch for $100Very dirty bedsheets and pillows,Unclean fridge with leftovers.Very disappointed. Won't recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r376946386-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>376946386</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Dirty, Rundown Disappointment</t>
+  </si>
+  <si>
+    <t>We're on a road trip from Vermont to California -- with our two dogs and my sister-in-law.  All of us are experienced travelers -- and we particularly like Residence Inns because of their dog-friendly policy and because they are usually clean and feel like a home away from home.
+We booked this hotel via the Marriott iPhone app.  There are many Residence Inns in the Denver area, and we selected this one because it's just off the highway.
+Goodness gracious -- what a disappointment.
+This hotel is way, way past it's "sell by" date -- and the lack of cleanliness was appalling.  Although we have dogs our room was on the second floor, and at the very, very end of the hallway.  It smelled musty, the kitchen floor and tables were all sticky, and the furniture was battered and bashed.  The couch and chair were frayed and there was a large, blue, sticky stain on the couch seat cushion.
+If we weren't tired from our drive from Rapid City, we'd have checked out and gone elsewhere.  If I were the Marriott executive responsible for the oversight of this property, I'd start looking for another job.
+I spoke with the general manager.  We stood together on a dirty outdoor porch littered with cigarette butts and other rubbish -- and she explained that she was dealing with issues concerning a lack of funding for capital improvements.  Fine -- but there were also...We're on a road trip from Vermont to California -- with our two dogs and my sister-in-law.  All of us are experienced travelers -- and we particularly like Residence Inns because of their dog-friendly policy and because they are usually clean and feel like a home away from home.We booked this hotel via the Marriott iPhone app.  There are many Residence Inns in the Denver area, and we selected this one because it's just off the highway.Goodness gracious -- what a disappointment.This hotel is way, way past it's "sell by" date -- and the lack of cleanliness was appalling.  Although we have dogs our room was on the second floor, and at the very, very end of the hallway.  It smelled musty, the kitchen floor and tables were all sticky, and the furniture was battered and bashed.  The couch and chair were frayed and there was a large, blue, sticky stain on the couch seat cushion.If we weren't tired from our drive from Rapid City, we'd have checked out and gone elsewhere.  If I were the Marriott executive responsible for the oversight of this property, I'd start looking for another job.I spoke with the general manager.  We stood together on a dirty outdoor porch littered with cigarette butts and other rubbish -- and she explained that she was dealing with issues concerning a lack of funding for capital improvements.  Fine -- but there were also many issues of the place just being ol' fashioned dirty.Not impressive -- and it makes me reluctant to trust the Residence Inn brand again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>We're on a road trip from Vermont to California -- with our two dogs and my sister-in-law.  All of us are experienced travelers -- and we particularly like Residence Inns because of their dog-friendly policy and because they are usually clean and feel like a home away from home.
+We booked this hotel via the Marriott iPhone app.  There are many Residence Inns in the Denver area, and we selected this one because it's just off the highway.
+Goodness gracious -- what a disappointment.
+This hotel is way, way past it's "sell by" date -- and the lack of cleanliness was appalling.  Although we have dogs our room was on the second floor, and at the very, very end of the hallway.  It smelled musty, the kitchen floor and tables were all sticky, and the furniture was battered and bashed.  The couch and chair were frayed and there was a large, blue, sticky stain on the couch seat cushion.
+If we weren't tired from our drive from Rapid City, we'd have checked out and gone elsewhere.  If I were the Marriott executive responsible for the oversight of this property, I'd start looking for another job.
+I spoke with the general manager.  We stood together on a dirty outdoor porch littered with cigarette butts and other rubbish -- and she explained that she was dealing with issues concerning a lack of funding for capital improvements.  Fine -- but there were also...We're on a road trip from Vermont to California -- with our two dogs and my sister-in-law.  All of us are experienced travelers -- and we particularly like Residence Inns because of their dog-friendly policy and because they are usually clean and feel like a home away from home.We booked this hotel via the Marriott iPhone app.  There are many Residence Inns in the Denver area, and we selected this one because it's just off the highway.Goodness gracious -- what a disappointment.This hotel is way, way past it's "sell by" date -- and the lack of cleanliness was appalling.  Although we have dogs our room was on the second floor, and at the very, very end of the hallway.  It smelled musty, the kitchen floor and tables were all sticky, and the furniture was battered and bashed.  The couch and chair were frayed and there was a large, blue, sticky stain on the couch seat cushion.If we weren't tired from our drive from Rapid City, we'd have checked out and gone elsewhere.  If I were the Marriott executive responsible for the oversight of this property, I'd start looking for another job.I spoke with the general manager.  We stood together on a dirty outdoor porch littered with cigarette butts and other rubbish -- and she explained that she was dealing with issues concerning a lack of funding for capital improvements.  Fine -- but there were also many issues of the place just being ol' fashioned dirty.Not impressive -- and it makes me reluctant to trust the Residence Inn brand again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r356082270-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>356082270</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Really nice for a budget hotel!</t>
+  </si>
+  <si>
+    <t>This place is really nice for such a low price!  The rooms are a pretty good size with the separate bedroom.  The full kitchen has everything you need with a really nice fridge, dishwasher and microwave.  And a real coffeepot instead of the typical hotel mini pot or Kerig of which I am not a fan.  The kitchen was stocked with all the basic tools for cooking and eating.The bed was comfortable, the space around the bathroom sink and storage underneath were helpful.  The shower had a nice shower head with good flow.  The whole room was really clean.The staff was truly delightful, always full of smiles and greeting us every time we came and went.  We didn't try the free breakfast buffet but it smelled delicious.  For what we paid I was really surprised how nice everything was.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>This place is really nice for such a low price!  The rooms are a pretty good size with the separate bedroom.  The full kitchen has everything you need with a really nice fridge, dishwasher and microwave.  And a real coffeepot instead of the typical hotel mini pot or Kerig of which I am not a fan.  The kitchen was stocked with all the basic tools for cooking and eating.The bed was comfortable, the space around the bathroom sink and storage underneath were helpful.  The shower had a nice shower head with good flow.  The whole room was really clean.The staff was truly delightful, always full of smiles and greeting us every time we came and went.  We didn't try the free breakfast buffet but it smelled delicious.  For what we paid I was really surprised how nice everything was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r350086765-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>350086765</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>I am a long term resident at this property and truly feel it is my 'other' home (I spend 4 nights on property most weeks).  The location is VERY convenient to my client site in Inverness Business Park, as I go nowhere near the rush-hour bottle necks at the freeway.  My commute runs 3-5 minutes depending on the timing of the one traffic light on my path.  The hotel definitely needs some modernizing, however the staff are very responsive to specific needs (broken dishwasher replaced in a couple of hours).  The rooms are very well maintained.  The M-W hospitality varies from a full meal, to snacks, to dessert, but are posted each morning so one can plan accordingly (though beer and wine area available each night).  Finally, the staff is incredibly friendly, almost nurturing.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I am a long term resident at this property and truly feel it is my 'other' home (I spend 4 nights on property most weeks).  The location is VERY convenient to my client site in Inverness Business Park, as I go nowhere near the rush-hour bottle necks at the freeway.  My commute runs 3-5 minutes depending on the timing of the one traffic light on my path.  The hotel definitely needs some modernizing, however the staff are very responsive to specific needs (broken dishwasher replaced in a couple of hours).  The rooms are very well maintained.  The M-W hospitality varies from a full meal, to snacks, to dessert, but are posted each morning so one can plan accordingly (though beer and wine area available each night).  Finally, the staff is incredibly friendly, almost nurturing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r345677061-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>345677061</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>OK stay with decent value</t>
+  </si>
+  <si>
+    <t>We stayed for 7 nights, in town for some business appointments. The location was convenient and the employees that worked there were friendly and helpful. The rooms are dated though and while the rates are comparable I have stayed many other places before that were updated and for the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for 7 nights, in town for some business appointments. The location was convenient and the employees that worked there were friendly and helpful. The rooms are dated though and while the rates are comparable I have stayed many other places before that were updated and for the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r320240769-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>320240769</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Great Night</t>
+  </si>
+  <si>
+    <t>This was a great stay for us.  Just one night, but the room was very roomy for the 5 us (3 kids), and it was clean and just overall a nice hotel room.  Not really sure what was in the immediate area, since we got in late and left kind of early, but it seemed to be close to an airport and a handful of fast food joints.  The breakfast had a great selection, seemingly more than usual for Residence Inn's, and my kids loved the time in the indoor pool. Wifi was fast enough for me to watch the MLB playoff game on my laptop.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This was a great stay for us.  Just one night, but the room was very roomy for the 5 us (3 kids), and it was clean and just overall a nice hotel room.  Not really sure what was in the immediate area, since we got in late and left kind of early, but it seemed to be close to an airport and a handful of fast food joints.  The breakfast had a great selection, seemingly more than usual for Residence Inn's, and my kids loved the time in the indoor pool. Wifi was fast enough for me to watch the MLB playoff game on my laptop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r313340884-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>313340884</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Best staff</t>
+  </si>
+  <si>
+    <t>This residence inn, like most others I've stayed at, provides clean, roomy, comfortable rooms and bountiful breakfasts.  The setting here is good, providing space for pleasant, green walks, away from major highways.  But the wonderful part is the caring, cooperative, helpful and friendly staff.  No request meets with other than smiling helpfullness.  They are not satisfied until you are!  Bravo!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This residence inn, like most others I've stayed at, provides clean, roomy, comfortable rooms and bountiful breakfasts.  The setting here is good, providing space for pleasant, green walks, away from major highways.  But the wonderful part is the caring, cooperative, helpful and friendly staff.  No request meets with other than smiling helpfullness.  They are not satisfied until you are!  Bravo!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r309836806-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>309836806</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Outdated room, noisey Fridge, needs some work. Ok Location, free parking</t>
+  </si>
+  <si>
+    <t>I walked into an outdated room. The fridge was making noise as if it was taking off to the moon. I did not even use the toilet and it was not flushing. I was handed an plunger since it was around 12 midnight when i checked in. The noise on the first floor was loud in the am as there was construction outside. There was not signs saying for the contraction.  Breakfast OK. There was no separate sitting space in the lobby while you wait for someone. Overall, the location is nice but this hotel needs some updates.During check in, the person was trying very hard to put me on high floor but could not because of some system issue. I have requested a high floor when i made reservation. They said they will try.I did like the free breakfast overall, good coffee. Free parking was a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>I walked into an outdated room. The fridge was making noise as if it was taking off to the moon. I did not even use the toilet and it was not flushing. I was handed an plunger since it was around 12 midnight when i checked in. The noise on the first floor was loud in the am as there was construction outside. There was not signs saying for the contraction.  Breakfast OK. There was no separate sitting space in the lobby while you wait for someone. Overall, the location is nice but this hotel needs some updates.During check in, the person was trying very hard to put me on high floor but could not because of some system issue. I have requested a high floor when i made reservation. They said they will try.I did like the free breakfast overall, good coffee. Free parking was a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r304961080-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>304961080</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Amazing Place and Value</t>
+  </si>
+  <si>
+    <t>I am so pleased with the Residence Inn Denver South.  It is located very near C470 and I 25. Very nice property. Modern yet very kid friendly. Pool, hot tub, great rooms but best of all.....free Full hot breakfast buffet. And pricing is reasonable.  Staff is very attentive and polite. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I am so pleased with the Residence Inn Denver South.  It is located very near C470 and I 25. Very nice property. Modern yet very kid friendly. Pool, hot tub, great rooms but best of all.....free Full hot breakfast buffet. And pricing is reasonable.  Staff is very attentive and polite. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r302100088-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>302100088</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Very satisfied with staff and accomodations</t>
+  </si>
+  <si>
+    <t>Checked in on Thursday and spent 3 nights here - we took advantage of the wonderful hot tub each evening, and enjoyed their delicious free, hot breakfast each morning.  The food was always hot and fresh.  Staff kept the food well stocked. The beds were so comfortable!  Slept well which can be challenging for me while traveling.If we had any complaint, it was due to the sidewalk and curb construction that was being done in the front and around the side causing some inconveniences while unloading and loading up our car.  But I realize it was only temporary, it just happened to be during our visit.  Definitely can recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in on Thursday and spent 3 nights here - we took advantage of the wonderful hot tub each evening, and enjoyed their delicious free, hot breakfast each morning.  The food was always hot and fresh.  Staff kept the food well stocked. The beds were so comfortable!  Slept well which can be challenging for me while traveling.If we had any complaint, it was due to the sidewalk and curb construction that was being done in the front and around the side causing some inconveniences while unloading and loading up our car.  But I realize it was only temporary, it just happened to be during our visit.  Definitely can recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r284364088-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>284364088</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is top notch! All of the staff was very friendly and helpful. Even the cleaning staff would hit the elevator button for you if they saw you coming down the hall. This hotel is very clean. Nice indoor pool and hot tub. The free breakfast at this hotel was the best! Every morning there was a great selection and the food was really good! Loved the ready made breakfast sandwiches! This hotel also hosts an evening reception a few nights a week, which was great. The hotel is located by the Park Meadows Shopping mall. There is a walking bridge to go from the hotel over to the mall that crosses the highway. Also located on the other side of the walking bridge is the Light Rail station. This was extremely convenient. A great way to travel to the Downtown Denver area. Highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is top notch! All of the staff was very friendly and helpful. Even the cleaning staff would hit the elevator button for you if they saw you coming down the hall. This hotel is very clean. Nice indoor pool and hot tub. The free breakfast at this hotel was the best! Every morning there was a great selection and the food was really good! Loved the ready made breakfast sandwiches! This hotel also hosts an evening reception a few nights a week, which was great. The hotel is located by the Park Meadows Shopping mall. There is a walking bridge to go from the hotel over to the mall that crosses the highway. Also located on the other side of the walking bridge is the Light Rail station. This was extremely convenient. A great way to travel to the Downtown Denver area. Highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r267809851-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>267809851</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Good but pricey sometimes</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn, big apartment style rooms, free breakfast and happy hour drinks and heavy snack.  BBQ chicken one night was freshly grilled and covered with different types of spices/sauces.  Could add some veggie options.  Good hot breakfast in morning.  Breakfast area sometimes is too small for the guests needing to be in there.  Helpful front desk staff.  Elevators are strangely near the middle of the hotel, not near the lobby.  Can park all around hotel and enter in any door with your room key.  Nice workout room and pool/hot tub.  Near Inverness area south of Denver Tech Center.  Full kitchen in room.  Bed was more firm that my liking so I didn't sleep very well.  Strange vertical privacy screens and separate block out screens on windows.  Very large laundry facilities for those staying long-term. Note that traffic noise very noticeable especially if facing highway.  Didn't notice nearly as much at HGI or Candlewood. Not bad at all.  Can be pricey when busy for short stay.  There are several other options nearby including Courtyard, Hilton Garden Inn, Candlewood, and Homewood here on South side of County Line Rd and many more on North side of Dry Creek Rd.Would stay again, but might shop around for price first.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn, big apartment style rooms, free breakfast and happy hour drinks and heavy snack.  BBQ chicken one night was freshly grilled and covered with different types of spices/sauces.  Could add some veggie options.  Good hot breakfast in morning.  Breakfast area sometimes is too small for the guests needing to be in there.  Helpful front desk staff.  Elevators are strangely near the middle of the hotel, not near the lobby.  Can park all around hotel and enter in any door with your room key.  Nice workout room and pool/hot tub.  Near Inverness area south of Denver Tech Center.  Full kitchen in room.  Bed was more firm that my liking so I didn't sleep very well.  Strange vertical privacy screens and separate block out screens on windows.  Very large laundry facilities for those staying long-term. Note that traffic noise very noticeable especially if facing highway.  Didn't notice nearly as much at HGI or Candlewood. Not bad at all.  Can be pricey when busy for short stay.  There are several other options nearby including Courtyard, Hilton Garden Inn, Candlewood, and Homewood here on South side of County Line Rd and many more on North side of Dry Creek Rd.Would stay again, but might shop around for price first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r248312918-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>248312918</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Staying again!</t>
+  </si>
+  <si>
+    <t>This is a great location for everything we needed to do. I loved the front desk staff. Very professional. The room was just right for the four of us. No complaints for the hotel! Just like the pictures. I liked the hot breakfast. It had different choices each morning. It sucked that it snowed everyday we were there! lol.. it was cold. One of the worst they've seen in a few years. I would definitely stay here again but not during winter.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This is a great location for everything we needed to do. I loved the front desk staff. Very professional. The room was just right for the four of us. No complaints for the hotel! Just like the pictures. I liked the hot breakfast. It had different choices each morning. It sucked that it snowed everyday we were there! lol.. it was cold. One of the worst they've seen in a few years. I would definitely stay here again but not during winter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r245004588-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>245004588</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>Nice hotel and the staff is helpful and friendly. The room was very clean, quite and comfortable. The breakfast was good. The evening socials food was not very impressive, one night was hot dogs and the second was BBQ pork. Thursday and Friday nothing at all, which was disappointing in . The good thing is there are a ton of restaurants in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Nice hotel and the staff is helpful and friendly. The room was very clean, quite and comfortable. The breakfast was good. The evening socials food was not very impressive, one night was hot dogs and the second was BBQ pork. Thursday and Friday nothing at all, which was disappointing in . The good thing is there are a ton of restaurants in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r219367963-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>219367963</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Good trip nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel great staff . The shuttle service was great . Pool is great and the breakfast was good. Room was very clean basketball and tennis court was cool locAtion was good. Only complaint social hours and days suck Monday thru Wednesday not good should be all week long like embassy suites </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r217979897-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>217979897</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Good Location, Averaage Hotel</t>
+  </si>
+  <si>
+    <t>The customer service was very good upon check in. I had a 1 room studio which has a dinner table with a couch, desk, ~32 inch flat screen TV and a full kitchen.  The furniture was well worn but still usable. The location is great -- convenient to the Tech Center and Park Meadows Mall but still a nice quiet location. The breakfast was very good overall the evening dinners (Monday, Tuesday and Wednesday only) I avoided they were greatly lacking, one night hot dogs, one night mac and cheese, very disapointing. The evening dinners are the worst I have ever experienced at a Residence Inn anywhere. The plus side is there are plenty of good to excellent restaurants in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2014</t>
+  </si>
+  <si>
+    <t>The customer service was very good upon check in. I had a 1 room studio which has a dinner table with a couch, desk, ~32 inch flat screen TV and a full kitchen.  The furniture was well worn but still usable. The location is great -- convenient to the Tech Center and Park Meadows Mall but still a nice quiet location. The breakfast was very good overall the evening dinners (Monday, Tuesday and Wednesday only) I avoided they were greatly lacking, one night hot dogs, one night mac and cheese, very disapointing. The evening dinners are the worst I have ever experienced at a Residence Inn anywhere. The plus side is there are plenty of good to excellent restaurants in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r214867501-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>214867501</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great extended stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff  is excellent from the GM to the housekeeping and everything between. Breakfast every morning and dinner 3 days each week. The hotel is well kept and clean. I would stay here every time. No issues with parking or security. </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r201823910-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>201823910</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Just average</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on a Priceline deal.  The customer service was very good upon check in.  I was in a 1 room studio which had a very awkward layout.  The room did have a table with a couch and desk.  The TV, however, was set up at an angle where it was only viewable from an angle from the couch and not viewable at all from the bed (you were looking directly at the side of the TV).  The furniture appeared older -- the cushions on the couch did not match the rest of the couch.  I did use the pool and spa -- the spa was only luke warm and there weren't a lot of towels around.  The location is good -- convenient to the Tech Center and Park Meadows Mall but still pretty quiet.  The breakfast was very good overall.In summation, I've stayed at other similar motels in this area and found the Residence Inn disappointing compared to those motels.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on a Priceline deal.  The customer service was very good upon check in.  I was in a 1 room studio which had a very awkward layout.  The room did have a table with a couch and desk.  The TV, however, was set up at an angle where it was only viewable from an angle from the couch and not viewable at all from the bed (you were looking directly at the side of the TV).  The furniture appeared older -- the cushions on the couch did not match the rest of the couch.  I did use the pool and spa -- the spa was only luke warm and there weren't a lot of towels around.  The location is good -- convenient to the Tech Center and Park Meadows Mall but still pretty quiet.  The breakfast was very good overall.In summation, I've stayed at other similar motels in this area and found the Residence Inn disappointing compared to those motels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r199585039-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>199585039</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Average says it all</t>
+  </si>
+  <si>
+    <t>I stayed here for a week, which was 6 days too long.  There are some positives.  The front desk staff is very good and makes every effort for you.  The rooms are a good size and definitely fit the extended stay needs.  My room had a lot of issues: hair dryer came off the wall, phone didn't work, and refrigerator didn't close.  The hallway and overhead noise were very bad and made for a fitful night sleep.  The worst element of the stay was the housekeeping staff.  If you miss your opportunity - you are in your room - they won't come back even if you ask the front desk staff, as I did two days in a row.  They were also extremely rude, playing loud music while they cleaned room and saying 'want your room clean or what.'  I won't be back no matter how convenient the location to my office.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a week, which was 6 days too long.  There are some positives.  The front desk staff is very good and makes every effort for you.  The rooms are a good size and definitely fit the extended stay needs.  My room had a lot of issues: hair dryer came off the wall, phone didn't work, and refrigerator didn't close.  The hallway and overhead noise were very bad and made for a fitful night sleep.  The worst element of the stay was the housekeeping staff.  If you miss your opportunity - you are in your room - they won't come back even if you ask the front desk staff, as I did two days in a row.  They were also extremely rude, playing loud music while they cleaned room and saying 'want your room clean or what.'  I won't be back no matter how convenient the location to my office.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r196062574-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>196062574</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Good Family Room</t>
+  </si>
+  <si>
+    <t>Stayed with wife and 4 children in the 2 bedroom suite.  Layout is the same as all Residence Inns that we have stayed at, and thus the reason we keep going back. Lots of room in the suite for a reasonable price, and free microwave popcorn.  Facilities were clean and well kept.  Staff was very friendly and helpful. It is close to Park Meadows but a little away from the hubbub being on the east of I-25.  That being said there is some freeway noise audible from the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Stayed with wife and 4 children in the 2 bedroom suite.  Layout is the same as all Residence Inns that we have stayed at, and thus the reason we keep going back. Lots of room in the suite for a reasonable price, and free microwave popcorn.  Facilities were clean and well kept.  Staff was very friendly and helpful. It is close to Park Meadows but a little away from the hubbub being on the east of I-25.  That being said there is some freeway noise audible from the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r185493566-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>185493566</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>I was at this property for about a month due to work and think the convenience of breakfast and a free meal on Monday-Wednesday evening is a nice service to offer guests. The staff was accommodating and never overbearing and stuffy. I appreciate the space and casual feel of my stay. I also want to give commendation to James the hotel driver...he led the pack in customer service and gave a warm engaging connection with every single guest including me. Besides helping other staff with mechanical, local information, problem solving, and friendly banter...her went out of his way to deliver quality service to every guest...this is a 'high' touch of service he provided which I've seen at 5 star resorts...Thank you for having good staff, and James is your All-Star...good to see outstanding people like him carrying the torch.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I was at this property for about a month due to work and think the convenience of breakfast and a free meal on Monday-Wednesday evening is a nice service to offer guests. The staff was accommodating and never overbearing and stuffy. I appreciate the space and casual feel of my stay. I also want to give commendation to James the hotel driver...he led the pack in customer service and gave a warm engaging connection with every single guest including me. Besides helping other staff with mechanical, local information, problem solving, and friendly banter...her went out of his way to deliver quality service to every guest...this is a 'high' touch of service he provided which I've seen at 5 star resorts...Thank you for having good staff, and James is your All-Star...good to see outstanding people like him carrying the torch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r184782300-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>184782300</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Clean and spacious rooms</t>
+  </si>
+  <si>
+    <t>Our family of 6 stayed four nights in a two bedroom suite and we were very comfortable. The room was clean and the entire facility was well up-kept. Convenient location near a mall and a lot of restaurants. No complaints and a good stay all the way around! We would stay again if we were in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Our family of 6 stayed four nights in a two bedroom suite and we were very comfortable. The room was clean and the entire facility was well up-kept. Convenient location near a mall and a lot of restaurants. No complaints and a good stay all the way around! We would stay again if we were in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r182567044-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>182567044</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>I have stayed at several other Residence Inn's and have always been satisfied and sometimes even pleasantly surprised. i stayed here for a month over the summer and was sadly disappointed.
+The furniture was old and uncomfortable, the staff less than accommodating and the shuttle only ran during the week, only during business hours. They would not pick up or drive to the airport. On one occasion, we made arrangements for the driver to take us to the airport at a specified time for a generous prepaid gratuity and at the appointed time, he was nowhere to be found.  A private driver had to be called to take us at a $90 charge.  The "free" cocktail hour and light dinner" was a joke.  They put out a six pack of beer at a time and the food was disgusting. I reported bugs in the dresser drawers and was told it was summer and that couldn't be helped.  The ceiling in a neighboring guest's room's bathroom collapsed and a rat was spotted scurrying around outside.  The front desk was not very helpful when we asked for suggestions about happy hours, restaurants and close shopping.  I suspect certain businesses are being referred when they are not the closest or the best.  We discovered a wonderful steakhouse across the street that offered a classy atmosphere, amazing value on food and drinks on the very last night of our stay.  When we asked, the...I have stayed at several other Residence Inn's and have always been satisfied and sometimes even pleasantly surprised. i stayed here for a month over the summer and was sadly disappointed.The furniture was old and uncomfortable, the staff less than accommodating and the shuttle only ran during the week, only during business hours. They would not pick up or drive to the airport. On one occasion, we made arrangements for the driver to take us to the airport at a specified time for a generous prepaid gratuity and at the appointed time, he was nowhere to be found.  A private driver had to be called to take us at a $90 charge.  The "free" cocktail hour and light dinner" was a joke.  They put out a six pack of beer at a time and the food was disgusting. I reported bugs in the dresser drawers and was told it was summer and that couldn't be helped.  The ceiling in a neighboring guest's room's bathroom collapsed and a rat was spotted scurrying around outside.  The front desk was not very helpful when we asked for suggestions about happy hours, restaurants and close shopping.  I suspect certain businesses are being referred when they are not the closest or the best.  We discovered a wonderful steakhouse across the street that offered a classy atmosphere, amazing value on food and drinks on the very last night of our stay.  When we asked, the front desk had advised us to go to an establishment that could only be described as a trashy hooters and was half a mile away.  The area was nice- this location was not a positive experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at several other Residence Inn's and have always been satisfied and sometimes even pleasantly surprised. i stayed here for a month over the summer and was sadly disappointed.
+The furniture was old and uncomfortable, the staff less than accommodating and the shuttle only ran during the week, only during business hours. They would not pick up or drive to the airport. On one occasion, we made arrangements for the driver to take us to the airport at a specified time for a generous prepaid gratuity and at the appointed time, he was nowhere to be found.  A private driver had to be called to take us at a $90 charge.  The "free" cocktail hour and light dinner" was a joke.  They put out a six pack of beer at a time and the food was disgusting. I reported bugs in the dresser drawers and was told it was summer and that couldn't be helped.  The ceiling in a neighboring guest's room's bathroom collapsed and a rat was spotted scurrying around outside.  The front desk was not very helpful when we asked for suggestions about happy hours, restaurants and close shopping.  I suspect certain businesses are being referred when they are not the closest or the best.  We discovered a wonderful steakhouse across the street that offered a classy atmosphere, amazing value on food and drinks on the very last night of our stay.  When we asked, the...I have stayed at several other Residence Inn's and have always been satisfied and sometimes even pleasantly surprised. i stayed here for a month over the summer and was sadly disappointed.The furniture was old and uncomfortable, the staff less than accommodating and the shuttle only ran during the week, only during business hours. They would not pick up or drive to the airport. On one occasion, we made arrangements for the driver to take us to the airport at a specified time for a generous prepaid gratuity and at the appointed time, he was nowhere to be found.  A private driver had to be called to take us at a $90 charge.  The "free" cocktail hour and light dinner" was a joke.  They put out a six pack of beer at a time and the food was disgusting. I reported bugs in the dresser drawers and was told it was summer and that couldn't be helped.  The ceiling in a neighboring guest's room's bathroom collapsed and a rat was spotted scurrying around outside.  The front desk was not very helpful when we asked for suggestions about happy hours, restaurants and close shopping.  I suspect certain businesses are being referred when they are not the closest or the best.  We discovered a wonderful steakhouse across the street that offered a classy atmosphere, amazing value on food and drinks on the very last night of our stay.  When we asked, the front desk had advised us to go to an establishment that could only be described as a trashy hooters and was half a mile away.  The area was nice- this location was not a positive experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r171028897-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171028897</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>My least favorite Residence Inn</t>
+  </si>
+  <si>
+    <t>I have stayed at 9 Residence Inns in 5 different states.  We were in Colorado for a memorial service for a family member, so we did not care about the shopping nearby and had reserved a 2 bedroom suite, as we wanted space for family to visit us while we were in town.  We requested a low floor pet allowed suite.  We arrived at 2:52pm, 8 minutes before check in.  We were scheduled to be in room 313, which at least is near the single elevator for the building.  Since that room was not quite ready we were switched to room 427,  which is 2nd farthest from the elevator.  The check-in clerk was doing her best to get us into a suite right away.  If I had known the building better I would have waited for 313.  This is a 4 story hotel with 30 rooms per floor and only 1 elevator.  Also there are only 2 luggage carts available for 120 rooms.  Parking lot was being repaved in one area, so vehicle parking spaces were at a premium.  As previously reviewed, the breakfast seating area is very small and can get crowded easily.  Every staff member we encountered was very friendly and welcoming.  Our suite was clean, well furnished.  Beds, couch and chair in living area were comfortable, just what you want in an extended stay type hotel.  Pros for this hotel: staff, clean well equipped suites, close to...I have stayed at 9 Residence Inns in 5 different states.  We were in Colorado for a memorial service for a family member, so we did not care about the shopping nearby and had reserved a 2 bedroom suite, as we wanted space for family to visit us while we were in town.  We requested a low floor pet allowed suite.  We arrived at 2:52pm, 8 minutes before check in.  We were scheduled to be in room 313, which at least is near the single elevator for the building.  Since that room was not quite ready we were switched to room 427,  which is 2nd farthest from the elevator.  The check-in clerk was doing her best to get us into a suite right away.  If I had known the building better I would have waited for 313.  This is a 4 story hotel with 30 rooms per floor and only 1 elevator.  Also there are only 2 luggage carts available for 120 rooms.  Parking lot was being repaved in one area, so vehicle parking spaces were at a premium.  As previously reviewed, the breakfast seating area is very small and can get crowded easily.  Every staff member we encountered was very friendly and welcoming.  Our suite was clean, well furnished.  Beds, couch and chair in living area were comfortable, just what you want in an extended stay type hotel.  Pros for this hotel: staff, clean well equipped suites, close to highways.  Cons for this hotel:  single busy elevator, minimal luggage carts, costMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at 9 Residence Inns in 5 different states.  We were in Colorado for a memorial service for a family member, so we did not care about the shopping nearby and had reserved a 2 bedroom suite, as we wanted space for family to visit us while we were in town.  We requested a low floor pet allowed suite.  We arrived at 2:52pm, 8 minutes before check in.  We were scheduled to be in room 313, which at least is near the single elevator for the building.  Since that room was not quite ready we were switched to room 427,  which is 2nd farthest from the elevator.  The check-in clerk was doing her best to get us into a suite right away.  If I had known the building better I would have waited for 313.  This is a 4 story hotel with 30 rooms per floor and only 1 elevator.  Also there are only 2 luggage carts available for 120 rooms.  Parking lot was being repaved in one area, so vehicle parking spaces were at a premium.  As previously reviewed, the breakfast seating area is very small and can get crowded easily.  Every staff member we encountered was very friendly and welcoming.  Our suite was clean, well furnished.  Beds, couch and chair in living area were comfortable, just what you want in an extended stay type hotel.  Pros for this hotel: staff, clean well equipped suites, close to...I have stayed at 9 Residence Inns in 5 different states.  We were in Colorado for a memorial service for a family member, so we did not care about the shopping nearby and had reserved a 2 bedroom suite, as we wanted space for family to visit us while we were in town.  We requested a low floor pet allowed suite.  We arrived at 2:52pm, 8 minutes before check in.  We were scheduled to be in room 313, which at least is near the single elevator for the building.  Since that room was not quite ready we were switched to room 427,  which is 2nd farthest from the elevator.  The check-in clerk was doing her best to get us into a suite right away.  If I had known the building better I would have waited for 313.  This is a 4 story hotel with 30 rooms per floor and only 1 elevator.  Also there are only 2 luggage carts available for 120 rooms.  Parking lot was being repaved in one area, so vehicle parking spaces were at a premium.  As previously reviewed, the breakfast seating area is very small and can get crowded easily.  Every staff member we encountered was very friendly and welcoming.  Our suite was clean, well furnished.  Beds, couch and chair in living area were comfortable, just what you want in an extended stay type hotel.  Pros for this hotel: staff, clean well equipped suites, close to highways.  Cons for this hotel:  single busy elevator, minimal luggage carts, costMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r164903816-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>164903816</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, quiet, homey</t>
+  </si>
+  <si>
+    <t>I often stay in the Park Meadows area due to the shopping and proximity to large highways across the metro area.  Looking at the map, I thought this RI would be hard to access..NOT SO.  A very easy minute or so off the County Line Rd. exit of I-25.  It's one of the older RIs, as previously stated, but immaculate, in excellent repair, and the beds are to die for.  My one bedroom suite was quiet, and I was on the freeway side.  I will say that the air conditioning motor is in a closet in the bedroom and does make a sort of humming "white noise", which I found relaxing and muffled any freeway noise.  The large (able to be opened) screen windows are outfitted with both a mesh type of blind that allows sight, but tempers the sunlight, AND a blackout blind for privacy.  The suite had its own thermostat so I chose my level of coolness.  Two tvs - one in the bedroom/one in the living area, and a full kitchen except no stove.  Welcome basket with tea, coffee, and popcorn.  Plenty of large, thick towels and Paul Mitchell amenities.  Beautiful vanity/closet/makeup area and separate large showerbath/toilet room with plenty of hooks and racks for towels - also a separate bath fan, which many places don't have.  Really helpful front desk staff,and sundries (including small microwavemeals/pizzas/ice cream confections/drinks) available in lobby.  Parking is plentiful, safe and well...I often stay in the Park Meadows area due to the shopping and proximity to large highways across the metro area.  Looking at the map, I thought this RI would be hard to access..NOT SO.  A very easy minute or so off the County Line Rd. exit of I-25.  It's one of the older RIs, as previously stated, but immaculate, in excellent repair, and the beds are to die for.  My one bedroom suite was quiet, and I was on the freeway side.  I will say that the air conditioning motor is in a closet in the bedroom and does make a sort of humming "white noise", which I found relaxing and muffled any freeway noise.  The large (able to be opened) screen windows are outfitted with both a mesh type of blind that allows sight, but tempers the sunlight, AND a blackout blind for privacy.  The suite had its own thermostat so I chose my level of coolness.  Two tvs - one in the bedroom/one in the living area, and a full kitchen except no stove.  Welcome basket with tea, coffee, and popcorn.  Plenty of large, thick towels and Paul Mitchell amenities.  Beautiful vanity/closet/makeup area and separate large showerbath/toilet room with plenty of hooks and racks for towels - also a separate bath fan, which many places don't have.  Really helpful front desk staff,and sundries (including small microwavemeals/pizzas/ice cream confections/drinks) available in lobby.  Parking is plentiful, safe and well lit, and the breakfast room is nicely done as well, with lots of different types of seating.  My only so-so comment would be that the morning I was there, there were no egg dishes.  Sausage, gravy,biscuits and waffles, plus the usual cereals, breads and fruit.  Perhaps it was simply the day I was there, as RI usually has eggs.  The other thing I would have substituted for eggs was granola in yogurt.  Found the yogurt, but no granola.  Compared to the value of my stay, however, that's a  small thing.  Ground are very nice, and it's right next to a Courtyard that has a restaurant/bar.  It is approximately 3 minutes under I-25 to Park Meadows Mall and I could see that there is a large pedestrian overpass that would allow one to walk as well.  Didn't use the pool/spa/workout room, but they looked nice and very clean. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>I often stay in the Park Meadows area due to the shopping and proximity to large highways across the metro area.  Looking at the map, I thought this RI would be hard to access..NOT SO.  A very easy minute or so off the County Line Rd. exit of I-25.  It's one of the older RIs, as previously stated, but immaculate, in excellent repair, and the beds are to die for.  My one bedroom suite was quiet, and I was on the freeway side.  I will say that the air conditioning motor is in a closet in the bedroom and does make a sort of humming "white noise", which I found relaxing and muffled any freeway noise.  The large (able to be opened) screen windows are outfitted with both a mesh type of blind that allows sight, but tempers the sunlight, AND a blackout blind for privacy.  The suite had its own thermostat so I chose my level of coolness.  Two tvs - one in the bedroom/one in the living area, and a full kitchen except no stove.  Welcome basket with tea, coffee, and popcorn.  Plenty of large, thick towels and Paul Mitchell amenities.  Beautiful vanity/closet/makeup area and separate large showerbath/toilet room with plenty of hooks and racks for towels - also a separate bath fan, which many places don't have.  Really helpful front desk staff,and sundries (including small microwavemeals/pizzas/ice cream confections/drinks) available in lobby.  Parking is plentiful, safe and well...I often stay in the Park Meadows area due to the shopping and proximity to large highways across the metro area.  Looking at the map, I thought this RI would be hard to access..NOT SO.  A very easy minute or so off the County Line Rd. exit of I-25.  It's one of the older RIs, as previously stated, but immaculate, in excellent repair, and the beds are to die for.  My one bedroom suite was quiet, and I was on the freeway side.  I will say that the air conditioning motor is in a closet in the bedroom and does make a sort of humming "white noise", which I found relaxing and muffled any freeway noise.  The large (able to be opened) screen windows are outfitted with both a mesh type of blind that allows sight, but tempers the sunlight, AND a blackout blind for privacy.  The suite had its own thermostat so I chose my level of coolness.  Two tvs - one in the bedroom/one in the living area, and a full kitchen except no stove.  Welcome basket with tea, coffee, and popcorn.  Plenty of large, thick towels and Paul Mitchell amenities.  Beautiful vanity/closet/makeup area and separate large showerbath/toilet room with plenty of hooks and racks for towels - also a separate bath fan, which many places don't have.  Really helpful front desk staff,and sundries (including small microwavemeals/pizzas/ice cream confections/drinks) available in lobby.  Parking is plentiful, safe and well lit, and the breakfast room is nicely done as well, with lots of different types of seating.  My only so-so comment would be that the morning I was there, there were no egg dishes.  Sausage, gravy,biscuits and waffles, plus the usual cereals, breads and fruit.  Perhaps it was simply the day I was there, as RI usually has eggs.  The other thing I would have substituted for eggs was granola in yogurt.  Found the yogurt, but no granola.  Compared to the value of my stay, however, that's a  small thing.  Ground are very nice, and it's right next to a Courtyard that has a restaurant/bar.  It is approximately 3 minutes under I-25 to Park Meadows Mall and I could see that there is a large pedestrian overpass that would allow one to walk as well.  Didn't use the pool/spa/workout room, but they looked nice and very clean. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r164111730-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>164111730</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel Convenience to a lot of what Denver has to offer.</t>
+  </si>
+  <si>
+    <t>I booked two rooms here.  The studio and the 1 BR Queen.  They both had one queen and a pullout sofa to sleep on.  Both are adequate for 4 people, but too crowded for 5 people, unless you have little people who actually think its fun to sleep on the floor in a hotel room. They are both about the same size.  The studio feels bigger because there are no walls separating the place into two rooms.  The 1 BR offers more privacy, where you can close the bedroom door.  Of course that closes off the bathroom to those in the living room.  One other difference: the studio had an oven, stovetop, microwave and a full size fridge. The 1 BR had all of the aforementioned, except a stove.  What I like about this place is we can walk over the pedestrian bridge to Park Meadows faster than we can drive over there, park and walk in.  The pedestrian bridge is just north of the hotel and goes to the Light Rail system.  It also puts you in the parking lot of Nordstroms at Park Meadows.  We used the Light Rail system to go Downtown, the 16th Street Mall, &amp; The Downtown Aquarium.  You can also get to Elitch Gardens, The Pepsi Center, Broncos Stadium and many other shopping and entertainment areas of Denver.  It was much better than fighting the traffic, hunting and paying for a parking place, etc....I booked two rooms here.  The studio and the 1 BR Queen.  They both had one queen and a pullout sofa to sleep on.  Both are adequate for 4 people, but too crowded for 5 people, unless you have little people who actually think its fun to sleep on the floor in a hotel room. They are both about the same size.  The studio feels bigger because there are no walls separating the place into two rooms.  The 1 BR offers more privacy, where you can close the bedroom door.  Of course that closes off the bathroom to those in the living room.  One other difference: the studio had an oven, stovetop, microwave and a full size fridge. The 1 BR had all of the aforementioned, except a stove.  What I like about this place is we can walk over the pedestrian bridge to Park Meadows faster than we can drive over there, park and walk in.  The pedestrian bridge is just north of the hotel and goes to the Light Rail system.  It also puts you in the parking lot of Nordstroms at Park Meadows.  We used the Light Rail system to go Downtown, the 16th Street Mall, &amp; The Downtown Aquarium.  You can also get to Elitch Gardens, The Pepsi Center, Broncos Stadium and many other shopping and entertainment areas of Denver.  It was much better than fighting the traffic, hunting and paying for a parking place, etc.  Plus if some in our group wanted to go back to the hotel earlier than the rest of us, they could just hop on the train and get "home" while the rest of us enjoyed the entertainment and sights of Denver.Now this is not a 4 or 5 star hotel, so it is not posh.  But it is very nice, clean, and a very reasonable rate (&lt;$100/night) for the area and what it offers.  The hot breakfast was decent.  That is really nice when you have to fight to get your lazy sleepyhead teens up in the morning to eat. My wife and I, with our younger ones (you know the ones who get up at 6:30 am EVERY day) can go eat, let the teens sleep in and then the teens can get up at their leisure and go get breakfast on their own.Hope this helps some you!  Happy Travels!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked two rooms here.  The studio and the 1 BR Queen.  They both had one queen and a pullout sofa to sleep on.  Both are adequate for 4 people, but too crowded for 5 people, unless you have little people who actually think its fun to sleep on the floor in a hotel room. They are both about the same size.  The studio feels bigger because there are no walls separating the place into two rooms.  The 1 BR offers more privacy, where you can close the bedroom door.  Of course that closes off the bathroom to those in the living room.  One other difference: the studio had an oven, stovetop, microwave and a full size fridge. The 1 BR had all of the aforementioned, except a stove.  What I like about this place is we can walk over the pedestrian bridge to Park Meadows faster than we can drive over there, park and walk in.  The pedestrian bridge is just north of the hotel and goes to the Light Rail system.  It also puts you in the parking lot of Nordstroms at Park Meadows.  We used the Light Rail system to go Downtown, the 16th Street Mall, &amp; The Downtown Aquarium.  You can also get to Elitch Gardens, The Pepsi Center, Broncos Stadium and many other shopping and entertainment areas of Denver.  It was much better than fighting the traffic, hunting and paying for a parking place, etc....I booked two rooms here.  The studio and the 1 BR Queen.  They both had one queen and a pullout sofa to sleep on.  Both are adequate for 4 people, but too crowded for 5 people, unless you have little people who actually think its fun to sleep on the floor in a hotel room. They are both about the same size.  The studio feels bigger because there are no walls separating the place into two rooms.  The 1 BR offers more privacy, where you can close the bedroom door.  Of course that closes off the bathroom to those in the living room.  One other difference: the studio had an oven, stovetop, microwave and a full size fridge. The 1 BR had all of the aforementioned, except a stove.  What I like about this place is we can walk over the pedestrian bridge to Park Meadows faster than we can drive over there, park and walk in.  The pedestrian bridge is just north of the hotel and goes to the Light Rail system.  It also puts you in the parking lot of Nordstroms at Park Meadows.  We used the Light Rail system to go Downtown, the 16th Street Mall, &amp; The Downtown Aquarium.  You can also get to Elitch Gardens, The Pepsi Center, Broncos Stadium and many other shopping and entertainment areas of Denver.  It was much better than fighting the traffic, hunting and paying for a parking place, etc.  Plus if some in our group wanted to go back to the hotel earlier than the rest of us, they could just hop on the train and get "home" while the rest of us enjoyed the entertainment and sights of Denver.Now this is not a 4 or 5 star hotel, so it is not posh.  But it is very nice, clean, and a very reasonable rate (&lt;$100/night) for the area and what it offers.  The hot breakfast was decent.  That is really nice when you have to fight to get your lazy sleepyhead teens up in the morning to eat. My wife and I, with our younger ones (you know the ones who get up at 6:30 am EVERY day) can go eat, let the teens sleep in and then the teens can get up at their leisure and go get breakfast on their own.Hope this helps some you!  Happy Travels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r148435290-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>148435290</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Crowded</t>
+  </si>
+  <si>
+    <t>Generally speaking, I did not repeat the mostly positive experience that I have come to expect from staying at Residence Inns. This property is 3 or 4 storys with a lot of rooms. They have obviously outgrown their breakfast area and breakfast meal planning. The included breakfast was a real disappointment and the eating area was very crowded. The windows in the one-bedroom space allowed a lot of cold air in and the bed was not comfortable. I would recommend looking around for more comfort and value.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r143934025-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>143934025</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Residence Inn Still Deliver</t>
+  </si>
+  <si>
+    <t>Yes Residence Inn by Marriot is not the newest hotel in the Denver area, and is true that in some areas shows some of the aging process of life, but who still young forever? I had been in the place about 3 times this year 2012, and honestly I like the place. Everytime I find the room clean, no complaints in all. The young front desk Monet always very polite and helpful, making check in easy.Rooms provide a cozy feeling, well appointed with a comfortable sofa /bed, a really good complete kitchen with rgular size fridge, micro, electric oven, dishwasher, dishes, towels etc. A nice dinning table divide the kitcken from the TV area, one 32 flat screen. The rooms also include a good size fireplace, if you want to light the fire specially in those snowy nights, and get some red vine if you are in the romantic mood. I stayed on a room in building 2, close to the office. I never experience any noise, no from the highway (25) that is only about 2 blocks away, no either from the A/C. The bed, queen size is very comfortable, providing a good sleep. Several stand and table lamps light the place. The bathroon combo provide more comfort, with enough hot water . They provide soap bars and shampoo/conditioner. The only con if you want, is the breakfast, what I found some sort of bland, with scrambled eggs and...Yes Residence Inn by Marriot is not the newest hotel in the Denver area, and is true that in some areas shows some of the aging process of life, but who still young forever? I had been in the place about 3 times this year 2012, and honestly I like the place. Everytime I find the room clean, no complaints in all. The young front desk Monet always very polite and helpful, making check in easy.Rooms provide a cozy feeling, well appointed with a comfortable sofa /bed, a really good complete kitchen with rgular size fridge, micro, electric oven, dishwasher, dishes, towels etc. A nice dinning table divide the kitcken from the TV area, one 32 flat screen. The rooms also include a good size fireplace, if you want to light the fire specially in those snowy nights, and get some red vine if you are in the romantic mood. I stayed on a room in building 2, close to the office. I never experience any noise, no from the highway (25) that is only about 2 blocks away, no either from the A/C. The bed, queen size is very comfortable, providing a good sleep. Several stand and table lamps light the place. The bathroon combo provide more comfort, with enough hot water . They provide soap bars and shampoo/conditioner. The only con if you want, is the breakfast, what I found some sort of bland, with scrambled eggs and sausage been the main staple, others include cereal, juice, bread, still a good deal. The breakfast area is by the desk front, furnished with a plasma TV and two desk computers. They also have a van to provide transportation to and from the airport, I never had use this service. Close to the ofice is a small area to play one ring basketball game, and at least two grills and chairs to enjoy an outside cooking. I never used the pool so nothing to say.In general the Residence Inn is a good place to stay without expending a lot, is in a good area of Englewood only about 15 minutes away to downtown Denver, about 5 to Park Meadows Mall, and 30 from the DIA airport. Colorado Springs is only 1 hour away south on I-25.I highly recommend this location, and if you are not a perfectionist and no going around with a "royal" expectation, this place can be really good to stay, for whatever reason you are in Metro Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Yes Residence Inn by Marriot is not the newest hotel in the Denver area, and is true that in some areas shows some of the aging process of life, but who still young forever? I had been in the place about 3 times this year 2012, and honestly I like the place. Everytime I find the room clean, no complaints in all. The young front desk Monet always very polite and helpful, making check in easy.Rooms provide a cozy feeling, well appointed with a comfortable sofa /bed, a really good complete kitchen with rgular size fridge, micro, electric oven, dishwasher, dishes, towels etc. A nice dinning table divide the kitcken from the TV area, one 32 flat screen. The rooms also include a good size fireplace, if you want to light the fire specially in those snowy nights, and get some red vine if you are in the romantic mood. I stayed on a room in building 2, close to the office. I never experience any noise, no from the highway (25) that is only about 2 blocks away, no either from the A/C. The bed, queen size is very comfortable, providing a good sleep. Several stand and table lamps light the place. The bathroon combo provide more comfort, with enough hot water . They provide soap bars and shampoo/conditioner. The only con if you want, is the breakfast, what I found some sort of bland, with scrambled eggs and...Yes Residence Inn by Marriot is not the newest hotel in the Denver area, and is true that in some areas shows some of the aging process of life, but who still young forever? I had been in the place about 3 times this year 2012, and honestly I like the place. Everytime I find the room clean, no complaints in all. The young front desk Monet always very polite and helpful, making check in easy.Rooms provide a cozy feeling, well appointed with a comfortable sofa /bed, a really good complete kitchen with rgular size fridge, micro, electric oven, dishwasher, dishes, towels etc. A nice dinning table divide the kitcken from the TV area, one 32 flat screen. The rooms also include a good size fireplace, if you want to light the fire specially in those snowy nights, and get some red vine if you are in the romantic mood. I stayed on a room in building 2, close to the office. I never experience any noise, no from the highway (25) that is only about 2 blocks away, no either from the A/C. The bed, queen size is very comfortable, providing a good sleep. Several stand and table lamps light the place. The bathroon combo provide more comfort, with enough hot water . They provide soap bars and shampoo/conditioner. The only con if you want, is the breakfast, what I found some sort of bland, with scrambled eggs and sausage been the main staple, others include cereal, juice, bread, still a good deal. The breakfast area is by the desk front, furnished with a plasma TV and two desk computers. They also have a van to provide transportation to and from the airport, I never had use this service. Close to the ofice is a small area to play one ring basketball game, and at least two grills and chairs to enjoy an outside cooking. I never used the pool so nothing to say.In general the Residence Inn is a good place to stay without expending a lot, is in a good area of Englewood only about 15 minutes away to downtown Denver, about 5 to Park Meadows Mall, and 30 from the DIA airport. Colorado Springs is only 1 hour away south on I-25.I highly recommend this location, and if you are not a perfectionist and no going around with a "royal" expectation, this place can be really good to stay, for whatever reason you are in Metro Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r138063351-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>138063351</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Perfect except for the Queen sized bed</t>
+  </si>
+  <si>
+    <t>We bid on priceline.com and for $60 a night 3 stars we got this one. When we got there and throughout the stay the people working the front desk were really nice and helpful. We were traveling with at 1 year old. We asked for a crib. They are no charge but pack and plays (if that makes a difference). The kitchen was well stocked with everything you need; pans and even measuring utensils. The kitchen looked really clean. It also came with a refrigerator and freezer. The freezer still had a cold stone ice cream in it from the last user and the ice was over flowing. The cold stone didn't bother me but I could see it bothering others. The room was beautiful decorated with old pictures of Denver. I didn't think it looked dated. We went to sleep. My husband and I are used to sleeping in a king-sized bed. It was hard to sleep in the Queen. The next day we asked for a cot and the hotel has two but I guess they are going to eventually get rid of them. I also found out that the couch folds out to a bed. The next day we went swimming. The pool was a little cold but not too bad. It was an L shape. It was hard for my 1 year old to play because the only place he could touch the bottom was on...We bid on priceline.com and for $60 a night 3 stars we got this one. When we got there and throughout the stay the people working the front desk were really nice and helpful. We were traveling with at 1 year old. We asked for a crib. They are no charge but pack and plays (if that makes a difference). The kitchen was well stocked with everything you need; pans and even measuring utensils. The kitchen looked really clean. It also came with a refrigerator and freezer. The freezer still had a cold stone ice cream in it from the last user and the ice was over flowing. The cold stone didn't bother me but I could see it bothering others. The room was beautiful decorated with old pictures of Denver. I didn't think it looked dated. We went to sleep. My husband and I are used to sleeping in a king-sized bed. It was hard to sleep in the Queen. The next day we asked for a cot and the hotel has two but I guess they are going to eventually get rid of them. I also found out that the couch folds out to a bed. The next day we went swimming. The pool was a little cold but not too bad. It was an L shape. It was hard for my 1 year old to play because the only place he could touch the bottom was on the stairs. Right next to the pool was really slippery. (It wouldn't be a problem to most people only if you have small kids). There is a hot tub. It holds 8 people. It wasn't too hot but nice. The pool was nice because hardly anyone was there. They have a continental breakfast. It usually has eggs, waffles, yogurt, cereal, pastry, and sausage. It was really good. Not the best I've had but better than average for a continental breakfast. They also have a 'social hour'. This is at night during dinner. It's a light dinner. They serve wine, beer and then a dinner item. One day they had a meatball sub and the next soup and salad. It's not a big meal but if you just want something light it's perfect. They have computer for guest to use. I checked my e-mail and no problems there. Overall, great hotel stay. I would have rated the hotel 5 stars except I wish the bed was bigger.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>We bid on priceline.com and for $60 a night 3 stars we got this one. When we got there and throughout the stay the people working the front desk were really nice and helpful. We were traveling with at 1 year old. We asked for a crib. They are no charge but pack and plays (if that makes a difference). The kitchen was well stocked with everything you need; pans and even measuring utensils. The kitchen looked really clean. It also came with a refrigerator and freezer. The freezer still had a cold stone ice cream in it from the last user and the ice was over flowing. The cold stone didn't bother me but I could see it bothering others. The room was beautiful decorated with old pictures of Denver. I didn't think it looked dated. We went to sleep. My husband and I are used to sleeping in a king-sized bed. It was hard to sleep in the Queen. The next day we asked for a cot and the hotel has two but I guess they are going to eventually get rid of them. I also found out that the couch folds out to a bed. The next day we went swimming. The pool was a little cold but not too bad. It was an L shape. It was hard for my 1 year old to play because the only place he could touch the bottom was on...We bid on priceline.com and for $60 a night 3 stars we got this one. When we got there and throughout the stay the people working the front desk were really nice and helpful. We were traveling with at 1 year old. We asked for a crib. They are no charge but pack and plays (if that makes a difference). The kitchen was well stocked with everything you need; pans and even measuring utensils. The kitchen looked really clean. It also came with a refrigerator and freezer. The freezer still had a cold stone ice cream in it from the last user and the ice was over flowing. The cold stone didn't bother me but I could see it bothering others. The room was beautiful decorated with old pictures of Denver. I didn't think it looked dated. We went to sleep. My husband and I are used to sleeping in a king-sized bed. It was hard to sleep in the Queen. The next day we asked for a cot and the hotel has two but I guess they are going to eventually get rid of them. I also found out that the couch folds out to a bed. The next day we went swimming. The pool was a little cold but not too bad. It was an L shape. It was hard for my 1 year old to play because the only place he could touch the bottom was on the stairs. Right next to the pool was really slippery. (It wouldn't be a problem to most people only if you have small kids). There is a hot tub. It holds 8 people. It wasn't too hot but nice. The pool was nice because hardly anyone was there. They have a continental breakfast. It usually has eggs, waffles, yogurt, cereal, pastry, and sausage. It was really good. Not the best I've had but better than average for a continental breakfast. They also have a 'social hour'. This is at night during dinner. It's a light dinner. They serve wine, beer and then a dinner item. One day they had a meatball sub and the next soup and salad. It's not a big meal but if you just want something light it's perfect. They have computer for guest to use. I checked my e-mail and no problems there. Overall, great hotel stay. I would have rated the hotel 5 stars except I wish the bed was bigger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r134303527-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134303527</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>THiS HOTEL HAS RATS!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was staying at this hotel briefly and noticed that they have rats the size of hamsters roaming around the grounds one was dead on the steps and if there's one then there are more. Staff not very friendly. Rooms just ok. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r132484162-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>132484162</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Outstanding customer service!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at the Residence Inn for eleven nights in May. They are a pet friendly resort and really go the extra mile to ensure the comfort of ALL their guests including the four legged ones.My Chinese Crested was suffering separation anxiety and crying when I went work the first morning. Management took the time to go to my room and comfort my little girl.  That night another employee kept her company at the front desk while I worked out in the gym.I have never experienced such a high level of customer service, professionalism and genuine hospitality ever, at any hotel I've ever started at before.  Thank you, from an ex Platinum, current Gold Marriott Rewards Member!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at the Residence Inn for eleven nights in May. They are a pet friendly resort and really go the extra mile to ensure the comfort of ALL their guests including the four legged ones.My Chinese Crested was suffering separation anxiety and crying when I went work the first morning. Management took the time to go to my room and comfort my little girl.  That night another employee kept her company at the front desk while I worked out in the gym.I have never experienced such a high level of customer service, professionalism and genuine hospitality ever, at any hotel I've ever started at before.  Thank you, from an ex Platinum, current Gold Marriott Rewards Member!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r130789596-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>130789596</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>If you like the smell of Bombay indian cooking stay here</t>
+  </si>
+  <si>
+    <t>Awful!
+ I am a travel agent; I travel and book travel for a living.
+ I have always loved Residence Inns and Marriotts. This place seems to always be under renovation and disrepair. The rooms are average Residence Inn rooms, but the smells!
+ The smell of bombay Indian cooking, or middle eastern cooking permeates the hallways.
+ I love indian food. I love Israeli foods, but I don't want to sleep with the smells. 
+The front desk staff concurred that they have long term residents that are always cooking and it always smells like this. 
+I didn't bother to stay for the breakfast. 
+The breakfasts are always so crowded and over run with people and rude kids. 
+Everyone acts like the hotel owes them something; They don't. It's a perk. 
+How about getting to stay in a nice clean room, affordable stay, great customer service and appreciating that breakfast &amp; staff. They do a good job, they work really hard, and all they get is snotty ungrateful  people without manners .  
+We have it really quite good in this country. 
+Quit being so greedy and spoiled and " we're entitled".  We're not entitled to anything. 
+Be grateful when you do get a nice place to stay. 
+And teach your rude kids to have some manners and kindness for other people. 
+I checked out early &amp;  I went over to the full service Marriott, was given a tour of the hotel and given...Awful! I am a travel agent; I travel and book travel for a living. I have always loved Residence Inns and Marriotts. This place seems to always be under renovation and disrepair. The rooms are average Residence Inn rooms, but the smells! The smell of bombay Indian cooking, or middle eastern cooking permeates the hallways. I love indian food. I love Israeli foods, but I don't want to sleep with the smells. The front desk staff concurred that they have long term residents that are always cooking and it always smells like this. I didn't bother to stay for the breakfast. The breakfasts are always so crowded and over run with people and rude kids. Everyone acts like the hotel owes them something; They don't. It's a perk. How about getting to stay in a nice clean room, affordable stay, great customer service and appreciating that breakfast &amp; staff. They do a good job, they work really hard, and all they get is snotty ungrateful  people without manners .  We have it really quite good in this country. Quit being so greedy and spoiled and " we're entitled".  We're not entitled to anything. Be grateful when you do get a nice place to stay. And teach your rude kids to have some manners and kindness for other people.  I checked out early &amp;  I went over to the full service Marriott, was given a tour of the hotel and given a beautiful quiet room with a view of the mountains... and no stinky smells. No voices and rude selfiish, self centered kids yelling in the halls... and yes, I have a daughter. She isn't allowed to behave rudely.  The only other Marriott that I have rated lower than this is the Townplace Suites in Denver Medical Center .. that one smells like a musty old hospital ... never again to both of these.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Awful!
+ I am a travel agent; I travel and book travel for a living.
+ I have always loved Residence Inns and Marriotts. This place seems to always be under renovation and disrepair. The rooms are average Residence Inn rooms, but the smells!
+ The smell of bombay Indian cooking, or middle eastern cooking permeates the hallways.
+ I love indian food. I love Israeli foods, but I don't want to sleep with the smells. 
+The front desk staff concurred that they have long term residents that are always cooking and it always smells like this. 
+I didn't bother to stay for the breakfast. 
+The breakfasts are always so crowded and over run with people and rude kids. 
+Everyone acts like the hotel owes them something; They don't. It's a perk. 
+How about getting to stay in a nice clean room, affordable stay, great customer service and appreciating that breakfast &amp; staff. They do a good job, they work really hard, and all they get is snotty ungrateful  people without manners .  
+We have it really quite good in this country. 
+Quit being so greedy and spoiled and " we're entitled".  We're not entitled to anything. 
+Be grateful when you do get a nice place to stay. 
+And teach your rude kids to have some manners and kindness for other people. 
+I checked out early &amp;  I went over to the full service Marriott, was given a tour of the hotel and given...Awful! I am a travel agent; I travel and book travel for a living. I have always loved Residence Inns and Marriotts. This place seems to always be under renovation and disrepair. The rooms are average Residence Inn rooms, but the smells! The smell of bombay Indian cooking, or middle eastern cooking permeates the hallways. I love indian food. I love Israeli foods, but I don't want to sleep with the smells. The front desk staff concurred that they have long term residents that are always cooking and it always smells like this. I didn't bother to stay for the breakfast. The breakfasts are always so crowded and over run with people and rude kids. Everyone acts like the hotel owes them something; They don't. It's a perk. How about getting to stay in a nice clean room, affordable stay, great customer service and appreciating that breakfast &amp; staff. They do a good job, they work really hard, and all they get is snotty ungrateful  people without manners .  We have it really quite good in this country. Quit being so greedy and spoiled and " we're entitled".  We're not entitled to anything. Be grateful when you do get a nice place to stay. And teach your rude kids to have some manners and kindness for other people.  I checked out early &amp;  I went over to the full service Marriott, was given a tour of the hotel and given a beautiful quiet room with a view of the mountains... and no stinky smells. No voices and rude selfiish, self centered kids yelling in the halls... and yes, I have a daughter. She isn't allowed to behave rudely.  The only other Marriott that I have rated lower than this is the Townplace Suites in Denver Medical Center .. that one smells like a musty old hospital ... never again to both of these.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r126299267-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>126299267</t>
+  </si>
+  <si>
+    <t>03/18/2012</t>
+  </si>
+  <si>
+    <t>Great hotel in Englewood, CO</t>
+  </si>
+  <si>
+    <t>Hello fellow business travelers,If you need a clean, comfortable and affordable place to stay in the Englewood, CO area, this is definitely the place to visit.  Rooms are spacious, clean and the additional free breakfast (lots of choice) and dinner snacks in the evening are a nice touch.  The shuttle bus drivers were also great, very courteous and on time each day.  I'd stay here again in a heartbeat!Sincerely,A Marriott Platinum member</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r126256273-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>126256273</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>Cuation infested with ANTS</t>
+  </si>
+  <si>
+    <t>My rooms air conditioner wasn't on, the only options were heat or warm blowing fan, not what I call pleasant on a hot day. I checked in at 2pm, the room was hot with heat on, so i immediately switched to cool and went out to return to a cool room.  When I returned later that evening still was too warm in the room.  I called the front desk, the maintenance guy came, but was supposedly too tired to fix it.  Completely unexpected, so I called the front desk a second time and then maintenance helped fix it. As the night went on, I noticed aunts in the bathroom and in the kitchenette area, I swept away the few I saw, assuming problem solved.  I woke up in the mid night to use the bathroom to find a colony of ants covering the floor, it was the nastiest id never expect in a hotel. I asked to switch rooms, but first the supervisor had to verify there really were ants, as if I was lying.  With only a 3night stay why would I want the hassle to switch rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>My rooms air conditioner wasn't on, the only options were heat or warm blowing fan, not what I call pleasant on a hot day. I checked in at 2pm, the room was hot with heat on, so i immediately switched to cool and went out to return to a cool room.  When I returned later that evening still was too warm in the room.  I called the front desk, the maintenance guy came, but was supposedly too tired to fix it.  Completely unexpected, so I called the front desk a second time and then maintenance helped fix it. As the night went on, I noticed aunts in the bathroom and in the kitchenette area, I swept away the few I saw, assuming problem solved.  I woke up in the mid night to use the bathroom to find a colony of ants covering the floor, it was the nastiest id never expect in a hotel. I asked to switch rooms, but first the supervisor had to verify there really were ants, as if I was lying.  With only a 3night stay why would I want the hassle to switch rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r124982594-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>124982594</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn, great location for dining and shopping</t>
+  </si>
+  <si>
+    <t>I stayed in a 2 bedroom suite for a weekend of scrapbooking with my girlfriends. We have done this annually in the Denver area but it was a first at this hotel. On the plus side, the room was spacious and we could easily set up our 6 foot tables for extra work room. The beds were fine and overall things were clean. The room seemed a little dated with fixtures, the tile in the bathroom was severly cracked but none of this really bothered us. What was disappointing was the breakfast. First morning they had food, but overall taste was poor. Frozen pancakes that sort of thing. The second morning we were there at 9:15 (breakfast goes until 10) and they were out of everything. Orange juice was gone, sausage was gone, coffee was out, no syrup, no more mix to make a waffle, only skim milk was available and so on. This was frustrating to us. I also had requested a room near the elevator and got one the absolute farthest away from the elevator. Not a huge deal but us scrapbooker haul a lot of stuff. I would stay here again, but there are similar hotels in the area that I would certainly look to go first if pricing was comparable. On that note - I thought our rate of $109 was great for a 2 bedroom 2 bath suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed in a 2 bedroom suite for a weekend of scrapbooking with my girlfriends. We have done this annually in the Denver area but it was a first at this hotel. On the plus side, the room was spacious and we could easily set up our 6 foot tables for extra work room. The beds were fine and overall things were clean. The room seemed a little dated with fixtures, the tile in the bathroom was severly cracked but none of this really bothered us. What was disappointing was the breakfast. First morning they had food, but overall taste was poor. Frozen pancakes that sort of thing. The second morning we were there at 9:15 (breakfast goes until 10) and they were out of everything. Orange juice was gone, sausage was gone, coffee was out, no syrup, no more mix to make a waffle, only skim milk was available and so on. This was frustrating to us. I also had requested a room near the elevator and got one the absolute farthest away from the elevator. Not a huge deal but us scrapbooker haul a lot of stuff. I would stay here again, but there are similar hotels in the area that I would certainly look to go first if pricing was comparable. On that note - I thought our rate of $109 was great for a 2 bedroom 2 bath suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r92768947-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>92768947</t>
+  </si>
+  <si>
+    <t>01/13/2011</t>
+  </si>
+  <si>
+    <t>The people make this a great place to stay.</t>
+  </si>
+  <si>
+    <t>The people who work here are all eager to make you feel at home. The holiday rates here were excellent. The rooms are comfortable and include complete kitchens. The location is great: Lots of convenient restaurants, stores, and grocery stores just off a major street near the interstate. Just far enough off the major streets to be quiet.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r65128796-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>65128796</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Rude and Incompetent Front desk hotel staff</t>
+  </si>
+  <si>
+    <t>Well, I made the mistake of calling the front desk for help with transportation and I called well in advance.  However, the taxi never came to get me.  Also, the hotel shuttle is a joke.  They tell you one time on the phone but if you ask the shuttle driver, it was totally incorrect information.  I was late to my business appts. 3/5 times I used front desk for help.  Needless to say I starting calling my own taxi soon.Also, this hotel is nowhere near anything in walking distance (no restraunts, stores, gas stations)........cabs take at least 30 mins to come in rush hour.  DO NOT STAY HERE if you are on foot!!  Furthermore, there is not one soda vending machine on site.  But don't worry, they have water for 2.50 a bottle or a mini gatorade for $3!   The only good thing I have to say about hotel is how friendly and helpful the non-front desk staff was!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Well, I made the mistake of calling the front desk for help with transportation and I called well in advance.  However, the taxi never came to get me.  Also, the hotel shuttle is a joke.  They tell you one time on the phone but if you ask the shuttle driver, it was totally incorrect information.  I was late to my business appts. 3/5 times I used front desk for help.  Needless to say I starting calling my own taxi soon.Also, this hotel is nowhere near anything in walking distance (no restraunts, stores, gas stations)........cabs take at least 30 mins to come in rush hour.  DO NOT STAY HERE if you are on foot!!  Furthermore, there is not one soda vending machine on site.  But don't worry, they have water for 2.50 a bottle or a mini gatorade for $3!   The only good thing I have to say about hotel is how friendly and helpful the non-front desk staff was!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r46123624-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>46123624</t>
+  </si>
+  <si>
+    <t>10/07/2009</t>
+  </si>
+  <si>
+    <t>Good stay, good service and friendly service.</t>
+  </si>
+  <si>
+    <t>We stayed here for the Broncos game.  The check in was quick and the clerks very friendly.  After a long drive to the hotel, we took a dip in the hot tub and pool to relax - the enclosed pool area was spotless.  Our room had a fridge, small kitchenette and folding sofa bed.  The staff kept us in clean towels and our room tidy.  They even reccomended a place to have dinner the first night, too.  The breakfast was ample and good.  My friend had stayed there prior on various occasions; this was my first time.  I would do it again.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r24506144-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>24506144</t>
+  </si>
+  <si>
+    <t>02/12/2009</t>
+  </si>
+  <si>
+    <t>Friendly Staff!</t>
+  </si>
+  <si>
+    <t>This hotel has the nicest folks working there! Very welcoming and helpful staff! Also, the location is awesome; next to the mall, several restaurants and the light rail is next to it which we walked to in 5 minutes and took to downtown Denver.....so cool! We will be back to stay here again!</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r10877918-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>10877918</t>
+  </si>
+  <si>
+    <t>11/17/2007</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Had a very nice, relaxing stay here.  The suite was just perfect for me with bedroom, full bath, living/dining area with fully equipped kitchen.  Plenty of room and I was happy to have the kitchen although I did not actually cook any meals.  A bag of microwave popcorn was complimentary (as was the usual coffee and tea) so I fixed a bag while I watched a movie on TV stertched out on the sofa.  Room was very quiet and I was delighted to find I could actually open the window for fresh air in the bedroom.  The bed was very comfortable.  Room had a hair dryer, shampoo and conditioner, bath wash in addition to the nicely scented soaps.  Decor was up to date and attractive.       They have a great hot tub which is not only clean but truly hot.  So many times hotel hot tubs are little better than lukewarm.  The included breakfast buffet was generous with plenty of variety:  make-it-yourself waffles, oatmeal as well as cold cereals, scrambled eggs with salsa, corned beef hash, fresh fruit, yogurt, toast, bagels, muffins.  Checkout was streamlined to do by picking up the phone in your room.  Staff was courteous and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Had a very nice, relaxing stay here.  The suite was just perfect for me with bedroom, full bath, living/dining area with fully equipped kitchen.  Plenty of room and I was happy to have the kitchen although I did not actually cook any meals.  A bag of microwave popcorn was complimentary (as was the usual coffee and tea) so I fixed a bag while I watched a movie on TV stertched out on the sofa.  Room was very quiet and I was delighted to find I could actually open the window for fresh air in the bedroom.  The bed was very comfortable.  Room had a hair dryer, shampoo and conditioner, bath wash in addition to the nicely scented soaps.  Decor was up to date and attractive.       They have a great hot tub which is not only clean but truly hot.  So many times hotel hot tubs are little better than lukewarm.  The included breakfast buffet was generous with plenty of variety:  make-it-yourself waffles, oatmeal as well as cold cereals, scrambled eggs with salsa, corned beef hash, fresh fruit, yogurt, toast, bagels, muffins.  Checkout was streamlined to do by picking up the phone in your room.  Staff was courteous and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r8667902-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>8667902</t>
+  </si>
+  <si>
+    <t>09/05/2007</t>
+  </si>
+  <si>
+    <t>Hated it!</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I stayed here for three nights and were very dissatisfied!  The beds were hard as rocks, the sheets and blanket and towels were thin and cheap, the morning breakfast was gross and we did not get room service one day until 5pm after calling three times.  When we expressed our displeasure we were told the hotel was going to be updated soon and there was nothing they could do for us.  We spent $500 dollars for a two room suite and really expected a bit more.  Am I too picky or do people not care about their hotel rooms?  Do not stay here!!!!</t>
+  </si>
+  <si>
+    <t>September 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1985,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2017,4158 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>241</v>
+      </c>
+      <c r="X29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>241</v>
+      </c>
+      <c r="X32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>241</v>
+      </c>
+      <c r="X34" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>241</v>
+      </c>
+      <c r="X35" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>241</v>
+      </c>
+      <c r="X36" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>320</v>
+      </c>
+      <c r="X37" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>349</v>
+      </c>
+      <c r="X41" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>357</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>358</v>
+      </c>
+      <c r="X42" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>397</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>398</v>
+      </c>
+      <c r="X47" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>406</v>
+      </c>
+      <c r="O48" t="s">
+        <v>407</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>408</v>
+      </c>
+      <c r="X48" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" t="s">
+        <v>413</v>
+      </c>
+      <c r="K49" t="s">
+        <v>414</v>
+      </c>
+      <c r="L49" t="s">
+        <v>415</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>406</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>425</v>
+      </c>
+      <c r="K51" t="s">
+        <v>426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O51" t="s">
+        <v>100</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>435</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>438</v>
+      </c>
+      <c r="J53" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" t="s">
+        <v>440</v>
+      </c>
+      <c r="L53" t="s">
+        <v>441</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>442</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>443</v>
+      </c>
+      <c r="J54" t="s">
+        <v>444</v>
+      </c>
+      <c r="K54" t="s">
+        <v>445</v>
+      </c>
+      <c r="L54" t="s">
+        <v>446</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>457</v>
+      </c>
+      <c r="K56" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>463</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>460</v>
+      </c>
+      <c r="O57" t="s">
+        <v>100</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O58" t="s">
+        <v>407</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>110</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>492</v>
+      </c>
+      <c r="O61" t="s">
+        <v>407</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>494</v>
+      </c>
+      <c r="J62" t="s">
+        <v>495</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
+      </c>
+      <c r="L62" t="s">
+        <v>497</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>500</v>
+      </c>
+      <c r="J63" t="s">
+        <v>501</v>
+      </c>
+      <c r="K63" t="s">
+        <v>502</v>
+      </c>
+      <c r="L63" t="s">
+        <v>503</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>504</v>
+      </c>
+      <c r="O63" t="s">
+        <v>100</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>506</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>507</v>
+      </c>
+      <c r="J64" t="s">
+        <v>508</v>
+      </c>
+      <c r="K64" t="s">
+        <v>509</v>
+      </c>
+      <c r="L64" t="s">
+        <v>510</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>511</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_233.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_233.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,68 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r601635041-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>223895</t>
+  </si>
+  <si>
+    <t>601635041</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Perfect for families</t>
+  </si>
+  <si>
+    <t>We had a two-bedroom, two-bath suite. It was quite spacious and plenty of room for our family of four to spread out. My son chose to sleep on the pull-out sofa instead of sharing a bed with his sister, and it was just nice to have that option. And to have two bathrooms! Front desk personnel were friendly and helpful. The night we arrived they were having a free bbq chicken dinner with wine, beer, or soda, which we happily took advantage of. I never made it down to breakfast, but my husband and daughter did and it looked good. They had free coffee and lemonade always available, and a nice little library in the lobby. We had not stayed at a Residence Inn before, but I will definitely put them on our short list for next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had a two-bedroom, two-bath suite. It was quite spacious and plenty of room for our family of four to spread out. My son chose to sleep on the pull-out sofa instead of sharing a bed with his sister, and it was just nice to have that option. And to have two bathrooms! Front desk personnel were friendly and helpful. The night we arrived they were having a free bbq chicken dinner with wine, beer, or soda, which we happily took advantage of. I never made it down to breakfast, but my husband and daughter did and it looked good. They had free coffee and lemonade always available, and a nice little library in the lobby. We had not stayed at a Residence Inn before, but I will definitely put them on our short list for next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r598938436-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>598938436</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>It may have been a fluke, but I wouldn't ever book here again</t>
+  </si>
+  <si>
+    <t>For the purpose of full disclosure, I am a travel agent and I booked this hotel on a special discount and I have noticed that other properties have put me in less desirable rooms when I used this discount.  So, it may be a fluke but I wouldn't ever book this property again.  In fact, we cut our stay short because of problems with the room.  
+From the moment we walked in there was an extremely strong smell in our room, that smelled like someone had cooked something incredibly spicy and the kitchen had not been cleaned since.  The room was very dated and worn, to the degree that I was shocked that this was a Marriott property.  The pull out couch was disco orange, but so dirty it appeared brown in some spots.  I had planned to put my daughter on the pullout, but the mattress was so old and broken down I wouldn't want her sleeping on it (and there were no sheets or blankets for the pullout) so we ended up sharing a very hard queen mattress.  There was a broken window in the bedroom that kept it from closing, and the window was roughly 200 yards from the 8-lane highway nearby.  It was so loud in our room it sounded like sleeping on a tarmac.  I was only able to get a few hours of sleep by turning on the fan on the thermostat to drown...For the purpose of full disclosure, I am a travel agent and I booked this hotel on a special discount and I have noticed that other properties have put me in less desirable rooms when I used this discount.  So, it may be a fluke but I wouldn't ever book this property again.  In fact, we cut our stay short because of problems with the room.  From the moment we walked in there was an extremely strong smell in our room, that smelled like someone had cooked something incredibly spicy and the kitchen had not been cleaned since.  The room was very dated and worn, to the degree that I was shocked that this was a Marriott property.  The pull out couch was disco orange, but so dirty it appeared brown in some spots.  I had planned to put my daughter on the pullout, but the mattress was so old and broken down I wouldn't want her sleeping on it (and there were no sheets or blankets for the pullout) so we ended up sharing a very hard queen mattress.  There was a broken window in the bedroom that kept it from closing, and the window was roughly 200 yards from the 8-lane highway nearby.  It was so loud in our room it sounded like sleeping on a tarmac.  I was only able to get a few hours of sleep by turning on the fan on the thermostat to drown out some of the noise.  The entire room was dirty.  Every cupboard we opened had dirt in it, the walls had some kind of shiny substance sprayed across them, the soap holder was moldy, the couch had white sticky stains, and the window sills were filthy (pics attached of all.)  Marriott should really take a look at this property, because at least the room I stayed in was definitely not up to Marriott standards.  I also encountered some hostility from a female employee who was working the breakfast.  She stepped on my foot while shoving her way into the breakfast area.  She apologized, and I quietly said "it's OK."  I am not sure what she thought I said, but she turned around and glared at me and continued to glare at me for several VERY awkward minutes before she went back to pushing her way through guests to refill things.  This seemed to be the attitude we got from most of the employees.  That said, the front desk manager was very kind and accommodating when I went to her with my concerns, but overall the property is problematic and I wouldn't recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
+  </si>
+  <si>
+    <t>For the purpose of full disclosure, I am a travel agent and I booked this hotel on a special discount and I have noticed that other properties have put me in less desirable rooms when I used this discount.  So, it may be a fluke but I wouldn't ever book this property again.  In fact, we cut our stay short because of problems with the room.  
+From the moment we walked in there was an extremely strong smell in our room, that smelled like someone had cooked something incredibly spicy and the kitchen had not been cleaned since.  The room was very dated and worn, to the degree that I was shocked that this was a Marriott property.  The pull out couch was disco orange, but so dirty it appeared brown in some spots.  I had planned to put my daughter on the pullout, but the mattress was so old and broken down I wouldn't want her sleeping on it (and there were no sheets or blankets for the pullout) so we ended up sharing a very hard queen mattress.  There was a broken window in the bedroom that kept it from closing, and the window was roughly 200 yards from the 8-lane highway nearby.  It was so loud in our room it sounded like sleeping on a tarmac.  I was only able to get a few hours of sleep by turning on the fan on the thermostat to drown...For the purpose of full disclosure, I am a travel agent and I booked this hotel on a special discount and I have noticed that other properties have put me in less desirable rooms when I used this discount.  So, it may be a fluke but I wouldn't ever book this property again.  In fact, we cut our stay short because of problems with the room.  From the moment we walked in there was an extremely strong smell in our room, that smelled like someone had cooked something incredibly spicy and the kitchen had not been cleaned since.  The room was very dated and worn, to the degree that I was shocked that this was a Marriott property.  The pull out couch was disco orange, but so dirty it appeared brown in some spots.  I had planned to put my daughter on the pullout, but the mattress was so old and broken down I wouldn't want her sleeping on it (and there were no sheets or blankets for the pullout) so we ended up sharing a very hard queen mattress.  There was a broken window in the bedroom that kept it from closing, and the window was roughly 200 yards from the 8-lane highway nearby.  It was so loud in our room it sounded like sleeping on a tarmac.  I was only able to get a few hours of sleep by turning on the fan on the thermostat to drown out some of the noise.  The entire room was dirty.  Every cupboard we opened had dirt in it, the walls had some kind of shiny substance sprayed across them, the soap holder was moldy, the couch had white sticky stains, and the window sills were filthy (pics attached of all.)  Marriott should really take a look at this property, because at least the room I stayed in was definitely not up to Marriott standards.  I also encountered some hostility from a female employee who was working the breakfast.  She stepped on my foot while shoving her way into the breakfast area.  She apologized, and I quietly said "it's OK."  I am not sure what she thought I said, but she turned around and glared at me and continued to glare at me for several VERY awkward minutes before she went back to pushing her way through guests to refill things.  This seemed to be the attitude we got from most of the employees.  That said, the front desk manager was very kind and accommodating when I went to her with my concerns, but overall the property is problematic and I wouldn't recommend it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r594706897-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
-    <t>33412</t>
-  </si>
-  <si>
-    <t>223895</t>
-  </si>
-  <si>
     <t>594706897</t>
   </si>
   <si>
@@ -183,16 +233,10 @@
     <t>I stay there recently tried to check in after the check-in time however there were no rooms available. Got a list of excuses from the front desk. Waited in the lobby for 25 minutes before being allowed to check in. Once entering the room it smelled of old pet feces, smoke, and Musk. Went to the front desk ask them to take care of the smell after asking a second time they finally sent someone to take care of it. We were in a large group and there were several rooms that had this issue with odor. The bathroom was not clean there was hair all over the floor and toilet that did not belong to anyone in our party. I mentioned it to the front desk and was told they were short on housekeeping staff. I asked for a mattress cover for the fold-out couch they told me they did not have any that were clean. This hotel does not have the same amenities that most Residence Inns do. I did not get in the pool but it was reported to me the bottom of the pool was dirty. Don't waste your money stay somewhere nicer where there is more to do and see nearby.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>RIandCYParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>RIandCYParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
   </si>
   <si>
     <t>I stay there recently tried to check in after the check-in time however there were no rooms available. Got a list of excuses from the front desk. Waited in the lobby for 25 minutes before being allowed to check in. Once entering the room it smelled of old pet feces, smoke, and Musk. Went to the front desk ask them to take care of the smell after asking a second time they finally sent someone to take care of it. We were in a large group and there were several rooms that had this issue with odor. The bathroom was not clean there was hair all over the floor and toilet that did not belong to anyone in our party. I mentioned it to the front desk and was told they were short on housekeeping staff. I asked for a mattress cover for the fold-out couch they told me they did not have any that were clean. This hotel does not have the same amenities that most Residence Inns do. I did not get in the pool but it was reported to me the bottom of the pool was dirty. Don't waste your money stay somewhere nicer where there is more to do and see nearby.More</t>
@@ -219,6 +263,51 @@
     <t>We were in the first week of our relocation from out of state to the area.We initially booked 4 nights, but our moving van was delayed. We contacted the front desk and they were able to extend our stay for a few days. Unfortunately, due to the high summer travel season,etc. our 2nd week was not available. BUT - while we were staying there the front desk staff were very helpful, accommodating, and pleasant.For a few nights during the week they host a managers reception - mostly apps and such. The hotel is right by Park Meadows Mall - shopping and many restaurants to choose from.One drawback - the eating area is too small for the number of guests. When the weather is nice one can outside to the courtyard and eat, but, in bad weather...Thank you to the staff at the Residence Inn for being our 'home away from home'More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r590650574-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>590650574</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Fabulous Stay</t>
+  </si>
+  <si>
+    <t>After two and half weeks in Colorado, one night stay in Denver before flight the next morning.  This place was fantastic.  Check in and out was a breeze.  Room was huge with living/dining area, bedroom and large vanity area and bathroom.  Place was spotless.  That evening, they had a complimentary dinner with beer, wine, soda, etc.  Menu was chicken tenderloins on a stick with sauces, tossed salad, fried plantains, chips and salsa, and desert. Food was very tasty and plenty of it.  Wines were red and white along with draft beer.  Great surprise not having to leave the hotel in search of a meal prior to leaving the next day.  Staff extremely friendly and helpful.  MoreShow less</t>
+  </si>
+  <si>
+    <t>After two and half weeks in Colorado, one night stay in Denver before flight the next morning.  This place was fantastic.  Check in and out was a breeze.  Room was huge with living/dining area, bedroom and large vanity area and bathroom.  Place was spotless.  That evening, they had a complimentary dinner with beer, wine, soda, etc.  Menu was chicken tenderloins on a stick with sauces, tossed salad, fried plantains, chips and salsa, and desert. Food was very tasty and plenty of it.  Wines were red and white along with draft beer.  Great surprise not having to leave the hotel in search of a meal prior to leaving the next day.  Staff extremely friendly and helpful.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r590277799-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>590277799</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Very noisy nearby airport makes sleep impossible after 6 a.m.</t>
+  </si>
+  <si>
+    <t>A great room of typical high quality for Marriott branded properties, BUT nearby Centennial Airport's runway is only 1.2 miles away (as the crow flies).  Starting at 6 a.m. the very, very loud buzzing of prop plane take-offs every 90 seconds made sleep completely impossible.  It's a shame, as otherwise this is really a great property.  I could never stay here again due to that intense airport noise (and I did have an inside courtyard room, which was otherwise very quiet).MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Front Office Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>A great room of typical high quality for Marriott branded properties, BUT nearby Centennial Airport's runway is only 1.2 miles away (as the crow flies).  Starting at 6 a.m. the very, very loud buzzing of prop plane take-offs every 90 seconds made sleep completely impossible.  It's a shame, as otherwise this is really a great property.  I could never stay here again due to that intense airport noise (and I did have an inside courtyard room, which was otherwise very quiet).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r584461521-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -300,6 +389,60 @@
     <t>Normally, I like Residence Inns, however, this property falls short on service. First of all, had an issue with toilet backing up, and instead of housekeeping taking care of it, the front desk person sought me out in the breakfast area and handed me a plunger. I thought I only had to do these things at my house, not when I am paying. Woke up to a few inches of snow, no big deal, except would expect them to shovel the walk. When I asked, was told they will get to it whenever, customer safety on icy sidewalk was not a priority. These were just the 2 most noticable things, were other incidents, ie rooms not real clean (dishes in sink...). Was a little shocked at their complete disregard for customer service. If service is not important to you, this place is OK. In the future will look for other hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r546911023-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>546911023</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and friendly </t>
+  </si>
+  <si>
+    <t>Great location that is easy to get to from multiple directions. Pretty big property with good set of amenities. The best part is the great friendly service of the staff. The work out room is well appointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Great location that is easy to get to from multiple directions. Pretty big property with good set of amenities. The best part is the great friendly service of the staff. The work out room is well appointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r546727100-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>546727100</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Hotel is good, free dinner is lousy</t>
+  </si>
+  <si>
+    <t>The hotel is good. But the announcement it offers free dinner for 3 nights is a joke. Usually it is just dip and nachos or mac&amp;cheese.  Compared to this place, the Denver Tech center Residence Inn offers a good dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is good. But the announcement it offers free dinner for 3 nights is a joke. Usually it is just dip and nachos or mac&amp;cheese.  Compared to this place, the Denver Tech center Residence Inn offers a good dinner.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r538843647-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -378,6 +521,57 @@
     <t>We arrived early. The Inn had been sold out the night before so we thought we would not be able to check in. However the desk clerk checked and found that our room was ready , so we did check in. This Hotel has some of the most accommodating People working for them. It is a pleasure to stay in this hotel. We have season tickets to the Broncos so we will probably be using this Inn whenever we can.  The Inn is very close to I-25 so it is easy to reach. The breakfast was very good and fresh.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r520767285-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>520767285</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Adequate but very noisy</t>
+  </si>
+  <si>
+    <t>This hotel is right next to I-25 and if you are unfortunate to get a room on that side , the sound level is high. They have attempted to attenuate the sound with external windows but it doesn't help much.The bed is also one of the worst I've slept on, and I stay at hotels over 50 nights a year. The breakfast was good, and the fitness center nice - but not stocked with water in the cooler or towels. Something they should monitor better.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is right next to I-25 and if you are unfortunate to get a room on that side , the sound level is high. They have attempted to attenuate the sound with external windows but it doesn't help much.The bed is also one of the worst I've slept on, and I stay at hotels over 50 nights a year. The breakfast was good, and the fitness center nice - but not stocked with water in the cooler or towels. Something they should monitor better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r518047461-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>518047461</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, very helpful staff</t>
+  </si>
+  <si>
+    <t>Spent one night here and found the hotel to be quite nice. Room was clean and fresh, facilities were clean and the staff was more than helpful. The night clerk that checked us in was very pleasant and spent more time than most describing what was available, where to eat and drink, breakfast hours and offerings, etc. Very nice.Only downside was the air conditioning. because the bed is located behind the vents, got warm during the night. Air conditioner cycled constantly which was a little annoying. An additional phone on the desk would also be helpful. As would a box of tissues in the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIandCYParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Spent one night here and found the hotel to be quite nice. Room was clean and fresh, facilities were clean and the staff was more than helpful. The night clerk that checked us in was very pleasant and spent more time than most describing what was available, where to eat and drink, breakfast hours and offerings, etc. Very nice.Only downside was the air conditioning. because the bed is located behind the vents, got warm during the night. Air conditioner cycled constantly which was a little annoying. An additional phone on the desk would also be helpful. As would a box of tissues in the bathroom.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r510728240-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -453,6 +647,57 @@
     <t>This was our first trip to Denver and we chose this hotel for its central location to our relatives living there. We wanted a place with a full kitchen so that we could cook and have the family over for meals and a swim in the pool. The hotel is exceptionally clean, the landscaping was lovely and well kept, the atmosphere was calm,  but best of all were the staff who stepped up to take great care of us. We stayed in an ADA room (for persons with disabilities) and had our little dog with us. The staff was exceptional, reaching out to see if we needed anything and quickly taking care of our requests. The staff made us feel like family. They were gracious, kind, attentive and always had a nice comment and a smile. From our initial phone contact with Phil who turned out to be just as nice in person to our housekeeper Melissa who was soft, personable, pleasant, nuanced - absolutely someone you'd want working in your own home - to Carissa graciously who went out of her way on a moment's notice to assist with housekeeping needs to Janice who makes a breakfast spread that rivals a good restaurant - and has done so for 15 years so she really knows how - to Jennifer  at the front desk who makes you feel she came to work just to help you out - to Jose...This was our first trip to Denver and we chose this hotel for its central location to our relatives living there. We wanted a place with a full kitchen so that we could cook and have the family over for meals and a swim in the pool. The hotel is exceptionally clean, the landscaping was lovely and well kept, the atmosphere was calm,  but best of all were the staff who stepped up to take great care of us. We stayed in an ADA room (for persons with disabilities) and had our little dog with us. The staff was exceptional, reaching out to see if we needed anything and quickly taking care of our requests. The staff made us feel like family. They were gracious, kind, attentive and always had a nice comment and a smile. From our initial phone contact with Phil who turned out to be just as nice in person to our housekeeper Melissa who was soft, personable, pleasant, nuanced - absolutely someone you'd want working in your own home - to Carissa graciously who went out of her way on a moment's notice to assist with housekeeping needs to Janice who makes a breakfast spread that rivals a good restaurant - and has done so for 15 years so she really knows how - to Jennifer  at the front desk who makes you feel she came to work just to help you out - to Jose who has an elegance that shines when he carries your luggage to the car or brings an extra chair for your guests -- If we lived closer to these great people we would invite them over for a thank you dinner. Thank you Melissa, Phil, Janice, Carissa and Jose for making us feel we were guests at your home.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r504949178-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>504949178</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Nice but noisy location</t>
+  </si>
+  <si>
+    <t>We got a great deal for four nights at this hotel.  The location is great with easy access to 25 and 470, but our room looked out on 25 and the traffic noise was significant even late at night.  The room set up was comfortable for the two of us with a small kitchen and full size refrigerator.  There are many restaurants nearby. I never made it down to breakfast but my husband did and found it satisfying. The staff was always friendly. Would stay again but would ask for a room away from the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>We got a great deal for four nights at this hotel.  The location is great with easy access to 25 and 470, but our room looked out on 25 and the traffic noise was significant even late at night.  The room set up was comfortable for the two of us with a small kitchen and full size refrigerator.  There are many restaurants nearby. I never made it down to breakfast but my husband did and found it satisfying. The staff was always friendly. Would stay again but would ask for a room away from the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r498573340-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>498573340</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Super comfy bed, quiet room, and great staff.  Lots of options for breakfast.  I always pay attention to how the staff interacts with guests and everyone we encountered was very kind.  Bed comfort and ability to change the room temperature to our desire is also extremely important to me and the beds were great - so was room temperature. We have family moving to the area and this will be our first choice for hotel stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Super comfy bed, quiet room, and great staff.  Lots of options for breakfast.  I always pay attention to how the staff interacts with guests and everyone we encountered was very kind.  Bed comfort and ability to change the room temperature to our desire is also extremely important to me and the beds were great - so was room temperature. We have family moving to the area and this will be our first choice for hotel stays.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r496372814-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -468,9 +713,6 @@
     <t>Five of us checked in for four nights but the two bedroom suites were terribly small for all of us so we had to add a one bedroom.  The pull out sofas are only suitable for small children as they are terribly uncomfortable.  On the plus side, the linens were very clean and the housekeeping staff did a great job of cleaning the suites.  The HVAC was so efficient and provides wonderful white noise.  There was a very cold indoor pool, but no spa, despite signs everywhere in the hotel that point to a spa. Breakfast buffet was adequate but with the usual high carb, cheap, choices.  Staff very friendly and responsive, but all in all nothing special and would only recommend for one night.  MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>CSM_HotelManager, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 26, 2017</t>
   </si>
   <si>
@@ -495,12 +737,6 @@
     <t>We were on a road trip out west and chose this Hotel for location and price-got a great deal!  Haven't stayed at a Residence Inn for long time, will be sooner next time.Staff was great, our room was awesome!  Full size kitchen which we didn't really utilize, free bag of microwave popcorn we did make while sitting on the comfy couch watching tv.  Bed was comfy, big closet, nice bathroom too. Sink is in separate area which to me is a plus.MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded July 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 6, 2017</t>
-  </si>
-  <si>
     <t>We were on a road trip out west and chose this Hotel for location and price-got a great deal!  Haven't stayed at a Residence Inn for long time, will be sooner next time.Staff was great, our room was awesome!  Full size kitchen which we didn't really utilize, free bag of microwave popcorn we did make while sitting on the comfy couch watching tv.  Bed was comfy, big closet, nice bathroom too. Sink is in separate area which to me is a plus.More</t>
   </si>
   <si>
@@ -522,6 +758,60 @@
     <t>I was really happy with the service at this hotel.  I was here for work for a full week and even while they were under construction they still gave great service.  Free parking was a bonus for my rental car and plenty of food places to eat at around there.  I will say the food there was actually quite good!  And to the awesome server at the morning buffet who has been there for 30 years, THANK YOU for making our mornings so delightful.  :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r478067317-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>478067317</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>This will be one of my go-to places to stay when I'm in the Denver area.</t>
+  </si>
+  <si>
+    <t>We felt like home.  We stayed a couple of nights while we enjoyed Denver and the surrounding shopping and restaurants.  The bed was comfortable, I wish we could have gotten a king size bed but that isn't an issue.  I love the shades that filter the outside light but you can still out as well.  It feels like we are in a townhouse, not a hotel.  it's a great little suit with enough room.  The breakfast gave us plenty of choices and the staff made sure we had everything we needed.  Great service!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>We felt like home.  We stayed a couple of nights while we enjoyed Denver and the surrounding shopping and restaurants.  The bed was comfortable, I wish we could have gotten a king size bed but that isn't an issue.  I love the shades that filter the outside light but you can still out as well.  It feels like we are in a townhouse, not a hotel.  it's a great little suit with enough room.  The breakfast gave us plenty of choices and the staff made sure we had everything we needed.  Great service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r469221970-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>469221970</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Amazing in every way!</t>
+  </si>
+  <si>
+    <t>I live one hour south of Denver and when I come to Denver, I stay over-night because we shop til we drop!  I have stayed at many hotels around the area, never a Residence Inn - I have missed so much and this hotel, this site, will be the only one I go to from now on!  Not only did I get a great rate at a booking site, but this hotel is amazing. 
+The room was clean, lots of closet and cabinet space, full-size fridge, my room had just the 2 burner cook-top, dishwasher, all the kitchen needs - down to a wine bottle opener!  Upon checkin, not only was there delicious chocolate chip cookies, but there was a free coffee bar with flavored creamers and additional syrups.  But wait!  There was also a cocoa bar!  Yes, Cocoa mixins - I mean marshmallows, chocolate chips (white and choc actually) and a  chocolate stir - just die by chocolate!  
+The pool was warm, could not hold too many rambunctious kids (it's rectangular shape), has a disable lift chair, jacuzzi is hot, big towels provided, bathroom just outside pool area, a BBQ area and patio adjacent to pool.  My only complaint is that that the jacuzzi bubbles so much when you sit down that your head gets completely wet.
+Breakfast is amazing, really.  We stayed two nights so we had 2  breakfasts which they change up a little each morning (bacon...I live one hour south of Denver and when I come to Denver, I stay over-night because we shop til we drop!  I have stayed at many hotels around the area, never a Residence Inn - I have missed so much and this hotel, this site, will be the only one I go to from now on!  Not only did I get a great rate at a booking site, but this hotel is amazing. The room was clean, lots of closet and cabinet space, full-size fridge, my room had just the 2 burner cook-top, dishwasher, all the kitchen needs - down to a wine bottle opener!  Upon checkin, not only was there delicious chocolate chip cookies, but there was a free coffee bar with flavored creamers and additional syrups.  But wait!  There was also a cocoa bar!  Yes, Cocoa mixins - I mean marshmallows, chocolate chips (white and choc actually) and a  chocolate stir - just die by chocolate!  The pool was warm, could not hold too many rambunctious kids (it's rectangular shape), has a disable lift chair, jacuzzi is hot, big towels provided, bathroom just outside pool area, a BBQ area and patio adjacent to pool.  My only complaint is that that the jacuzzi bubbles so much when you sit down that your head gets completely wet.Breakfast is amazing, really.  We stayed two nights so we had 2  breakfasts which they change up a little each morning (bacon or sausage), scramble eggs (no omelet making, so what), waffle maker and lots of fixins to go into your waffle!  yogurts, juices, coffee and flavorings, oatmeal, man oh man, just the best.  The only complaint in this area is that the breakfast host is SO busy keeping the food bar full that trash was totally falling on the floor outside the bin.  Both mornings this was a problem.  The manager needs to keep a watch on this and help the hostess out, come on!  I do not want to see breakfast trash all over after such a great meal.The fireplace in the lobby seams to be running all the time, nice effect even if you really cannot feel it unless you sit right by it and there is no room to sit. The sitting area with large flat screen TV is nice although it is right IN the breakfast area.  The computer area is my one area of complaint, even though I am glad they have it.  It is free printing, it will kick you off if you are on there too long (just sign on again), internet (even in room) is fast enough.  My complaint is that the computers are IN a hall area going to the pool - no privacy and noise of the area if you need to concentrate!  No privacy for any business work.  The only nice thing about this set-up is that you will not have to sit next to someone looking at pornography!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I live one hour south of Denver and when I come to Denver, I stay over-night because we shop til we drop!  I have stayed at many hotels around the area, never a Residence Inn - I have missed so much and this hotel, this site, will be the only one I go to from now on!  Not only did I get a great rate at a booking site, but this hotel is amazing. 
+The room was clean, lots of closet and cabinet space, full-size fridge, my room had just the 2 burner cook-top, dishwasher, all the kitchen needs - down to a wine bottle opener!  Upon checkin, not only was there delicious chocolate chip cookies, but there was a free coffee bar with flavored creamers and additional syrups.  But wait!  There was also a cocoa bar!  Yes, Cocoa mixins - I mean marshmallows, chocolate chips (white and choc actually) and a  chocolate stir - just die by chocolate!  
+The pool was warm, could not hold too many rambunctious kids (it's rectangular shape), has a disable lift chair, jacuzzi is hot, big towels provided, bathroom just outside pool area, a BBQ area and patio adjacent to pool.  My only complaint is that that the jacuzzi bubbles so much when you sit down that your head gets completely wet.
+Breakfast is amazing, really.  We stayed two nights so we had 2  breakfasts which they change up a little each morning (bacon...I live one hour south of Denver and when I come to Denver, I stay over-night because we shop til we drop!  I have stayed at many hotels around the area, never a Residence Inn - I have missed so much and this hotel, this site, will be the only one I go to from now on!  Not only did I get a great rate at a booking site, but this hotel is amazing. The room was clean, lots of closet and cabinet space, full-size fridge, my room had just the 2 burner cook-top, dishwasher, all the kitchen needs - down to a wine bottle opener!  Upon checkin, not only was there delicious chocolate chip cookies, but there was a free coffee bar with flavored creamers and additional syrups.  But wait!  There was also a cocoa bar!  Yes, Cocoa mixins - I mean marshmallows, chocolate chips (white and choc actually) and a  chocolate stir - just die by chocolate!  The pool was warm, could not hold too many rambunctious kids (it's rectangular shape), has a disable lift chair, jacuzzi is hot, big towels provided, bathroom just outside pool area, a BBQ area and patio adjacent to pool.  My only complaint is that that the jacuzzi bubbles so much when you sit down that your head gets completely wet.Breakfast is amazing, really.  We stayed two nights so we had 2  breakfasts which they change up a little each morning (bacon or sausage), scramble eggs (no omelet making, so what), waffle maker and lots of fixins to go into your waffle!  yogurts, juices, coffee and flavorings, oatmeal, man oh man, just the best.  The only complaint in this area is that the breakfast host is SO busy keeping the food bar full that trash was totally falling on the floor outside the bin.  Both mornings this was a problem.  The manager needs to keep a watch on this and help the hostess out, come on!  I do not want to see breakfast trash all over after such a great meal.The fireplace in the lobby seams to be running all the time, nice effect even if you really cannot feel it unless you sit right by it and there is no room to sit. The sitting area with large flat screen TV is nice although it is right IN the breakfast area.  The computer area is my one area of complaint, even though I am glad they have it.  It is free printing, it will kick you off if you are on there too long (just sign on again), internet (even in room) is fast enough.  My complaint is that the computers are IN a hall area going to the pool - no privacy and noise of the area if you need to concentrate!  No privacy for any business work.  The only nice thing about this set-up is that you will not have to sit next to someone looking at pornography!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r461862216-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -537,9 +827,6 @@
     <t>Amazing little apartment , great service and great staff.. couldn't be happier. My home away from home. Stayed here for almost 20 days. Loved it!  Good sixe of rooms , good bathrooms and a lovely living lounge and kitchen with all crockery and cutlery , micro and oven, fridge. MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded February 23, 2017</t>
   </si>
   <si>
@@ -597,6 +884,45 @@
     <t>The structure looks great from the outside but the floor plan is strange.  You have to go down the hall to the right of the desk, then turn left and then right and then right again to get to the elevator. It was like a maze.  In the hall behind the desk (2nd hall you go down), both days, they had a big cart full of the smelly, collected garbage bags.  Granted, it was on 12/31 and 1/1 that we were there and so there was probably a lack of staff.  But it seemed odd that the bin was placed where every guest had to pass by it coming and going.  Also, there was no room attention on 1/1 which I guess was understandable with the holiday.  Breakfast was very good both days.  The room was clean.  Besides the trash, the other problem was someone who shared the venting in our bathroom was smoking.  We had to turn on the fan to get rid of the smell.  It was both nights.  I assume because of short staff, the desk wasn't able to investigate it.  It's hard to get to as well.  The easiest is to come from the south and get off at County Line Road and turn in where you would catch light rail.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r448161688-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>448161688</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Great breakfast and location</t>
+  </si>
+  <si>
+    <t>The hotel's location is within easy walking distance of Parkmeadows mall via an overpass.  The breakfast bar offers fresh fruit and hot food (oatmeal, scrambled eggs) which was all immaculately presented. The excercise room is small but with new equipment.  We had a suite with two bedrooms which was smaller than other places we have stayed. The rooms were clean and front desk staff always helpful.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r420521975-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>420521975</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>So good, we returned 3 years later</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 3 years ago on a trip with my mother and sister. When we decided to do another trip this year, Residence Inn Park Meadows was the first hotel we booked. The rooms are spacious, clean and comfortable. It is situated near a train station and the wonderful Park Meadows shopping mall, but is very quiet so we could sleep well after a big day of shopping and sightseeing.  This hotel is perfect as a home away from home, with an inviting eating and social  area. For us, the absolute highlight was the free breakfast included each morning, prepared by a lovely lady named Janice. The food was always fresh, well cooked and with a large variety, served with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 3 years ago on a trip with my mother and sister. When we decided to do another trip this year, Residence Inn Park Meadows was the first hotel we booked. The rooms are spacious, clean and comfortable. It is situated near a train station and the wonderful Park Meadows shopping mall, but is very quiet so we could sleep well after a big day of shopping and sightseeing.  This hotel is perfect as a home away from home, with an inviting eating and social  area. For us, the absolute highlight was the free breakfast included each morning, prepared by a lovely lady named Janice. The food was always fresh, well cooked and with a large variety, served with a smile.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r412729375-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -612,9 +938,6 @@
     <t>I travel with work with long term assignments away. This location met all my needs. I did call in advance because I have allergies to dogs and dust plus many other things and requested a room either not used for pets or one that was recently deep cleaned and they accommodated my needs. I had a one bedroom suite so that is nice to be able to close the door to the other part of the room and have more quiet. There was some road noise but I travel with white noise to help drown that out.The breakfast was good and has just recently been upgraded to have more options. I wish they would have "real" food each evening but they only had grilled options on Tuesday. Many of the long term stay hotels are getting away from this but it would be nice if they would go back and I have been to a competitor recently who serves food 4 nights a week and it was awesome especially for those of us working long days and barely make it back to the room for food.  Cooking is not fun late.Overall it was a good stay and that is my only recommendation.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>I travel with work with long term assignments away. This location met all my needs. I did call in advance because I have allergies to dogs and dust plus many other things and requested a room either not used for pets or one that was recently deep cleaned and they accommodated my needs. I had a one bedroom suite so that is nice to be able to close the door to the other part of the room and have more quiet. There was some road noise but I travel with white noise to help drown that out.The breakfast was good and has just recently been upgraded to have more options. I wish they would have "real" food each evening but they only had grilled options on Tuesday. Many of the long term stay hotels are getting away from this but it would be nice if they would go back and I have been to a competitor recently who serves food 4 nights a week and it was awesome especially for those of us working long days and barely make it back to the room for food.  Cooking is not fun late.Overall it was a good stay and that is my only recommendation.More</t>
   </si>
   <si>
@@ -655,6 +978,48 @@
   </si>
   <si>
     <t xml:space="preserve">Spacious and clean suites with kitchens . Bed very comfortable and room was very clean . Felt instantly relaxed . Staff was very friendly and welcoming . They offer an evening reception Monday through Wednesday with free drinks and food . Breakfast very good , everything you would want . Definitely will be back ! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r398258065-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>398258065</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We are Marriott members, but that does not mean we do not shop around and use others; however, it occurred to me and I commented to my husband that with Marriott, I almost never have to worry about the quality. It is usually and consistently right. We stayed at this property and it was low stress-in and out, comfortable, adjacent to great shopping &amp; dinning. Almost anything one would want or need shopping wise (Ikea is within a mile) is at ones fingertips. Pet friendly! Plenty of green space for pooch!!! Great job for a busy weekend-no the breakfast is not a 10. It has essentials and I always go for the bad bagel! Still, it is nice to not worry about whether you are wasting your money. It is nice to know what you will consistently get from Marriott. When you travel as much as I do, adventure is not always welcome and consistency is very welcome. When respite is needed, a home away from home-we usually end up with Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are Marriott members, but that does not mean we do not shop around and use others; however, it occurred to me and I commented to my husband that with Marriott, I almost never have to worry about the quality. It is usually and consistently right. We stayed at this property and it was low stress-in and out, comfortable, adjacent to great shopping &amp; dinning. Almost anything one would want or need shopping wise (Ikea is within a mile) is at ones fingertips. Pet friendly! Plenty of green space for pooch!!! Great job for a busy weekend-no the breakfast is not a 10. It has essentials and I always go for the bad bagel! Still, it is nice to not worry about whether you are wasting your money. It is nice to know what you will consistently get from Marriott. When you travel as much as I do, adventure is not always welcome and consistency is very welcome. When respite is needed, a home away from home-we usually end up with Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r393531767-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>393531767</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Beware Pet Fee - Room Won't Be Clean In Spite of</t>
+  </si>
+  <si>
+    <t>I travel with a 15 pound white Jack Russell and expect to pay a pet fee at hotels. However, $100 for one night is exorbitant, especially since the room wasn't particularly clean. A large stain on the couch was off-putting. The carpet was dirty looking and had a musty smell. (An email from manager Tara Cates stated: "... we do an extensive cleaning process after each pet leaves so the next guest is comfortable." Really?) The room should have been pristine. I stayed at Marriotts in Lincoln and Albuquerque, pet fees $25 and $20. Rooms were cleaner! According to Ms Cates, this is the standard fee for the Denver area. My thought? Avoid Denver stops in the future and never stay at a Denver Marriott again.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>I travel with a 15 pound white Jack Russell and expect to pay a pet fee at hotels. However, $100 for one night is exorbitant, especially since the room wasn't particularly clean. A large stain on the couch was off-putting. The carpet was dirty looking and had a musty smell. (An email from manager Tara Cates stated: "... we do an extensive cleaning process after each pet leaves so the next guest is comfortable." Really?) The room should have been pristine. I stayed at Marriotts in Lincoln and Albuquerque, pet fees $25 and $20. Rooms were cleaner! According to Ms Cates, this is the standard fee for the Denver area. My thought? Avoid Denver stops in the future and never stay at a Denver Marriott again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r386136945-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
@@ -733,6 +1098,48 @@
 I spoke with the general manager.  We stood together on a dirty outdoor porch littered with cigarette butts and other rubbish -- and she explained that she was dealing with issues concerning a lack of funding for capital improvements.  Fine -- but there were also...We're on a road trip from Vermont to California -- with our two dogs and my sister-in-law.  All of us are experienced travelers -- and we particularly like Residence Inns because of their dog-friendly policy and because they are usually clean and feel like a home away from home.We booked this hotel via the Marriott iPhone app.  There are many Residence Inns in the Denver area, and we selected this one because it's just off the highway.Goodness gracious -- what a disappointment.This hotel is way, way past it's "sell by" date -- and the lack of cleanliness was appalling.  Although we have dogs our room was on the second floor, and at the very, very end of the hallway.  It smelled musty, the kitchen floor and tables were all sticky, and the furniture was battered and bashed.  The couch and chair were frayed and there was a large, blue, sticky stain on the couch seat cushion.If we weren't tired from our drive from Rapid City, we'd have checked out and gone elsewhere.  If I were the Marriott executive responsible for the oversight of this property, I'd start looking for another job.I spoke with the general manager.  We stood together on a dirty outdoor porch littered with cigarette butts and other rubbish -- and she explained that she was dealing with issues concerning a lack of funding for capital improvements.  Fine -- but there were also many issues of the place just being ol' fashioned dirty.Not impressive -- and it makes me reluctant to trust the Residence Inn brand again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r362664087-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>362664087</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location with sufficient parking.  We like Residence Inn as it provides a kitchenette which has pots/pans, cups and dishes to meet your cooking needs.  They have a good selection for breakfast and you can’t beat the evening snacks which doubles as free dining if you are not too picky.  Rooms may be a bit on the small side but the value cannot be beat if you are looking for a good place to stay. They have a nice sized, heated indoor pool which we took advantage of.  Nearby to shopping mall, restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location with sufficient parking.  We like Residence Inn as it provides a kitchenette which has pots/pans, cups and dishes to meet your cooking needs.  They have a good selection for breakfast and you can’t beat the evening snacks which doubles as free dining if you are not too picky.  Rooms may be a bit on the small side but the value cannot be beat if you are looking for a good place to stay. They have a nice sized, heated indoor pool which we took advantage of.  Nearby to shopping mall, restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r362663919-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>362663919</t>
+  </si>
+  <si>
+    <t>Great Frontdesk Staff</t>
+  </si>
+  <si>
+    <t>The man at the front desk was very helpful answering my questions about getting a room.  Since it was a Sunday night we were able to get a 2 bedroom suite with fireplace for a very good price.  The room was clean and comfortable, except the trash had not been taken out and the hallways in the hotel could use an update.MoreShow less</t>
+  </si>
+  <si>
+    <t>The man at the front desk was very helpful answering my questions about getting a room.  Since it was a Sunday night we were able to get a 2 bedroom suite with fireplace for a very good price.  The room was clean and comfortable, except the trash had not been taken out and the hallways in the hotel could use an update.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r356082270-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -748,15 +1155,6 @@
     <t>This place is really nice for such a low price!  The rooms are a pretty good size with the separate bedroom.  The full kitchen has everything you need with a really nice fridge, dishwasher and microwave.  And a real coffeepot instead of the typical hotel mini pot or Kerig of which I am not a fan.  The kitchen was stocked with all the basic tools for cooking and eating.The bed was comfortable, the space around the bathroom sink and storage underneath were helpful.  The shower had a nice shower head with good flow.  The whole room was really clean.The staff was truly delightful, always full of smiles and greeting us every time we came and went.  We didn't try the free breakfast buffet but it smelled delicious.  For what we paid I was really surprised how nice everything was.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>RIParkMeadows, Director of Sales at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded April 13, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 13, 2016</t>
-  </si>
-  <si>
     <t>This place is really nice for such a low price!  The rooms are a pretty good size with the separate bedroom.  The full kitchen has everything you need with a really nice fridge, dishwasher and microwave.  And a real coffeepot instead of the typical hotel mini pot or Kerig of which I am not a fan.  The kitchen was stocked with all the basic tools for cooking and eating.The bed was comfortable, the space around the bathroom sink and storage underneath were helpful.  The shower had a nice shower head with good flow.  The whole room was really clean.The staff was truly delightful, always full of smiles and greeting us every time we came and went.  We didn't try the free breakfast buffet but it smelled delicious.  For what we paid I was really surprised how nice everything was.More</t>
   </si>
   <si>
@@ -805,6 +1203,52 @@
     <t>We stayed for 7 nights, in town for some business appointments. The location was convenient and the employees that worked there were friendly and helpful. The rooms are dated though and while the rates are comparable I have stayed many other places before that were updated and for the same price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r340434306-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>340434306</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent Value and Lovely Staff</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel on business for four nights.  I had a great experience and would return.  The staff is all very helpful and creates a warm atmosphere.  The whole place is clean and the rooms are comfortable. The kitchen was well equipped and the package of microwaveable popcorn was a welcome snack!  The breakfast which was included was very good - fresh eggs, sausage or bacon, potatoes, a breakfast burrito, yogurt, fresh fruit, cereals, coffee, tea and juices - all very good and lots of it.  Three of the evenings I was there, the RI held an event in the lobby - also included.  One evening was chicken tacos with wine or beer or cold drinks, another night was burgers and beverages and the third was desserts and beverages.  With the fire in the lobby fireplace, a tv and pleasant tables and sofas, it made a nice change from sitting in my room.  I really found it a nice touch.  And it added to the tremendous value of the stay.  Don't get me wrong - this is not "luxury" but it is a very pleasant place to stay and one to which I would return without hesitation for personal or business travel.
+I have two complaints, but they do not outweigh my overall appreciation of this hotel.  They are just the difference between a 5 star recommendation and the 4 I give it.
+My room was on...I recently stayed at this hotel on business for four nights.  I had a great experience and would return.  The staff is all very helpful and creates a warm atmosphere.  The whole place is clean and the rooms are comfortable. The kitchen was well equipped and the package of microwaveable popcorn was a welcome snack!  The breakfast which was included was very good - fresh eggs, sausage or bacon, potatoes, a breakfast burrito, yogurt, fresh fruit, cereals, coffee, tea and juices - all very good and lots of it.  Three of the evenings I was there, the RI held an event in the lobby - also included.  One evening was chicken tacos with wine or beer or cold drinks, another night was burgers and beverages and the third was desserts and beverages.  With the fire in the lobby fireplace, a tv and pleasant tables and sofas, it made a nice change from sitting in my room.  I really found it a nice touch.  And it added to the tremendous value of the stay.  Don't get me wrong - this is not "luxury" but it is a very pleasant place to stay and one to which I would return without hesitation for personal or business travel.I have two complaints, but they do not outweigh my overall appreciation of this hotel.  They are just the difference between a 5 star recommendation and the 4 I give it.My room was on the highway side of the hotel and thus the traffic noise was pretty constant.  On my next stay, I will ask for a room that faces the other direction.  My bigger concern was the heat.  The heat worked fine in the living/kitchen room, but literally blew cold air (in January!) in the bedroom.  On the morning after my first night, I asked for it to be looked at.  I was told by the front desk staff, and then again by the engineer's message when I returned that night that it is a problem with the heating installation and there was nothing to be done.  The engineer's message did offer to change my room - which to be honest I was too tired to take them up on at 10pm.  So again next time I would ask for a room where the heating worked correctly in both rooms.  But to the hotel I would suggest perhaps getting an HVAC engineer in to actually fix what is clearly a known problem.  In Denver in midwinter, it is not a welcome one.But overall, I would recommend the place highly - the staff and other aspects of the stay outweighed the structural/building deficiencies.  And hopefully i will know next time how to ask for a better room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel on business for four nights.  I had a great experience and would return.  The staff is all very helpful and creates a warm atmosphere.  The whole place is clean and the rooms are comfortable. The kitchen was well equipped and the package of microwaveable popcorn was a welcome snack!  The breakfast which was included was very good - fresh eggs, sausage or bacon, potatoes, a breakfast burrito, yogurt, fresh fruit, cereals, coffee, tea and juices - all very good and lots of it.  Three of the evenings I was there, the RI held an event in the lobby - also included.  One evening was chicken tacos with wine or beer or cold drinks, another night was burgers and beverages and the third was desserts and beverages.  With the fire in the lobby fireplace, a tv and pleasant tables and sofas, it made a nice change from sitting in my room.  I really found it a nice touch.  And it added to the tremendous value of the stay.  Don't get me wrong - this is not "luxury" but it is a very pleasant place to stay and one to which I would return without hesitation for personal or business travel.
+I have two complaints, but they do not outweigh my overall appreciation of this hotel.  They are just the difference between a 5 star recommendation and the 4 I give it.
+My room was on...I recently stayed at this hotel on business for four nights.  I had a great experience and would return.  The staff is all very helpful and creates a warm atmosphere.  The whole place is clean and the rooms are comfortable. The kitchen was well equipped and the package of microwaveable popcorn was a welcome snack!  The breakfast which was included was very good - fresh eggs, sausage or bacon, potatoes, a breakfast burrito, yogurt, fresh fruit, cereals, coffee, tea and juices - all very good and lots of it.  Three of the evenings I was there, the RI held an event in the lobby - also included.  One evening was chicken tacos with wine or beer or cold drinks, another night was burgers and beverages and the third was desserts and beverages.  With the fire in the lobby fireplace, a tv and pleasant tables and sofas, it made a nice change from sitting in my room.  I really found it a nice touch.  And it added to the tremendous value of the stay.  Don't get me wrong - this is not "luxury" but it is a very pleasant place to stay and one to which I would return without hesitation for personal or business travel.I have two complaints, but they do not outweigh my overall appreciation of this hotel.  They are just the difference between a 5 star recommendation and the 4 I give it.My room was on the highway side of the hotel and thus the traffic noise was pretty constant.  On my next stay, I will ask for a room that faces the other direction.  My bigger concern was the heat.  The heat worked fine in the living/kitchen room, but literally blew cold air (in January!) in the bedroom.  On the morning after my first night, I asked for it to be looked at.  I was told by the front desk staff, and then again by the engineer's message when I returned that night that it is a problem with the heating installation and there was nothing to be done.  The engineer's message did offer to change my room - which to be honest I was too tired to take them up on at 10pm.  So again next time I would ask for a room where the heating worked correctly in both rooms.  But to the hotel I would suggest perhaps getting an HVAC engineer in to actually fix what is clearly a known problem.  In Denver in midwinter, it is not a welcome one.But overall, I would recommend the place highly - the staff and other aspects of the stay outweighed the structural/building deficiencies.  And hopefully i will know next time how to ask for a better room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r335996851-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>335996851</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>I booked this hotel for Christmas Eve.  The hotel is located very close to I-25 and C-470.  As well, the light rail is located close as you will just need to cross the pedestrian bridge to the other side of I-25.  Plenty of restaurants and shopping are nearby as the Park Meadows Mall is on the other side of the interstate.  The hotel is in good condition and the staff is very helpful.  The hotel has a free breakfast in the morning as well.  It has some good options, and isn't just the bare bones continental breakfast I have had at other hotels.   I booked the 2 bedroom suite and was it ever the right decision.  I had a queen bed in each room and each room had its own full bath.  The kitchenette worked well as we stored baked goods on the counter and the things that needed to stay cool went into the fridge.  The seating area had a fireplace, a couch, and a couple of chairs.  This worked perfectly as I could sit my parents and chat, but when I needed to be away I had my own room and bath.  It worked out great and it was only about $25 more that night than a regular one room setup.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel for Christmas Eve.  The hotel is located very close to I-25 and C-470.  As well, the light rail is located close as you will just need to cross the pedestrian bridge to the other side of I-25.  Plenty of restaurants and shopping are nearby as the Park Meadows Mall is on the other side of the interstate.  The hotel is in good condition and the staff is very helpful.  The hotel has a free breakfast in the morning as well.  It has some good options, and isn't just the bare bones continental breakfast I have had at other hotels.   I booked the 2 bedroom suite and was it ever the right decision.  I had a queen bed in each room and each room had its own full bath.  The kitchenette worked well as we stored baked goods on the counter and the things that needed to stay cool went into the fridge.  The seating area had a fireplace, a couch, and a couple of chairs.  This worked perfectly as I could sit my parents and chat, but when I needed to be away I had my own room and bath.  It worked out great and it was only about $25 more that night than a regular one room setup.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r320240769-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -871,6 +1315,51 @@
     <t>I walked into an outdated room. The fridge was making noise as if it was taking off to the moon. I did not even use the toilet and it was not flushing. I was handed an plunger since it was around 12 midnight when i checked in. The noise on the first floor was loud in the am as there was construction outside. There was not signs saying for the contraction.  Breakfast OK. There was no separate sitting space in the lobby while you wait for someone. Overall, the location is nice but this hotel needs some updates.During check in, the person was trying very hard to put me on high floor but could not because of some system issue. I have requested a high floor when i made reservation. They said they will try.I did like the free breakfast overall, good coffee. Free parking was a plus.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r308190766-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>308190766</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Suburbia with Average Room and the Smell of Cannabis</t>
+  </si>
+  <si>
+    <t>We had room 113 (2 bedroom, 2 bathroom suite) for four nights. The size of the room was great as was having too bathrooms. It was close to the shuttle stops we needed as we were in town for a wedding. Breakfast was a bit above average too. That's where the good stuff ended.The furniture was beat up aside from a fairly comfy bed. The couch was badly stained although the pullout seemed clean. The outdated, coil top stove was actually pulling away from the top of the oven. The worst part of the room was the Smell of marijuana every time the bathroom exhaust fan was turned on. Obviously it was in the vent system somewhere as we were on the first floor. The front seat offered to move us but there was no guarantee of no Smell so we just opened windows and kept the room very cold (61/62) to help with the stench. All in all, the size was really great as was having the second bathroom for the four of us. I wouldn't stay here again because I don't care for the uber suburban location (only stayed here because of the wedding) nor for the shabby room. We are Marriott Gold and I was very disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>We had room 113 (2 bedroom, 2 bathroom suite) for four nights. The size of the room was great as was having too bathrooms. It was close to the shuttle stops we needed as we were in town for a wedding. Breakfast was a bit above average too. That's where the good stuff ended.The furniture was beat up aside from a fairly comfy bed. The couch was badly stained although the pullout seemed clean. The outdated, coil top stove was actually pulling away from the top of the oven. The worst part of the room was the Smell of marijuana every time the bathroom exhaust fan was turned on. Obviously it was in the vent system somewhere as we were on the first floor. The front seat offered to move us but there was no guarantee of no Smell so we just opened windows and kept the room very cold (61/62) to help with the stench. All in all, the size was really great as was having the second bathroom for the four of us. I wouldn't stay here again because I don't care for the uber suburban location (only stayed here because of the wedding) nor for the shabby room. We are Marriott Gold and I was very disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r305980809-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>305980809</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Great location for light rail access and Fiddler's Green concert</t>
+  </si>
+  <si>
+    <t>Nice hotel with a kitchenette in your room and a pull out couch If there is more then one person in your party since the bed in the bedroom is small-a double I believe. I didn't use the kitchen, but it was nice to know it is there. The light rail station is across the parking lot and I used it before and after a concert two nights and it was safe and well lit.  The light rail is the Lincoln line E or F and takes you downtown.  There were a lot of Broncos and onboard on my way to and from the concerts at Fiddler's Green Amphitheatre.  I think my round trip was $4.50 both nights and it was two stops away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel with a kitchenette in your room and a pull out couch If there is more then one person in your party since the bed in the bedroom is small-a double I believe. I didn't use the kitchen, but it was nice to know it is there. The light rail station is across the parking lot and I used it before and after a concert two nights and it was safe and well lit.  The light rail is the Lincoln line E or F and takes you downtown.  There were a lot of Broncos and onboard on my way to and from the concerts at Fiddler's Green Amphitheatre.  I think my round trip was $4.50 both nights and it was two stops away.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r304961080-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -886,9 +1375,6 @@
     <t>I am so pleased with the Residence Inn Denver South.  It is located very near C470 and I 25. Very nice property. Modern yet very kid friendly. Pool, hot tub, great rooms but best of all.....free Full hot breakfast buffet. And pricing is reasonable.  Staff is very attentive and polite. MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>I am so pleased with the Residence Inn Denver South.  It is located very near C470 and I 25. Very nice property. Modern yet very kid friendly. Pool, hot tub, great rooms but best of all.....free Full hot breakfast buffet. And pricing is reasonable.  Staff is very attentive and polite. More</t>
   </si>
   <si>
@@ -931,6 +1417,42 @@
     <t>The staff at this hotel is top notch! All of the staff was very friendly and helpful. Even the cleaning staff would hit the elevator button for you if they saw you coming down the hall. This hotel is very clean. Nice indoor pool and hot tub. The free breakfast at this hotel was the best! Every morning there was a great selection and the food was really good! Loved the ready made breakfast sandwiches! This hotel also hosts an evening reception a few nights a week, which was great. The hotel is located by the Park Meadows Shopping mall. There is a walking bridge to go from the hotel over to the mall that crosses the highway. Also located on the other side of the walking bridge is the Light Rail station. This was extremely convenient. A great way to travel to the Downtown Denver area. Highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r282631980-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>282631980</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>The staff takes exceptional care of my family and I</t>
+  </si>
+  <si>
+    <t>My wife, son, dog and myself are staying at the Park Meadows Residence inn while we are waiting to close on our new home.  The staff takes very good care of us.  The 3 people I interface with are Mike Wellinton, DyAna Galvan, and Mariana.  They care exceptional care of us.  I would recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife, son, dog and myself are staying at the Park Meadows Residence inn while we are waiting to close on our new home.  The staff takes very good care of us.  The 3 people I interface with are Mike Wellinton, DyAna Galvan, and Mariana.  They care exceptional care of us.  I would recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r280262400-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>280262400</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>A Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Our family spent the weekend here and enjoyed it very much. The rooms were clean and spacious. Breakfast menu was changed up a little each morning. Chocolate chip cookies in the afternoon was a nice touch as well. This would be a hotel to come back when we are in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family spent the weekend here and enjoyed it very much. The rooms were clean and spacious. Breakfast menu was changed up a little each morning. Chocolate chip cookies in the afternoon was a nice touch as well. This would be a hotel to come back when we are in town.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r267809851-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -982,9 +1504,6 @@
     <t>12/18/2014</t>
   </si>
   <si>
-    <t>Good Location</t>
-  </si>
-  <si>
     <t>Nice hotel and the staff is helpful and friendly. The room was very clean, quite and comfortable. The breakfast was good. The evening socials food was not very impressive, one night was hot dogs and the second was BBQ pork. Thursday and Friday nothing at all, which was disappointing in . The good thing is there are a ton of restaurants in the area.MoreShow less</t>
   </si>
   <si>
@@ -997,6 +1516,39 @@
     <t>Nice hotel and the staff is helpful and friendly. The room was very clean, quite and comfortable. The breakfast was good. The evening socials food was not very impressive, one night was hot dogs and the second was BBQ pork. Thursday and Friday nothing at all, which was disappointing in . The good thing is there are a ton of restaurants in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r231830578-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>231830578</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Stayed here in the past.  Will stay here again.</t>
+  </si>
+  <si>
+    <t>What do we want from a hotel?  First is cleanliness.  Our room was spotless.  Second is a comfortable bed.  We both thought the bed was excellent.  Third is a great shower.  This room had a wonderful shower.  Couple this with a friendly, helpful staff, a great breakfast and a great location, and you have pretty much all you can ask for in a hotel.  If we're picking nits, the toilet tissue was so thin you could almost read through it.  Somehow we managed.  The best thing we can say is we will definitely stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r227000132-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>227000132</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>We will definitely stay again</t>
+  </si>
+  <si>
+    <t>Handy location to area attractions (attended concert at Fiddlers Green, quick walk), friendly staff, good breakfast, nice room, lots of room, and clean. Can't ask for much more! Thanks for a great weekend!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r219367963-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1057,6 +1609,42 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r210352908-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>210352908</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Safe and clean location</t>
+  </si>
+  <si>
+    <t>We stayed here June 5th-7th 2014. It was very clean. We stayed on the 4th floor and it faced the outside parking lot in the back. This side actually faces the freeway and trolley bridge. It was slightly noisy. We asked for another room but they were all sold out. Our room was very nice and clean. The staff is very nice and breakfast was actually not too bad. We used to live in Denver and this location to me is safe. The Marriot Courtyard which is next to this location is very close to the freeway and most likely you would hear the cars there from the freeway even more than this property The price was reasonable compared to some of the other hotels in the area during the days that we stayed. and it was a good value. The only thing that was slightly annoying was the traffic noise mainly in the morning. Ask for a inside facing room if you stay at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed here June 5th-7th 2014. It was very clean. We stayed on the 4th floor and it faced the outside parking lot in the back. This side actually faces the freeway and trolley bridge. It was slightly noisy. We asked for another room but they were all sold out. Our room was very nice and clean. The staff is very nice and breakfast was actually not too bad. We used to live in Denver and this location to me is safe. The Marriot Courtyard which is next to this location is very close to the freeway and most likely you would hear the cars there from the freeway even more than this property The price was reasonable compared to some of the other hotels in the area during the days that we stayed. and it was a good value. The only thing that was slightly annoying was the traffic noise mainly in the morning. Ask for a inside facing room if you stay at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r207382215-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>207382215</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Superb Staff and Very Clean</t>
+  </si>
+  <si>
+    <t>Stayed here 10 days due to construction at my normal residence. Although the accommodations are fairly basic, so is the price and the rooms are well equipped for an extended stay. The stand-out feature was the staff. We had a variety of requests during our time, such replacing one of the phone cords which our cat chewed through, and the staff was always very cheerful and pleasant every single time. That is a rare quality of a mid-level chain hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r201823910-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1136,6 +1724,60 @@
   </si>
   <si>
     <t>Stayed with wife and 4 children in the 2 bedroom suite.  Layout is the same as all Residence Inns that we have stayed at, and thus the reason we keep going back. Lots of room in the suite for a reasonable price, and free microwave popcorn.  Facilities were clean and well kept.  Staff was very friendly and helpful. It is close to Park Meadows but a little away from the hubbub being on the east of I-25.  That being said there is some freeway noise audible from the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r188385679-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>188385679</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>Second home</t>
+  </si>
+  <si>
+    <t>Very nice place. I usually stay here due to business and really like the place. The staff is pretty good and helpful. The rooms are great and are very clean. The cleaning staff does they work very nicely daily. The location is superb with County line Light rail and Park meadows mall at a walking distance. If you get a room which faces towards mountains then you are in luck. Every morning is a beautiful scenic one.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded December 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2013</t>
+  </si>
+  <si>
+    <t>Very nice place. I usually stay here due to business and really like the place. The staff is pretty good and helpful. The rooms are great and are very clean. The cleaning staff does they work very nicely daily. The location is superb with County line Light rail and Park meadows mall at a walking distance. If you get a room which faces towards mountains then you are in luck. Every morning is a beautiful scenic one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r186748641-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>186748641</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Quiet, clean, very nice staff</t>
+  </si>
+  <si>
+    <t>Quiet, clean, recommend for a few days+. Staff was very nice, had to cut stay short and they were very cooperative. My wife forgot her iPad when we checked out, she panicked, I went to get my phone to call the hotel and already had four missed calls from the hotel. Staff had left voicemails indicating that they found her iPad while cleaning up the room. We had it the next day. Honesty is worth a lot, thank you, I will recommend your hotel to family and friends!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded December 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2013</t>
+  </si>
+  <si>
+    <t>Quiet, clean, recommend for a few days+. Staff was very nice, had to cut stay short and they were very cooperative. My wife forgot her iPad when we checked out, she panicked, I went to get my phone to call the hotel and already had four missed calls from the hotel. Staff had left voicemails indicating that they found her iPad while cleaning up the room. We had it the next day. Honesty is worth a lot, thank you, I will recommend your hotel to family and friends!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r185493566-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
@@ -1206,6 +1848,54 @@
 The furniture was old and uncomfortable, the staff less than accommodating and the shuttle only ran during the week, only during business hours. They would not pick up or drive to the airport. On one occasion, we made arrangements for the driver to take us to the airport at a specified time for a generous prepaid gratuity and at the appointed time, he was nowhere to be found.  A private driver had to be called to take us at a $90 charge.  The "free" cocktail hour and light dinner" was a joke.  They put out a six pack of beer at a time and the food was disgusting. I reported bugs in the dresser drawers and was told it was summer and that couldn't be helped.  The ceiling in a neighboring guest's room's bathroom collapsed and a rat was spotted scurrying around outside.  The front desk was not very helpful when we asked for suggestions about happy hours, restaurants and close shopping.  I suspect certain businesses are being referred when they are not the closest or the best.  We discovered a wonderful steakhouse across the street that offered a classy atmosphere, amazing value on food and drinks on the very last night of our stay.  When we asked, the...I have stayed at several other Residence Inn's and have always been satisfied and sometimes even pleasantly surprised. i stayed here for a month over the summer and was sadly disappointed.The furniture was old and uncomfortable, the staff less than accommodating and the shuttle only ran during the week, only during business hours. They would not pick up or drive to the airport. On one occasion, we made arrangements for the driver to take us to the airport at a specified time for a generous prepaid gratuity and at the appointed time, he was nowhere to be found.  A private driver had to be called to take us at a $90 charge.  The "free" cocktail hour and light dinner" was a joke.  They put out a six pack of beer at a time and the food was disgusting. I reported bugs in the dresser drawers and was told it was summer and that couldn't be helped.  The ceiling in a neighboring guest's room's bathroom collapsed and a rat was spotted scurrying around outside.  The front desk was not very helpful when we asked for suggestions about happy hours, restaurants and close shopping.  I suspect certain businesses are being referred when they are not the closest or the best.  We discovered a wonderful steakhouse across the street that offered a classy atmosphere, amazing value on food and drinks on the very last night of our stay.  When we asked, the front desk had advised us to go to an establishment that could only be described as a trashy hooters and was half a mile away.  The area was nice- this location was not a positive experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r179249465-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>179249465</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Don't let the rating steer you away if you don't mind the cleanliness</t>
+  </si>
+  <si>
+    <t>Our stay was wonderful!  Close to a large mall, 20 min to the Botanical Garden, 30 min from the airport.  Many restaurants in the mall complex.  Nice big rooms, low cost, nice grounds, BBQ on a very nice patio with tables and a fire pit.  Not very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Our stay was wonderful!  Close to a large mall, 20 min to the Botanical Garden, 30 min from the airport.  Many restaurants in the mall complex.  Nice big rooms, low cost, nice grounds, BBQ on a very nice patio with tables and a fire pit.  Not very clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r173805422-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173805422</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Nice but needs an update</t>
+  </si>
+  <si>
+    <t>I spent a week at this hotel for the 2013 Solheim Cup golf tournament.  The suite space was nice but the furniture is old, scratched and way outdated.  It looks like they haven't upgraded the furniture in 10 years or more.  The couch was stained......the dressers and end tables were scratched.......the drawers were difficult to open.  It seems too bad because the location and suite size was nice.  This hotel was one of the travel package hotels for the Solheim Cup tournament and yet they were not able to get the golf tournament on the TV in the lobby.  This was just purely WRONG!!!!  The front desk staff didn't seem to care that people had traveled long distances and, after a long day walking a brutal golf course, simply wanted to watch the tournament on TV in the lobby in the late afternoon.  A total disappointment for a host hotel.  I travel a lot with the LPGA and will avoid Marriott hotels in the future because the staff doesn't seem to care about customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>I spent a week at this hotel for the 2013 Solheim Cup golf tournament.  The suite space was nice but the furniture is old, scratched and way outdated.  It looks like they haven't upgraded the furniture in 10 years or more.  The couch was stained......the dressers and end tables were scratched.......the drawers were difficult to open.  It seems too bad because the location and suite size was nice.  This hotel was one of the travel package hotels for the Solheim Cup tournament and yet they were not able to get the golf tournament on the TV in the lobby.  This was just purely WRONG!!!!  The front desk staff didn't seem to care that people had traveled long distances and, after a long day walking a brutal golf course, simply wanted to watch the tournament on TV in the lobby in the late afternoon.  A total disappointment for a host hotel.  I travel a lot with the LPGA and will avoid Marriott hotels in the future because the staff doesn't seem to care about customer service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r171028897-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1224,12 +1914,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded September 3, 2013</t>
-  </si>
-  <si>
-    <t>Responded September 3, 2013</t>
-  </si>
-  <si>
     <t>I have stayed at 9 Residence Inns in 5 different states.  We were in Colorado for a memorial service for a family member, so we did not care about the shopping nearby and had reserved a 2 bedroom suite, as we wanted space for family to visit us while we were in town.  We requested a low floor pet allowed suite.  We arrived at 2:52pm, 8 minutes before check in.  We were scheduled to be in room 313, which at least is near the single elevator for the building.  Since that room was not quite ready we were switched to room 427,  which is 2nd farthest from the elevator.  The check-in clerk was doing her best to get us into a suite right away.  If I had known the building better I would have waited for 313.  This is a 4 story hotel with 30 rooms per floor and only 1 elevator.  Also there are only 2 luggage carts available for 120 rooms.  Parking lot was being repaved in one area, so vehicle parking spaces were at a premium.  As previously reviewed, the breakfast seating area is very small and can get crowded easily.  Every staff member we encountered was very friendly and welcoming.  Our suite was clean, well furnished.  Beds, couch and chair in living area were comfortable, just what you want in an extended stay type hotel.  Pros for this hotel: staff, clean well equipped suites, close to...I have stayed at 9 Residence Inns in 5 different states.  We were in Colorado for a memorial service for a family member, so we did not care about the shopping nearby and had reserved a 2 bedroom suite, as we wanted space for family to visit us while we were in town.  We requested a low floor pet allowed suite.  We arrived at 2:52pm, 8 minutes before check in.  We were scheduled to be in room 313, which at least is near the single elevator for the building.  Since that room was not quite ready we were switched to room 427,  which is 2nd farthest from the elevator.  The check-in clerk was doing her best to get us into a suite right away.  If I had known the building better I would have waited for 313.  This is a 4 story hotel with 30 rooms per floor and only 1 elevator.  Also there are only 2 luggage carts available for 120 rooms.  Parking lot was being repaved in one area, so vehicle parking spaces were at a premium.  As previously reviewed, the breakfast seating area is very small and can get crowded easily.  Every staff member we encountered was very friendly and welcoming.  Our suite was clean, well furnished.  Beds, couch and chair in living area were comfortable, just what you want in an extended stay type hotel.  Pros for this hotel: staff, clean well equipped suites, close to highways.  Cons for this hotel:  single busy elevator, minimal luggage carts, costMore</t>
   </si>
   <si>
@@ -1251,9 +1935,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>RIParkMeadows, General Manager at Residence Inn Denver South/Park Meadows Mall, responded to this reviewResponded June 25, 2013</t>
   </si>
   <si>
@@ -1281,6 +1962,52 @@
     <t>I booked two rooms here.  The studio and the 1 BR Queen.  They both had one queen and a pullout sofa to sleep on.  Both are adequate for 4 people, but too crowded for 5 people, unless you have little people who actually think its fun to sleep on the floor in a hotel room. They are both about the same size.  The studio feels bigger because there are no walls separating the place into two rooms.  The 1 BR offers more privacy, where you can close the bedroom door.  Of course that closes off the bathroom to those in the living room.  One other difference: the studio had an oven, stovetop, microwave and a full size fridge. The 1 BR had all of the aforementioned, except a stove.  What I like about this place is we can walk over the pedestrian bridge to Park Meadows faster than we can drive over there, park and walk in.  The pedestrian bridge is just north of the hotel and goes to the Light Rail system.  It also puts you in the parking lot of Nordstroms at Park Meadows.  We used the Light Rail system to go Downtown, the 16th Street Mall, &amp; The Downtown Aquarium.  You can also get to Elitch Gardens, The Pepsi Center, Broncos Stadium and many other shopping and entertainment areas of Denver.  It was much better than fighting the traffic, hunting and paying for a parking place, etc....I booked two rooms here.  The studio and the 1 BR Queen.  They both had one queen and a pullout sofa to sleep on.  Both are adequate for 4 people, but too crowded for 5 people, unless you have little people who actually think its fun to sleep on the floor in a hotel room. They are both about the same size.  The studio feels bigger because there are no walls separating the place into two rooms.  The 1 BR offers more privacy, where you can close the bedroom door.  Of course that closes off the bathroom to those in the living room.  One other difference: the studio had an oven, stovetop, microwave and a full size fridge. The 1 BR had all of the aforementioned, except a stove.  What I like about this place is we can walk over the pedestrian bridge to Park Meadows faster than we can drive over there, park and walk in.  The pedestrian bridge is just north of the hotel and goes to the Light Rail system.  It also puts you in the parking lot of Nordstroms at Park Meadows.  We used the Light Rail system to go Downtown, the 16th Street Mall, &amp; The Downtown Aquarium.  You can also get to Elitch Gardens, The Pepsi Center, Broncos Stadium and many other shopping and entertainment areas of Denver.  It was much better than fighting the traffic, hunting and paying for a parking place, etc.  Plus if some in our group wanted to go back to the hotel earlier than the rest of us, they could just hop on the train and get "home" while the rest of us enjoyed the entertainment and sights of Denver.Now this is not a 4 or 5 star hotel, so it is not posh.  But it is very nice, clean, and a very reasonable rate (&lt;$100/night) for the area and what it offers.  The hot breakfast was decent.  That is really nice when you have to fight to get your lazy sleepyhead teens up in the morning to eat. My wife and I, with our younger ones (you know the ones who get up at 6:30 am EVERY day) can go eat, let the teens sleep in and then the teens can get up at their leisure and go get breakfast on their own.Hope this helps some you!  Happy Travels!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r159353106-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>159353106</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>My 6 month stay</t>
+  </si>
+  <si>
+    <t>This Residence Inn has been my home Monday through Thursday for the last six months.  They have also been my support and guide to Denver, CO for that period.  The facility is within 2 miles from where I have worked and a ten minute walk to the Park Meadows Mall front door where there are most of the stores you would expect to find in any mall.  That is surrounded by Costco, Old Navy, Nordstrom Rack, and numerous restaurants, stores, and many other places to provide for your consumer needs.
+The Residence Inn has been my first 'residence' as a consultant and if they are all as great as this, the lodging part of the consultant experience would always be covered.  Every need was provided for in the room, at the front desk, in the facilities (pool, exercise room, etc.).  The personal treatment of the manager and staff was more like family than guest and it showed in the preparation and presentation of the breakfasts, and social events (dinners).
+I had a back issue that forced me into an ambulance ride to the closest hospital from the facility.  The staff at the front desk and elsewhere in the facility came to my aid and made sure that I was taken care of before and after the EMTs came and took me.  I can't say enough good about the folks that run this Residence Inn and if you want an affordable,...This Residence Inn has been my home Monday through Thursday for the last six months.  They have also been my support and guide to Denver, CO for that period.  The facility is within 2 miles from where I have worked and a ten minute walk to the Park Meadows Mall front door where there are most of the stores you would expect to find in any mall.  That is surrounded by Costco, Old Navy, Nordstrom Rack, and numerous restaurants, stores, and many other places to provide for your consumer needs.The Residence Inn has been my first 'residence' as a consultant and if they are all as great as this, the lodging part of the consultant experience would always be covered.  Every need was provided for in the room, at the front desk, in the facilities (pool, exercise room, etc.).  The personal treatment of the manager and staff was more like family than guest and it showed in the preparation and presentation of the breakfasts, and social events (dinners).I had a back issue that forced me into an ambulance ride to the closest hospital from the facility.  The staff at the front desk and elsewhere in the facility came to my aid and made sure that I was taken care of before and after the EMTs came and took me.  I can't say enough good about the folks that run this Residence Inn and if you want an affordable, comfortable, professional, as well as amiable location while you are residing in south Denver, this is the place to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This Residence Inn has been my home Monday through Thursday for the last six months.  They have also been my support and guide to Denver, CO for that period.  The facility is within 2 miles from where I have worked and a ten minute walk to the Park Meadows Mall front door where there are most of the stores you would expect to find in any mall.  That is surrounded by Costco, Old Navy, Nordstrom Rack, and numerous restaurants, stores, and many other places to provide for your consumer needs.
+The Residence Inn has been my first 'residence' as a consultant and if they are all as great as this, the lodging part of the consultant experience would always be covered.  Every need was provided for in the room, at the front desk, in the facilities (pool, exercise room, etc.).  The personal treatment of the manager and staff was more like family than guest and it showed in the preparation and presentation of the breakfasts, and social events (dinners).
+I had a back issue that forced me into an ambulance ride to the closest hospital from the facility.  The staff at the front desk and elsewhere in the facility came to my aid and made sure that I was taken care of before and after the EMTs came and took me.  I can't say enough good about the folks that run this Residence Inn and if you want an affordable,...This Residence Inn has been my home Monday through Thursday for the last six months.  They have also been my support and guide to Denver, CO for that period.  The facility is within 2 miles from where I have worked and a ten minute walk to the Park Meadows Mall front door where there are most of the stores you would expect to find in any mall.  That is surrounded by Costco, Old Navy, Nordstrom Rack, and numerous restaurants, stores, and many other places to provide for your consumer needs.The Residence Inn has been my first 'residence' as a consultant and if they are all as great as this, the lodging part of the consultant experience would always be covered.  Every need was provided for in the room, at the front desk, in the facilities (pool, exercise room, etc.).  The personal treatment of the manager and staff was more like family than guest and it showed in the preparation and presentation of the breakfasts, and social events (dinners).I had a back issue that forced me into an ambulance ride to the closest hospital from the facility.  The staff at the front desk and elsewhere in the facility came to my aid and made sure that I was taken care of before and after the EMTs came and took me.  I can't say enough good about the folks that run this Residence Inn and if you want an affordable, comfortable, professional, as well as amiable location while you are residing in south Denver, this is the place to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r158471454-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>158471454</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Still dependable and nice, but cleaning is not up to par.</t>
+  </si>
+  <si>
+    <t>I stay at this Residence Inn a lot.  Since my last review a couple of years ago, there are a few things to update and a few things unchanged (which is good in this case).  The staff is still super friendly and helpful, very welcoming.  The hotel itself is still generally in good condition, the beds comfortable and the furniture/rooms in good shape.  Breakfast is plentiful!   So, for the most part, I highly recommend staying here while on business in the area.  The only thing that seems to have declined is the overall job they do vacuuming.  I stayed for a week, and the whole time, the hallways needed to be vacuumed.  They have dark carpeting and there is a lot of debris on it, on every floor.  I noticed in my room too that they don't thoroughly vacuum into the corners and along the furniture.  And one day, I found a cleaner's rubber glove left on my bathroom counter - gross!  Another day, the trash can was missing from my room.  So, while its still a dependable Residence Inn that I will stay at again, if they don't do something about the level of effort put into cleaning, it won't be a nice option for much longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stay at this Residence Inn a lot.  Since my last review a couple of years ago, there are a few things to update and a few things unchanged (which is good in this case).  The staff is still super friendly and helpful, very welcoming.  The hotel itself is still generally in good condition, the beds comfortable and the furniture/rooms in good shape.  Breakfast is plentiful!   So, for the most part, I highly recommend staying here while on business in the area.  The only thing that seems to have declined is the overall job they do vacuuming.  I stayed for a week, and the whole time, the hallways needed to be vacuumed.  They have dark carpeting and there is a lot of debris on it, on every floor.  I noticed in my room too that they don't thoroughly vacuum into the corners and along the furniture.  And one day, I found a cleaner's rubber glove left on my bathroom counter - gross!  Another day, the trash can was missing from my room.  So, while its still a dependable Residence Inn that I will stay at again, if they don't do something about the level of effort put into cleaning, it won't be a nice option for much longer.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r148435290-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1339,6 +2066,42 @@
   </si>
   <si>
     <t>We bid on priceline.com and for $60 a night 3 stars we got this one. When we got there and throughout the stay the people working the front desk were really nice and helpful. We were traveling with at 1 year old. We asked for a crib. They are no charge but pack and plays (if that makes a difference). The kitchen was well stocked with everything you need; pans and even measuring utensils. The kitchen looked really clean. It also came with a refrigerator and freezer. The freezer still had a cold stone ice cream in it from the last user and the ice was over flowing. The cold stone didn't bother me but I could see it bothering others. The room was beautiful decorated with old pictures of Denver. I didn't think it looked dated. We went to sleep. My husband and I are used to sleeping in a king-sized bed. It was hard to sleep in the Queen. The next day we asked for a cot and the hotel has two but I guess they are going to eventually get rid of them. I also found out that the couch folds out to a bed. The next day we went swimming. The pool was a little cold but not too bad. It was an L shape. It was hard for my 1 year old to play because the only place he could touch the bottom was on...We bid on priceline.com and for $60 a night 3 stars we got this one. When we got there and throughout the stay the people working the front desk were really nice and helpful. We were traveling with at 1 year old. We asked for a crib. They are no charge but pack and plays (if that makes a difference). The kitchen was well stocked with everything you need; pans and even measuring utensils. The kitchen looked really clean. It also came with a refrigerator and freezer. The freezer still had a cold stone ice cream in it from the last user and the ice was over flowing. The cold stone didn't bother me but I could see it bothering others. The room was beautiful decorated with old pictures of Denver. I didn't think it looked dated. We went to sleep. My husband and I are used to sleeping in a king-sized bed. It was hard to sleep in the Queen. The next day we asked for a cot and the hotel has two but I guess they are going to eventually get rid of them. I also found out that the couch folds out to a bed. The next day we went swimming. The pool was a little cold but not too bad. It was an L shape. It was hard for my 1 year old to play because the only place he could touch the bottom was on the stairs. Right next to the pool was really slippery. (It wouldn't be a problem to most people only if you have small kids). There is a hot tub. It holds 8 people. It wasn't too hot but nice. The pool was nice because hardly anyone was there. They have a continental breakfast. It usually has eggs, waffles, yogurt, cereal, pastry, and sausage. It was really good. Not the best I've had but better than average for a continental breakfast. They also have a 'social hour'. This is at night during dinner. It's a light dinner. They serve wine, beer and then a dinner item. One day they had a meatball sub and the next soup and salad. It's not a big meal but if you just want something light it's perfect. They have computer for guest to use. I checked my e-mail and no problems there. Overall, great hotel stay. I would have rated the hotel 5 stars except I wish the bed was bigger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r135836855-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>135836855</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Good hotel, but a few problems</t>
+  </si>
+  <si>
+    <t>We stayed here July 27 through Jul 30 2012.  We were in room 219, which is on the south side of the hotel.  This hotel is next to the I-25 freeway with an off-ramp maybe 100' away.  If you have a room on the south side, or west side, it is very noisy with freeway traffic almost 24 hours a day.  Also, the air conditioning unit is strangely located in a small closet in the BEDROOM!  During the summer, you need the air conditioning running all through the night.  Everytime it cycles on, and runs, it will wake you up.  The rooms have utilitarian furniture (couch, chair, desk and flat screen on low table stand.  However the lighting next to the couch and chair could be better.  The bathroom is nice and roomy as well is the closet area.  The breakfast was yummy with different items each day of our 4-day stay.  The front desk personnel were VERY helpful and courteous.  Just across the I-25 freeway is a beautiful mall with many restaurants on the perimeter.  Ikea is just a mile away too.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed here July 27 through Jul 30 2012.  We were in room 219, which is on the south side of the hotel.  This hotel is next to the I-25 freeway with an off-ramp maybe 100' away.  If you have a room on the south side, or west side, it is very noisy with freeway traffic almost 24 hours a day.  Also, the air conditioning unit is strangely located in a small closet in the BEDROOM!  During the summer, you need the air conditioning running all through the night.  Everytime it cycles on, and runs, it will wake you up.  The rooms have utilitarian furniture (couch, chair, desk and flat screen on low table stand.  However the lighting next to the couch and chair could be better.  The bathroom is nice and roomy as well is the closet area.  The breakfast was yummy with different items each day of our 4-day stay.  The front desk personnel were VERY helpful and courteous.  Just across the I-25 freeway is a beautiful mall with many restaurants on the perimeter.  Ikea is just a mile away too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r135707156-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>135707156</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn for a family reunion. The hotel is showing its age in the guest rooms, but the facilities were great for our gathering. Wonderful breakfast and was pleasantly surprised by the happy hour. Staff was very helpful.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r134303527-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
@@ -1423,6 +2186,39 @@
 I checked out early &amp;  I went over to the full service Marriott, was given a tour of the hotel and given...Awful! I am a travel agent; I travel and book travel for a living. I have always loved Residence Inns and Marriotts. This place seems to always be under renovation and disrepair. The rooms are average Residence Inn rooms, but the smells! The smell of bombay Indian cooking, or middle eastern cooking permeates the hallways. I love indian food. I love Israeli foods, but I don't want to sleep with the smells. The front desk staff concurred that they have long term residents that are always cooking and it always smells like this. I didn't bother to stay for the breakfast. The breakfasts are always so crowded and over run with people and rude kids. Everyone acts like the hotel owes them something; They don't. It's a perk. How about getting to stay in a nice clean room, affordable stay, great customer service and appreciating that breakfast &amp; staff. They do a good job, they work really hard, and all they get is snotty ungrateful  people without manners .  We have it really quite good in this country. Quit being so greedy and spoiled and " we're entitled".  We're not entitled to anything. Be grateful when you do get a nice place to stay. And teach your rude kids to have some manners and kindness for other people.  I checked out early &amp;  I went over to the full service Marriott, was given a tour of the hotel and given a beautiful quiet room with a view of the mountains... and no stinky smells. No voices and rude selfiish, self centered kids yelling in the halls... and yes, I have a daughter. She isn't allowed to behave rudely.  The only other Marriott that I have rated lower than this is the Townplace Suites in Denver Medical Center .. that one smells like a musty old hospital ... never again to both of these.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r130624307-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>130624307</t>
+  </si>
+  <si>
+    <t>05/26/2012</t>
+  </si>
+  <si>
+    <t>A good choice</t>
+  </si>
+  <si>
+    <t>Very nice Residence Inn.  Checked in late and the night staff was a little uninformed about what is around them but a good mall close by with many choices of places to eat.Breakfast was a good selection of normal and very healthy choices.I was curious as to why they put me on the top floor and about as far away from the elevator as possible when the parking lot only supported a hotel not very full.  In any case, it was like I had my own floor.  Highly recommend for a couple.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r130016462-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>130016462</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Nice and comfortable hotel</t>
+  </si>
+  <si>
+    <t>This hotel maybe located far from the city center, but it is a very nice and comfortable place to stay. The location is quiet, safe and easy access to the freeway, ideal for people with cars.We stayed two nights in this good hotel mainly because of the good reviews. We had a two bedroom suite, the beds are very comfortable, the place is very clean, free high speed internet, free breakfast and free parking, staffs are friendly and polite. We sure will stay again if we come back to Denver.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r126299267-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1480,6 +2276,42 @@
     <t>I stayed in a 2 bedroom suite for a weekend of scrapbooking with my girlfriends. We have done this annually in the Denver area but it was a first at this hotel. On the plus side, the room was spacious and we could easily set up our 6 foot tables for extra work room. The beds were fine and overall things were clean. The room seemed a little dated with fixtures, the tile in the bathroom was severly cracked but none of this really bothered us. What was disappointing was the breakfast. First morning they had food, but overall taste was poor. Frozen pancakes that sort of thing. The second morning we were there at 9:15 (breakfast goes until 10) and they were out of everything. Orange juice was gone, sausage was gone, coffee was out, no syrup, no more mix to make a waffle, only skim milk was available and so on. This was frustrating to us. I also had requested a room near the elevator and got one the absolute farthest away from the elevator. Not a huge deal but us scrapbooker haul a lot of stuff. I would stay here again, but there are similar hotels in the area that I would certainly look to go first if pricing was comparable. On that note - I thought our rate of $109 was great for a 2 bedroom 2 bath suite.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r124182107-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>124182107</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>A business hotel with great shopping!</t>
+  </si>
+  <si>
+    <t>Just got back from a 9-night stay at this hotel.  Clean, comfortable, well maintained, and the staff was uniformly friendly and helpful.  The breakfasts are helpful, can grab a quick yogurt and go.  The evening meals are very hit-and-miss, some were okay, some marginal.  However that is true at home too!  I loved the fireplace in my two-bedroom suite, and used it a lot.  The Park Meadows Mall is a walkable distance away, using the bridge over the freeway.  The mall itself is HUGE and has some great shops - I made a point to visit The Body Shop, Coldwater Creek, Chico's, and Soft Surroundings.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r120591518-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>120591518</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I've stayed here several times now.  The front desk staff are always friendly and helpful.  The rooms are typical residence inn decor and for the most part, very clean.  The breakfast and happy hour fare are great!  The pool is very nice as well.  The bedding is always clean and I get a good night's rest here.  Also...according to bedbugregistry.com, there has never been a report of bed bugs here (can't be said for other nearby hotels)!!!!  I rate this hotel only average for cleanliness because of a few things that I list here, but for the most part, it's really not bad at all.  Specifically, there seems to be a few spots/stains on the carpets in all the rooms I've been in, but nothing too bad.  I also noticed that a previous guest had hung a washcloth over the shower rod in one room and the cleaning person hadn't picked it up when cleaning.  Also, on one visit, I was experiencing an awful sinus reaction to what I thought had been spilled cologne in the room...a very STRONG smell.  It took me a couple of days, but then I noticed that one of those Glade air fresheners was plugged into an outlet.  My guess is that a previous guest left it there and the cleaning person didn't pick it up when cleaning.  All other rooms have smelled just fine when I've stayed here!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I've stayed here several times now.  The front desk staff are always friendly and helpful.  The rooms are typical residence inn decor and for the most part, very clean.  The breakfast and happy hour fare are great!  The pool is very nice as well.  The bedding is always clean and I get a good night's rest here.  Also...according to bedbugregistry.com, there has never been a report of bed bugs here (can't be said for other nearby hotels)!!!!  I rate this hotel only average for cleanliness because of a few things that I list here, but for the most part, it's really not bad at all.  Specifically, there seems to be a few spots/stains on the carpets in all the rooms I've been in, but nothing too bad.  I also noticed that a previous guest had hung a washcloth over the shower rod in one room and the cleaning person hadn't picked it up when cleaning.  Also, on one visit, I was experiencing an awful sinus reaction to what I thought had been spilled cologne in the room...a very STRONG smell.  It took me a couple of days, but then I noticed that one of those Glade air fresheners was plugged into an outlet.  My guess is that a previous guest left it there and the cleaning person didn't pick it up when cleaning.  All other rooms have smelled just fine when I've stayed here!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r92768947-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1537,6 +2369,45 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r31427839-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>31427839</t>
+  </si>
+  <si>
+    <t>06/02/2009</t>
+  </si>
+  <si>
+    <t>Needs an Update</t>
+  </si>
+  <si>
+    <t>We stayed here for a vacation for 3 nights. Rooms need a redo. Typical Residence Inn layout and services. The carpet was worn out. Sofa bed and furniture need an upgrade. The refrigerator was very noisy as I was sleeping on the sofa bed. The breakfast was good and changed selections daily. The pool area, lobby and breakfast area was nice. Good location if staying in Aurora. The Light Rail was right next to the hotel and great for going downtown, would highly recommend. Maybe stay at The Marriot Courtyard right next door looked newer on outside.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r25880519-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>25880519</t>
+  </si>
+  <si>
+    <t>03/09/2009</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>My buddies decided to throw me a bachlor party we decided that spending the weekeknd in Denver would be great. We tried to get a room some where downtown so we could drink and not worry about who would be the DD you know. but  hte prices were outragouse down there so we decided on this one they had free breakfast at everything so we thought sweet we'll cut the cost of going out to eat. when we got to the hotel all the staff members were great congradutaing me on my wedding and everything. john my best man was elected to be the DD well then the front desk girl told us about the light rail that goes right in to down town! the station was right next to the hotel and everyone was able party that night it wa great!  Thank You Residence Inn for helping to make my bachlor party a weekend i will never forget!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>My buddies decided to throw me a bachlor party we decided that spending the weekeknd in Denver would be great. We tried to get a room some where downtown so we could drink and not worry about who would be the DD you know. but  hte prices were outragouse down there so we decided on this one they had free breakfast at everything so we thought sweet we'll cut the cost of going out to eat. when we got to the hotel all the staff members were great congradutaing me on my wedding and everything. john my best man was elected to be the DD well then the front desk girl told us about the light rail that goes right in to down town! the station was right next to the hotel and everyone was able party that night it wa great!  Thank You Residence Inn for helping to make my bachlor party a weekend i will never forget!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r24506144-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1592,6 +2463,42 @@
   </si>
   <si>
     <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r7290017-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>7290017</t>
+  </si>
+  <si>
+    <t>04/06/2007</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>Hi! We have just stayed 2 nights at this location. Nice big rooms and great cleaning. The breakfast was OK, but not great. The location is OK if you have a car (which I understand everyone have.....) There is a pool there wich is nice if you want to do something else than go shopping.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d223895-r2331934-Residence_Inn_Denver_South_Park_Meadows_Mall-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>2331934</t>
+  </si>
+  <si>
+    <t>07/28/2004</t>
+  </si>
+  <si>
+    <t>A Great Experience!</t>
+  </si>
+  <si>
+    <t>We stayed at this Residence Inn for a working vacation for a week and it was one of the best experiences we've had.  They went above and beyond in accommodating us with specific wants.  Extra pillows, a roll-away bed when Hotels misunderstood our reservation and my long-legged son was going to have to sleep on a short couch.  They serve a full breakfast each morning and "hors d'oeuvres" (which was really a dinner amount of food) in the evenings, which really helped a lot on the budget.  They cleaned our room excellently only when we left (we teased that they were watching us, because the room would always be cleaned even if we left for a short while each day!).  The room was very clean and smelled good.  I highly recommend this hotel and will return to them if we travel here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this Residence Inn for a working vacation for a week and it was one of the best experiences we've had.  They went above and beyond in accommodating us with specific wants.  Extra pillows, a roll-away bed when Hotels misunderstood our reservation and my long-legged son was going to have to sleep on a short couch.  They serve a full breakfast each morning and "hors d'oeuvres" (which was really a dinner amount of food) in the evenings, which really helped a lot on the budget.  They cleaned our room excellently only when we left (we teased that they were watching us, because the room would always be cleaned even if we left for a short while each day!).  The room was very clean and smelled good.  I highly recommend this hotel and will return to them if we travel here again.More</t>
   </si>
 </sst>
 </file>
@@ -2128,21 +3035,31 @@
       <c r="M2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -2158,52 +3075,58 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2219,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2228,38 +3151,28 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -2294,44 +3207,40 @@
         <v>68</v>
       </c>
       <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2347,58 +3256,54 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
       <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
         <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2414,7 +3319,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2423,26 +3328,22 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2452,14 +3353,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>91</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2475,7 +3372,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2484,49 +3381,49 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -2542,7 +3439,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2551,33 +3448,31 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2587,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2609,7 +3504,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2618,49 +3513,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2676,7 +3571,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2685,47 +3580,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2741,7 +3632,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2750,49 +3641,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2808,56 +3693,58 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>137</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>125</v>
-      </c>
       <c r="O13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2873,52 +3760,58 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>146</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>147</v>
       </c>
-      <c r="K14" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>150</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
-      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2934,56 +3827,58 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
         <v>154</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
         <v>156</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>157</v>
       </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
-      </c>
-      <c r="O15" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
         <v>159</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>160</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -2999,43 +3894,43 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>162</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>163</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>164</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>165</v>
       </c>
-      <c r="L16" t="s">
-        <v>166</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -3044,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
         <v>159</v>
       </c>
-      <c r="X16" t="s">
-        <v>160</v>
-      </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -3066,34 +3961,34 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
         <v>168</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>169</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>170</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>171</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
         <v>172</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>173</v>
-      </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3105,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
         <v>174</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>175</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -3127,55 +4022,53 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
         <v>177</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>178</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>179</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>180</v>
       </c>
-      <c r="L18" t="s">
-        <v>181</v>
-      </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="X18" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="Y18" t="s">
         <v>183</v>
@@ -3221,16 +4114,14 @@
         <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -3285,17 +4176,19 @@
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3303,10 +4196,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -3322,7 +4219,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3331,49 +4228,47 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -3389,7 +4284,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3398,39 +4293,47 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
@@ -3446,7 +4349,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3455,39 +4358,49 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
@@ -3503,7 +4416,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3512,25 +4425,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3542,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
@@ -3564,7 +4477,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3573,49 +4486,47 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -3631,7 +4542,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3640,32 +4551,34 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3674,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="X26" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -3696,7 +4609,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3705,33 +4618,33 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3741,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="X27" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -3763,7 +4676,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3772,43 +4685,49 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
@@ -3824,7 +4743,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3833,49 +4752,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>260</v>
       </c>
-      <c r="J29" t="s">
-        <v>261</v>
-      </c>
-      <c r="K29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L29" t="s">
-        <v>263</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>264</v>
-      </c>
       <c r="O29" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -3891,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3900,49 +4813,49 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>4</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="X30" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
@@ -3958,7 +4871,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3967,49 +4880,49 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
@@ -4025,7 +4938,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -4034,25 +4947,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4063,14 +4976,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>241</v>
-      </c>
-      <c r="X32" t="s">
-        <v>242</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -4086,7 +4995,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4095,43 +5004,45 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>241</v>
-      </c>
-      <c r="X33" t="s">
-        <v>242</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
@@ -4147,7 +5058,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4156,32 +5067,32 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>297</v>
       </c>
-      <c r="L34" t="s">
-        <v>298</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>299</v>
-      </c>
       <c r="O34" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4189,14 +5100,10 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>241</v>
-      </c>
-      <c r="X34" t="s">
-        <v>242</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
@@ -4212,7 +5119,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4221,49 +5128,49 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>306</v>
-      </c>
-      <c r="O35" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
@@ -4279,7 +5186,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4288,49 +5195,39 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>241</v>
-      </c>
-      <c r="X36" t="s">
-        <v>242</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
@@ -4346,7 +5243,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4355,49 +5252,39 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>320</v>
-      </c>
-      <c r="X37" t="s">
-        <v>321</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
@@ -4413,7 +5300,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4422,35 +5309,49 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X38" t="s">
+        <v>330</v>
+      </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39">
@@ -4466,7 +5367,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4475,45 +5376,37 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>334</v>
-      </c>
-      <c r="X39" t="s">
-        <v>335</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
         <v>336</v>
       </c>
@@ -4531,7 +5424,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4540,25 +5433,25 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s">
-        <v>340</v>
+        <v>118</v>
       </c>
       <c r="L40" t="s">
         <v>341</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4569,10 +5462,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>342</v>
+      </c>
+      <c r="X40" t="s">
+        <v>343</v>
+      </c>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
@@ -4588,7 +5485,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4597,53 +5494,49 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
         <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="X41" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
@@ -4659,7 +5552,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4668,53 +5561,47 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
         <v>4</v>
       </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="X42" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Y42" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43">
@@ -4730,52 +5617,58 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
         <v>361</v>
       </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" t="s">
-        <v>362</v>
-      </c>
-      <c r="J43" t="s">
-        <v>363</v>
-      </c>
-      <c r="K43" t="s">
-        <v>364</v>
-      </c>
-      <c r="L43" t="s">
-        <v>365</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s">
-        <v>366</v>
-      </c>
-      <c r="O43" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
-      <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
+      <c r="Y43" t="s">
         <v>367</v>
-      </c>
-      <c r="X43" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="44">
@@ -4791,46 +5684,40 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
         <v>370</v>
       </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>371</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>372</v>
       </c>
-      <c r="K44" t="s">
-        <v>373</v>
-      </c>
-      <c r="L44" t="s">
-        <v>374</v>
-      </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s">
-        <v>73</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4839,10 +5726,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
@@ -4858,48 +5749,58 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
         <v>377</v>
       </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>378</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>379</v>
       </c>
-      <c r="K45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L45" t="s">
-        <v>381</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="X45" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -4915,58 +5816,52 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s">
         <v>385</v>
-      </c>
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" t="s">
-        <v>386</v>
-      </c>
-      <c r="J46" t="s">
-        <v>387</v>
-      </c>
-      <c r="K46" t="s">
-        <v>388</v>
-      </c>
-      <c r="L46" t="s">
-        <v>389</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>2</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" t="s">
+        <v>387</v>
+      </c>
       <c r="Y46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
@@ -4982,62 +5877,58 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
         <v>392</v>
       </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>393</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
         <v>394</v>
       </c>
-      <c r="K47" t="s">
-        <v>395</v>
-      </c>
-      <c r="L47" t="s">
-        <v>396</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="O47" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
         <v>3</v>
       </c>
-      <c r="N47" t="s">
-        <v>397</v>
-      </c>
-      <c r="O47" t="s">
-        <v>56</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
       <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="X47" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="Y47" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
@@ -5053,62 +5944,58 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48" t="s">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s">
+        <v>400</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
         <v>401</v>
       </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" t="s">
-        <v>402</v>
-      </c>
-      <c r="J48" t="s">
-        <v>403</v>
-      </c>
-      <c r="K48" t="s">
-        <v>404</v>
-      </c>
-      <c r="L48" t="s">
-        <v>405</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>406</v>
-      </c>
       <c r="O48" t="s">
-        <v>407</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="X48" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="Y48" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49">
@@ -5124,7 +6011,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5133,49 +6020,49 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K49" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>360</v>
+      </c>
+      <c r="X49" t="s">
+        <v>361</v>
+      </c>
       <c r="Y49" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
@@ -5191,7 +6078,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5200,49 +6087,49 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s">
-        <v>56</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
         <v>4</v>
       </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>360</v>
+      </c>
+      <c r="X50" t="s">
+        <v>361</v>
+      </c>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51">
@@ -5258,7 +6145,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5267,49 +6154,49 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J51" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K51" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="O51" t="s">
-        <v>100</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>422</v>
+      </c>
+      <c r="X51" t="s">
+        <v>423</v>
+      </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52">
@@ -5325,7 +6212,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5334,49 +6221,47 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="O52" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>430</v>
+      </c>
+      <c r="X52" t="s">
+        <v>431</v>
+      </c>
       <c r="Y52" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
@@ -5392,54 +6277,52 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+      <c r="J53" t="s">
+        <v>435</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s">
         <v>437</v>
       </c>
-      <c r="G53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
         <v>438</v>
       </c>
-      <c r="J53" t="s">
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>360</v>
+      </c>
+      <c r="X53" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y53" t="s">
         <v>439</v>
-      </c>
-      <c r="K53" t="s">
-        <v>440</v>
-      </c>
-      <c r="L53" t="s">
-        <v>441</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" t="n">
-        <v>3</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="54">
@@ -5455,54 +6338,52 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
         <v>442</v>
       </c>
-      <c r="G54" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>443</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>444</v>
       </c>
-      <c r="K54" t="s">
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>438</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>360</v>
+      </c>
+      <c r="X54" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y54" t="s">
         <v>445</v>
-      </c>
-      <c r="L54" t="s">
-        <v>446</v>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
-      <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="55">
@@ -5518,58 +6399,52 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
+        <v>446</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>447</v>
+      </c>
+      <c r="J55" t="s">
         <v>448</v>
       </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>449</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>450</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>360</v>
+      </c>
+      <c r="X55" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y55" t="s">
         <v>451</v>
-      </c>
-      <c r="L55" t="s">
-        <v>452</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="s">
-        <v>453</v>
-      </c>
-      <c r="O55" t="s">
-        <v>56</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="56">
@@ -5585,45 +6460,41 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>453</v>
+      </c>
+      <c r="J56" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" t="s">
         <v>455</v>
       </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>456</v>
       </c>
-      <c r="J56" t="s">
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
         <v>457</v>
       </c>
-      <c r="K56" t="s">
-        <v>458</v>
-      </c>
-      <c r="L56" t="s">
-        <v>459</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>460</v>
-      </c>
       <c r="O56" t="s">
-        <v>73</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5631,10 +6502,14 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>360</v>
+      </c>
+      <c r="X56" t="s">
+        <v>361</v>
+      </c>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57">
@@ -5650,58 +6525,58 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" t="s">
         <v>461</v>
       </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>462</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>463</v>
       </c>
-      <c r="K57" t="s">
-        <v>464</v>
-      </c>
-      <c r="L57" t="s">
-        <v>465</v>
-      </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="O57" t="s">
-        <v>100</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>360</v>
+      </c>
+      <c r="X57" t="s">
+        <v>361</v>
+      </c>
       <c r="Y57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
@@ -5717,58 +6592,56 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
         <v>467</v>
       </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>468</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>469</v>
       </c>
-      <c r="K58" t="s">
-        <v>470</v>
-      </c>
-      <c r="L58" t="s">
-        <v>471</v>
-      </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>407</v>
+        <v>52</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>360</v>
+      </c>
+      <c r="X58" t="s">
+        <v>361</v>
+      </c>
       <c r="Y58" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59">
@@ -5784,58 +6657,58 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
         <v>474</v>
       </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
         <v>475</v>
       </c>
-      <c r="J59" t="s">
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
         <v>476</v>
       </c>
-      <c r="K59" t="s">
-        <v>477</v>
-      </c>
-      <c r="L59" t="s">
-        <v>478</v>
-      </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>479</v>
-      </c>
       <c r="O59" t="s">
-        <v>110</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>360</v>
+      </c>
+      <c r="X59" t="s">
+        <v>361</v>
+      </c>
       <c r="Y59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
@@ -5851,58 +6724,58 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
         <v>480</v>
       </c>
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>481</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>482</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
         <v>483</v>
       </c>
-      <c r="L60" t="s">
-        <v>484</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2</v>
-      </c>
-      <c r="N60" t="s">
-        <v>485</v>
-      </c>
       <c r="O60" t="s">
-        <v>73</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
-        <v>2</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>360</v>
+      </c>
+      <c r="X60" t="s">
+        <v>361</v>
+      </c>
       <c r="Y60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61">
@@ -5918,56 +6791,56 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
+        <v>485</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>486</v>
+      </c>
+      <c r="J61" t="s">
         <v>487</v>
       </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
+        <v>399</v>
+      </c>
+      <c r="L61" t="s">
         <v>488</v>
       </c>
-      <c r="J61" t="s">
-        <v>489</v>
-      </c>
-      <c r="K61" t="s">
-        <v>490</v>
-      </c>
-      <c r="L61" t="s">
-        <v>491</v>
-      </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="O61" t="s">
-        <v>407</v>
+        <v>102</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>4</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>489</v>
+      </c>
+      <c r="X61" t="s">
+        <v>490</v>
+      </c>
       <c r="Y61" t="s">
         <v>491</v>
       </c>
@@ -5985,44 +6858,40 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
         <v>493</v>
       </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>494</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>495</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>496</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
         <v>497</v>
       </c>
-      <c r="M62" t="n">
-        <v>5</v>
-      </c>
-      <c r="N62" t="s">
-        <v>498</v>
-      </c>
       <c r="O62" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
       </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>5</v>
       </c>
@@ -6036,7 +6905,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63">
@@ -6052,56 +6921,54 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
         <v>499</v>
       </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>500</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>501</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>502</v>
       </c>
-      <c r="L63" t="s">
-        <v>503</v>
-      </c>
       <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="s">
-        <v>504</v>
-      </c>
-      <c r="O63" t="s">
-        <v>100</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
         <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64">
@@ -6117,58 +6984,2958 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
+        <v>503</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>504</v>
+      </c>
+      <c r="J64" t="s">
+        <v>505</v>
+      </c>
+      <c r="K64" t="s">
         <v>506</v>
       </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>507</v>
       </c>
-      <c r="J64" t="s">
-        <v>508</v>
-      </c>
-      <c r="K64" t="s">
-        <v>509</v>
-      </c>
-      <c r="L64" t="s">
-        <v>510</v>
-      </c>
       <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s">
-        <v>511</v>
-      </c>
-      <c r="O64" t="s">
-        <v>56</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" t="n">
-        <v>3</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>2</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>508</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>509</v>
+      </c>
+      <c r="J65" t="s">
         <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s">
+        <v>512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>513</v>
+      </c>
+      <c r="O65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>514</v>
+      </c>
+      <c r="X65" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>517</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>518</v>
+      </c>
+      <c r="J66" t="s">
+        <v>519</v>
+      </c>
+      <c r="K66" t="s">
+        <v>520</v>
+      </c>
+      <c r="L66" t="s">
+        <v>521</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>522</v>
+      </c>
+      <c r="O66" t="s">
+        <v>102</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s">
+        <v>527</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>528</v>
+      </c>
+      <c r="O67" t="s">
+        <v>157</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>522</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" t="s">
+        <v>537</v>
+      </c>
+      <c r="K69" t="s">
+        <v>538</v>
+      </c>
+      <c r="L69" t="s">
+        <v>539</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>540</v>
+      </c>
+      <c r="O69" t="s">
+        <v>147</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>541</v>
+      </c>
+      <c r="X69" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>544</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>545</v>
+      </c>
+      <c r="J70" t="s">
+        <v>546</v>
+      </c>
+      <c r="K70" t="s">
+        <v>547</v>
+      </c>
+      <c r="L70" t="s">
+        <v>548</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>549</v>
+      </c>
+      <c r="O70" t="s">
+        <v>102</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>550</v>
+      </c>
+      <c r="X70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>553</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>554</v>
+      </c>
+      <c r="J71" t="s">
+        <v>555</v>
+      </c>
+      <c r="K71" t="s">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s">
+        <v>557</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>558</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>559</v>
+      </c>
+      <c r="X71" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>562</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>563</v>
+      </c>
+      <c r="J72" t="s">
+        <v>564</v>
+      </c>
+      <c r="K72" t="s">
+        <v>565</v>
+      </c>
+      <c r="L72" t="s">
+        <v>566</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>567</v>
+      </c>
+      <c r="O72" t="s">
+        <v>102</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>568</v>
+      </c>
+      <c r="X72" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>571</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>572</v>
+      </c>
+      <c r="J73" t="s">
+        <v>573</v>
+      </c>
+      <c r="K73" t="s">
+        <v>574</v>
+      </c>
+      <c r="L73" t="s">
+        <v>575</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>576</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>577</v>
+      </c>
+      <c r="X73" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>580</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>581</v>
+      </c>
+      <c r="J74" t="s">
+        <v>582</v>
+      </c>
+      <c r="K74" t="s">
+        <v>583</v>
+      </c>
+      <c r="L74" t="s">
+        <v>584</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>585</v>
+      </c>
+      <c r="O74" t="s">
+        <v>102</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>588</v>
+      </c>
+      <c r="J75" t="s">
+        <v>589</v>
+      </c>
+      <c r="K75" t="s">
+        <v>590</v>
+      </c>
+      <c r="L75" t="s">
+        <v>591</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>592</v>
+      </c>
+      <c r="X75" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>596</v>
+      </c>
+      <c r="J76" t="s">
+        <v>597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>598</v>
+      </c>
+      <c r="L76" t="s">
+        <v>599</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>600</v>
+      </c>
+      <c r="O76" t="s">
+        <v>102</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>567</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>607</v>
+      </c>
+      <c r="X77" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>610</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>611</v>
+      </c>
+      <c r="J78" t="s">
+        <v>612</v>
+      </c>
+      <c r="K78" t="s">
+        <v>613</v>
+      </c>
+      <c r="L78" t="s">
+        <v>614</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>600</v>
+      </c>
+      <c r="O78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>615</v>
+      </c>
+      <c r="X78" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>619</v>
+      </c>
+      <c r="J79" t="s">
+        <v>620</v>
+      </c>
+      <c r="K79" t="s">
+        <v>621</v>
+      </c>
+      <c r="L79" t="s">
+        <v>622</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>623</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>615</v>
+      </c>
+      <c r="X79" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>626</v>
+      </c>
+      <c r="J80" t="s">
+        <v>627</v>
+      </c>
+      <c r="K80" t="s">
+        <v>628</v>
+      </c>
+      <c r="L80" t="s">
+        <v>629</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>630</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>631</v>
+      </c>
+      <c r="X80" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>634</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>635</v>
+      </c>
+      <c r="J81" t="s">
+        <v>636</v>
+      </c>
+      <c r="K81" t="s">
+        <v>637</v>
+      </c>
+      <c r="L81" t="s">
+        <v>638</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>630</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>641</v>
+      </c>
+      <c r="J82" t="s">
+        <v>642</v>
+      </c>
+      <c r="K82" t="s">
+        <v>643</v>
+      </c>
+      <c r="L82" t="s">
+        <v>644</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>102</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>648</v>
+      </c>
+      <c r="J83" t="s">
+        <v>649</v>
+      </c>
+      <c r="K83" t="s">
+        <v>650</v>
+      </c>
+      <c r="L83" t="s">
+        <v>651</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>652</v>
+      </c>
+      <c r="O83" t="s">
+        <v>102</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>654</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>655</v>
+      </c>
+      <c r="J84" t="s">
+        <v>656</v>
+      </c>
+      <c r="K84" t="s">
+        <v>657</v>
+      </c>
+      <c r="L84" t="s">
+        <v>658</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>659</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>660</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>661</v>
+      </c>
+      <c r="J85" t="s">
+        <v>662</v>
+      </c>
+      <c r="K85" t="s">
+        <v>663</v>
+      </c>
+      <c r="L85" t="s">
+        <v>664</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>665</v>
+      </c>
+      <c r="O85" t="s">
+        <v>147</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>667</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>668</v>
+      </c>
+      <c r="J86" t="s">
+        <v>669</v>
+      </c>
+      <c r="K86" t="s">
+        <v>670</v>
+      </c>
+      <c r="L86" t="s">
+        <v>671</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>672</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>674</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>675</v>
+      </c>
+      <c r="J87" t="s">
+        <v>676</v>
+      </c>
+      <c r="K87" t="s">
+        <v>677</v>
+      </c>
+      <c r="L87" t="s">
+        <v>678</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>679</v>
+      </c>
+      <c r="O87" t="s">
+        <v>157</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>681</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>682</v>
+      </c>
+      <c r="J88" t="s">
+        <v>683</v>
+      </c>
+      <c r="K88" t="s">
+        <v>684</v>
+      </c>
+      <c r="L88" t="s">
+        <v>685</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>679</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>686</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>687</v>
+      </c>
+      <c r="J89" t="s">
+        <v>688</v>
+      </c>
+      <c r="K89" t="s">
+        <v>689</v>
+      </c>
+      <c r="L89" t="s">
+        <v>690</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>691</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>692</v>
+      </c>
+      <c r="J90" t="s">
+        <v>693</v>
+      </c>
+      <c r="K90" t="s">
+        <v>694</v>
+      </c>
+      <c r="L90" t="s">
+        <v>695</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>697</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>698</v>
+      </c>
+      <c r="J91" t="s">
+        <v>699</v>
+      </c>
+      <c r="K91" t="s">
+        <v>700</v>
+      </c>
+      <c r="L91" t="s">
+        <v>701</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>702</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>704</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>705</v>
+      </c>
+      <c r="J92" t="s">
+        <v>706</v>
+      </c>
+      <c r="K92" t="s">
+        <v>707</v>
+      </c>
+      <c r="L92" t="s">
+        <v>708</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>709</v>
+      </c>
+      <c r="O92" t="s">
+        <v>147</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>710</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>711</v>
+      </c>
+      <c r="J93" t="s">
+        <v>712</v>
+      </c>
+      <c r="K93" t="s">
+        <v>713</v>
+      </c>
+      <c r="L93" t="s">
+        <v>714</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>709</v>
+      </c>
+      <c r="O93" t="s">
+        <v>157</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>715</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>716</v>
+      </c>
+      <c r="J94" t="s">
+        <v>717</v>
+      </c>
+      <c r="K94" t="s">
+        <v>718</v>
+      </c>
+      <c r="L94" t="s">
+        <v>719</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>720</v>
+      </c>
+      <c r="O94" t="s">
+        <v>102</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>721</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>722</v>
+      </c>
+      <c r="J95" t="s">
+        <v>723</v>
+      </c>
+      <c r="K95" t="s">
+        <v>724</v>
+      </c>
+      <c r="L95" t="s">
+        <v>725</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>720</v>
+      </c>
+      <c r="O95" t="s">
+        <v>147</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>727</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>728</v>
+      </c>
+      <c r="J96" t="s">
+        <v>729</v>
+      </c>
+      <c r="K96" t="s">
+        <v>730</v>
+      </c>
+      <c r="L96" t="s">
+        <v>731</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>732</v>
+      </c>
+      <c r="O96" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>734</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>735</v>
+      </c>
+      <c r="J97" t="s">
+        <v>736</v>
+      </c>
+      <c r="K97" t="s">
+        <v>737</v>
+      </c>
+      <c r="L97" t="s">
+        <v>738</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>732</v>
+      </c>
+      <c r="O97" t="s">
+        <v>102</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>739</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>740</v>
+      </c>
+      <c r="J98" t="s">
+        <v>741</v>
+      </c>
+      <c r="K98" t="s">
+        <v>742</v>
+      </c>
+      <c r="L98" t="s">
+        <v>743</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>744</v>
+      </c>
+      <c r="O98" t="s">
+        <v>102</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>746</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>747</v>
+      </c>
+      <c r="J99" t="s">
+        <v>748</v>
+      </c>
+      <c r="K99" t="s">
+        <v>749</v>
+      </c>
+      <c r="L99" t="s">
+        <v>750</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>751</v>
+      </c>
+      <c r="O99" t="s">
+        <v>157</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>752</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>753</v>
+      </c>
+      <c r="J100" t="s">
+        <v>754</v>
+      </c>
+      <c r="K100" t="s">
+        <v>755</v>
+      </c>
+      <c r="L100" t="s">
+        <v>756</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>757</v>
+      </c>
+      <c r="O100" t="s">
+        <v>102</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>759</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>760</v>
+      </c>
+      <c r="J101" t="s">
+        <v>761</v>
+      </c>
+      <c r="K101" t="s">
+        <v>762</v>
+      </c>
+      <c r="L101" t="s">
+        <v>763</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>764</v>
+      </c>
+      <c r="O101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>765</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>766</v>
+      </c>
+      <c r="J102" t="s">
+        <v>767</v>
+      </c>
+      <c r="K102" t="s">
+        <v>768</v>
+      </c>
+      <c r="L102" t="s">
+        <v>769</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>770</v>
+      </c>
+      <c r="O102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>771</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>772</v>
+      </c>
+      <c r="J103" t="s">
+        <v>773</v>
+      </c>
+      <c r="K103" t="s">
+        <v>774</v>
+      </c>
+      <c r="L103" t="s">
+        <v>775</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>776</v>
+      </c>
+      <c r="O103" t="s">
+        <v>92</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>778</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>779</v>
+      </c>
+      <c r="J104" t="s">
+        <v>780</v>
+      </c>
+      <c r="K104" t="s">
+        <v>781</v>
+      </c>
+      <c r="L104" t="s">
+        <v>782</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>783</v>
+      </c>
+      <c r="O104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>784</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>785</v>
+      </c>
+      <c r="J105" t="s">
+        <v>786</v>
+      </c>
+      <c r="K105" t="s">
+        <v>787</v>
+      </c>
+      <c r="L105" t="s">
+        <v>788</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>789</v>
+      </c>
+      <c r="O105" t="s">
+        <v>147</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>791</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>792</v>
+      </c>
+      <c r="J106" t="s">
+        <v>793</v>
+      </c>
+      <c r="K106" t="s">
+        <v>794</v>
+      </c>
+      <c r="L106" t="s">
+        <v>795</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>796</v>
+      </c>
+      <c r="O106" t="s">
+        <v>52</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>797</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>798</v>
+      </c>
+      <c r="J107" t="s">
+        <v>799</v>
+      </c>
+      <c r="K107" t="s">
+        <v>800</v>
+      </c>
+      <c r="L107" t="s">
+        <v>801</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>802</v>
+      </c>
+      <c r="O107" t="s">
+        <v>52</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>39999</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>803</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>804</v>
+      </c>
+      <c r="J108" t="s">
+        <v>805</v>
+      </c>
+      <c r="K108" t="s">
+        <v>806</v>
+      </c>
+      <c r="L108" t="s">
+        <v>807</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
